--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\paper_1\0_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D454C-94A3-44A3-AC27-2184A68D94DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9FDA99-7B7E-48F5-88B0-298465D30AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="280">
   <si>
     <t>study</t>
   </si>
@@ -638,9 +638,6 @@
     <t>LOHMANN (2003)</t>
   </si>
   <si>
-    <t>insulting the neighbour</t>
-  </si>
-  <si>
     <t>agitation / restless</t>
   </si>
   <si>
@@ -852,13 +849,31 @@
   </si>
   <si>
     <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>drawing on a paper</t>
+  </si>
+  <si>
+    <t>looking at the phone</t>
+  </si>
+  <si>
+    <t>sleeping</t>
+  </si>
+  <si>
+    <t>annoying pen clicking</t>
+  </si>
+  <si>
+    <t>correctly executed</t>
+  </si>
+  <si>
+    <t>have been noticed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -905,8 +920,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,8 +1046,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1165,12 +1221,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1359,28 +1426,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,6 +1468,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1801,7 +1909,7 @@
   <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:XFD9"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7526,7 +7634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -7538,30 +7646,30 @@
     <col min="4" max="4" width="63.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="89" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="87" t="s">
+    <row r="4" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="87" t="s">
+      <c r="D4" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="81" t="s">
         <v>84</v>
       </c>
     </row>
@@ -7569,305 +7677,305 @@
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="91" t="s">
+    </row>
+    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="85" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="91" t="s">
+    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="85" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="91" t="s">
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="85" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="91" t="s">
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="85" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="91" t="s">
-        <v>224</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="92"/>
+      <c r="C10" s="86"/>
     </row>
     <row r="11" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27">
         <v>2</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="91" t="s">
+    </row>
+    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="85" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="91" t="s">
+    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="85" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="91" t="s">
+    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="85" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="91" t="s">
+    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="85" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="91" t="s">
+    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="85" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="91" t="s">
-        <v>234</v>
-      </c>
-    </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="92"/>
+      <c r="C17" s="86"/>
     </row>
     <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>3</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="91" t="s">
+    </row>
+    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="85" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="91" t="s">
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="85" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="91" t="s">
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="85" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="91" t="s">
+    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="85" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="91" t="s">
-        <v>240</v>
-      </c>
-    </row>
     <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="92"/>
+      <c r="C23" s="86"/>
     </row>
     <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27">
         <v>4</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="91" t="s">
+    </row>
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="85" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="91" t="s">
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="85" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="91" t="s">
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="85" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="91" t="s">
+    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="85" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="91" t="s">
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="85" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="91" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:3" s="96" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="94"/>
+    <row r="30" spans="1:3" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:3" s="90" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="88"/>
     </row>
     <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="27">
         <v>5</v>
       </c>
-      <c r="B32" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="C32" s="91" t="s">
+      <c r="B32" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="85" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="91" t="s">
+    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="85" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="91" t="s">
+    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="91" t="s">
+    <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="85" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="91" t="s">
+    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="85" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="91" t="s">
+    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="85" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="91" t="s">
-        <v>261</v>
-      </c>
-    </row>
     <row r="39" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="92"/>
+      <c r="C39" s="86"/>
     </row>
     <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="27">
         <v>6</v>
       </c>
-      <c r="B40" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40" s="91" t="s">
+      <c r="B40" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="85" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="91" t="s">
+    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="85" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="91" t="s">
+    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="85" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="91" t="s">
+    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="85" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="91" t="s">
+    <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="85" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="91" t="s">
-        <v>268</v>
-      </c>
-    </row>
     <row r="46" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="92"/>
+      <c r="C46" s="86"/>
     </row>
     <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="27">
         <v>7</v>
       </c>
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="87"/>
+    </row>
+    <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="87"/>
+    </row>
+    <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="87"/>
+    </row>
+    <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50" s="87"/>
+    </row>
+    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="86"/>
+    </row>
+    <row r="52" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B52" s="88"/>
+      <c r="E52" s="87"/>
+    </row>
+    <row r="53" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="87"/>
+    </row>
+    <row r="54" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="87" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="93"/>
-    </row>
-    <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="E48" s="93"/>
-    </row>
-    <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="E49" s="93"/>
-    </row>
-    <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="91" t="s">
-        <v>272</v>
-      </c>
-      <c r="E50" s="93"/>
-    </row>
-    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E51" s="92"/>
-    </row>
-    <row r="52" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="94"/>
-      <c r="E52" s="93"/>
-    </row>
-    <row r="53" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="93" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" s="93"/>
-    </row>
-    <row r="54" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="93" t="s">
+      <c r="B54" s="87"/>
+    </row>
+    <row r="55" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="87" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="93"/>
-    </row>
-    <row r="55" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="93" t="s">
+      <c r="B55" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="93" t="s">
+      <c r="C55" s="87"/>
+    </row>
+    <row r="56" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C55" s="93"/>
-    </row>
-    <row r="56" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="93" t="s">
-        <v>254</v>
-      </c>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
     </row>
     <row r="57" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="93"/>
+      <c r="C57" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7877,30 +7985,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:CU92"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="75" customWidth="1"/>
     <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" customWidth="1"/>
-    <col min="9" max="9" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" customWidth="1"/>
-    <col min="11" max="11" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.08984375" customWidth="1"/>
-    <col min="13" max="13" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="21" customWidth="1"/>
+    <col min="9" max="9" width="4.90625" style="116" customWidth="1"/>
+    <col min="10" max="10" width="7.90625" style="96" customWidth="1"/>
+    <col min="11" max="11" width="40.81640625" customWidth="1"/>
+    <col min="12" max="12" width="6" style="21" customWidth="1"/>
+    <col min="13" max="13" width="4.90625" style="116" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" style="96" customWidth="1"/>
+    <col min="15" max="15" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.08984375" style="96" customWidth="1"/>
+    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
@@ -7913,649 +8025,2363 @@
       <c r="E1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="J1" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="M1" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="N1" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="96">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="101"/>
+      <c r="G2" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="80" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="72"/>
+      <c r="CT2" s="72"/>
+      <c r="CU2" s="72"/>
+    </row>
+    <row r="3" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="96">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="97"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="80" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="72"/>
+      <c r="BX3" s="72"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="72"/>
+      <c r="CA3" s="72"/>
+      <c r="CB3" s="72"/>
+      <c r="CC3" s="72"/>
+      <c r="CD3" s="72"/>
+      <c r="CE3" s="72"/>
+      <c r="CF3" s="72"/>
+      <c r="CG3" s="72"/>
+      <c r="CH3" s="72"/>
+      <c r="CI3" s="72"/>
+      <c r="CJ3" s="72"/>
+      <c r="CK3" s="72"/>
+      <c r="CL3" s="72"/>
+      <c r="CM3" s="72"/>
+      <c r="CN3" s="72"/>
+      <c r="CO3" s="72"/>
+      <c r="CP3" s="72"/>
+      <c r="CQ3" s="72"/>
+      <c r="CR3" s="72"/>
+      <c r="CS3" s="72"/>
+      <c r="CT3" s="72"/>
+      <c r="CU3" s="72"/>
+    </row>
+    <row r="4" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="96">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="80" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="72"/>
+      <c r="BI4" s="72"/>
+      <c r="BJ4" s="72"/>
+      <c r="BK4" s="72"/>
+      <c r="BL4" s="72"/>
+      <c r="BM4" s="72"/>
+      <c r="BN4" s="72"/>
+      <c r="BO4" s="72"/>
+      <c r="BP4" s="72"/>
+      <c r="BQ4" s="72"/>
+      <c r="BR4" s="72"/>
+      <c r="BS4" s="72"/>
+      <c r="BT4" s="72"/>
+      <c r="BU4" s="72"/>
+      <c r="BV4" s="72"/>
+      <c r="BW4" s="72"/>
+      <c r="BX4" s="72"/>
+      <c r="BY4" s="72"/>
+      <c r="BZ4" s="72"/>
+      <c r="CA4" s="72"/>
+      <c r="CB4" s="72"/>
+      <c r="CC4" s="72"/>
+      <c r="CD4" s="72"/>
+      <c r="CE4" s="72"/>
+      <c r="CF4" s="72"/>
+      <c r="CG4" s="72"/>
+      <c r="CH4" s="72"/>
+      <c r="CI4" s="72"/>
+      <c r="CJ4" s="72"/>
+      <c r="CK4" s="72"/>
+      <c r="CL4" s="72"/>
+      <c r="CM4" s="72"/>
+      <c r="CN4" s="72"/>
+      <c r="CO4" s="72"/>
+      <c r="CP4" s="72"/>
+      <c r="CQ4" s="72"/>
+      <c r="CR4" s="72"/>
+      <c r="CS4" s="72"/>
+      <c r="CT4" s="72"/>
+      <c r="CU4" s="72"/>
+    </row>
+    <row r="5" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="96">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="79" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="72"/>
+      <c r="AO5" s="72"/>
+      <c r="AP5" s="72"/>
+      <c r="AQ5" s="72"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="72"/>
+      <c r="AT5" s="72"/>
+      <c r="AU5" s="72"/>
+      <c r="AV5" s="72"/>
+      <c r="AW5" s="72"/>
+      <c r="AX5" s="72"/>
+      <c r="AY5" s="72"/>
+      <c r="AZ5" s="72"/>
+      <c r="BA5" s="72"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="72"/>
+      <c r="BD5" s="72"/>
+      <c r="BE5" s="72"/>
+      <c r="BF5" s="72"/>
+      <c r="BG5" s="72"/>
+      <c r="BH5" s="72"/>
+      <c r="BI5" s="72"/>
+      <c r="BJ5" s="72"/>
+      <c r="BK5" s="72"/>
+      <c r="BL5" s="72"/>
+      <c r="BM5" s="72"/>
+      <c r="BN5" s="72"/>
+      <c r="BO5" s="72"/>
+      <c r="BP5" s="72"/>
+      <c r="BQ5" s="72"/>
+      <c r="BR5" s="72"/>
+      <c r="BS5" s="72"/>
+      <c r="BT5" s="72"/>
+      <c r="BU5" s="72"/>
+      <c r="BV5" s="72"/>
+      <c r="BW5" s="72"/>
+      <c r="BX5" s="72"/>
+      <c r="BY5" s="72"/>
+      <c r="BZ5" s="72"/>
+      <c r="CA5" s="72"/>
+      <c r="CB5" s="72"/>
+      <c r="CC5" s="72"/>
+      <c r="CD5" s="72"/>
+      <c r="CE5" s="72"/>
+      <c r="CF5" s="72"/>
+      <c r="CG5" s="72"/>
+      <c r="CH5" s="72"/>
+      <c r="CI5" s="72"/>
+      <c r="CJ5" s="72"/>
+      <c r="CK5" s="72"/>
+      <c r="CL5" s="72"/>
+      <c r="CM5" s="72"/>
+      <c r="CN5" s="72"/>
+      <c r="CO5" s="72"/>
+      <c r="CP5" s="72"/>
+      <c r="CQ5" s="72"/>
+      <c r="CR5" s="72"/>
+      <c r="CS5" s="72"/>
+      <c r="CT5" s="72"/>
+      <c r="CU5" s="72"/>
+    </row>
+    <row r="6" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A6" s="96">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="81" t="s">
+      <c r="E6" s="97"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="114"/>
+      <c r="O6" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q6" s="92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A7" s="96">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="114"/>
+      <c r="O7" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A8" s="96">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22">
+        <v>7</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="97"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="114"/>
+      <c r="O8" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q8" s="92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A9" s="96">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="97"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="114"/>
+      <c r="O9" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q9" s="92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A10" s="96">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22">
+        <v>9</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="114"/>
+      <c r="O10" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A11" s="96">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="97"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="114"/>
+      <c r="O11" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A12" s="96">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22">
+        <v>11</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="97"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="114"/>
+      <c r="O12" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q12" s="92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99" s="109" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="112"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="114"/>
+      <c r="O13" s="111"/>
+      <c r="Q13" s="111"/>
+    </row>
+    <row r="14" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A14" s="96">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="118"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="118"/>
+      <c r="M14" s="115"/>
+      <c r="O14" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A15" s="96">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22">
+        <v>2</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="G15" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="118"/>
+      <c r="I15" s="115"/>
+      <c r="K15" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="115"/>
+      <c r="O15" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q15" s="92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:99" x14ac:dyDescent="0.35">
+      <c r="A16" s="96">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="G16" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="118"/>
+      <c r="I16" s="115"/>
+      <c r="K16" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="118"/>
+      <c r="M16" s="115"/>
+      <c r="O16" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="96">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22">
+        <v>4</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="G17" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="118"/>
+      <c r="I17" s="115"/>
+      <c r="K17" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L17" s="118"/>
+      <c r="M17" s="115"/>
+      <c r="O17" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q17" s="92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="96">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22">
+        <v>5</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="G18" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="118"/>
+      <c r="I18" s="115"/>
+      <c r="K18" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L18" s="118"/>
+      <c r="M18" s="115"/>
+      <c r="O18" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q18" s="92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="96">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22">
+        <v>6</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="G19" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="118"/>
+      <c r="I19" s="115"/>
+      <c r="K19" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" s="118"/>
+      <c r="M19" s="115"/>
+      <c r="O19" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q19" s="92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="96">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="22">
+        <v>7</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="98"/>
+      <c r="G20" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="118"/>
+      <c r="I20" s="115"/>
+      <c r="K20" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="118"/>
+      <c r="M20" s="115"/>
+      <c r="O20" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q20" s="92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="96">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22">
+        <v>8</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="98"/>
+      <c r="G21" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="118"/>
+      <c r="I21" s="115"/>
+      <c r="K21" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" s="118"/>
+      <c r="M21" s="115"/>
+      <c r="O21" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q21" s="92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="96">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="C22" s="22">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="G22" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="118"/>
+      <c r="I22" s="115"/>
+      <c r="K22" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="118"/>
+      <c r="M22" s="115"/>
+      <c r="O22" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q22" s="92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="96">
+        <v>21</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22">
+        <v>10</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="G23" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="118"/>
+      <c r="I23" s="115"/>
+      <c r="K23" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" s="118"/>
+      <c r="M23" s="115"/>
+      <c r="O23" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q23" s="92" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="96">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="22">
+        <v>11</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="98"/>
+      <c r="G24" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="118"/>
+      <c r="I24" s="115"/>
+      <c r="K24" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="118"/>
+      <c r="M24" s="115"/>
+      <c r="O24" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q24" s="92" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="111"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="115"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="115"/>
+      <c r="O25" s="111"/>
+      <c r="Q25" s="111"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="96">
+        <v>23</v>
+      </c>
+      <c r="B26" s="19">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="118"/>
+      <c r="I26" s="115"/>
+      <c r="K26" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" s="118"/>
+      <c r="M26" s="115"/>
+      <c r="O26" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q26" s="92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="96">
+        <v>24</v>
+      </c>
+      <c r="B27" s="19">
+        <v>1</v>
+      </c>
+      <c r="C27" s="22">
+        <v>2</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="99"/>
+      <c r="G27" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="118"/>
+      <c r="I27" s="115"/>
+      <c r="K27" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" s="118"/>
+      <c r="M27" s="115"/>
+      <c r="O27" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q27" s="92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="96">
+        <v>25</v>
+      </c>
+      <c r="B28" s="19">
+        <v>1</v>
+      </c>
+      <c r="C28" s="22">
+        <v>3</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="G28" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="118"/>
+      <c r="I28" s="115"/>
+      <c r="K28" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" s="118"/>
+      <c r="M28" s="115"/>
+      <c r="O28" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q28" s="92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="96">
+        <v>26</v>
+      </c>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
+      <c r="C29" s="22">
+        <v>4</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="G29" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="H29" s="118"/>
+      <c r="I29" s="115"/>
+      <c r="K29" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" s="118"/>
+      <c r="M29" s="115"/>
+      <c r="O29" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q29" s="92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="96">
+        <v>27</v>
+      </c>
+      <c r="B30" s="19">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22">
+        <v>5</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="G30" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H30" s="118"/>
+      <c r="I30" s="115"/>
+      <c r="K30" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" s="118"/>
+      <c r="M30" s="115"/>
+      <c r="O30" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" s="92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="96">
+        <v>28</v>
+      </c>
+      <c r="B31" s="19">
+        <v>1</v>
+      </c>
+      <c r="C31" s="22">
+        <v>6</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="G31" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="H31" s="118"/>
+      <c r="I31" s="115"/>
+      <c r="K31" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="L31" s="118"/>
+      <c r="M31" s="115"/>
+      <c r="O31" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q31" s="92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="96">
+        <v>29</v>
+      </c>
+      <c r="B32" s="19">
+        <v>1</v>
+      </c>
+      <c r="C32" s="22">
+        <v>7</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="99"/>
+      <c r="G32" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="118"/>
+      <c r="I32" s="115"/>
+      <c r="K32" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="L32" s="118"/>
+      <c r="M32" s="115"/>
+      <c r="O32" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="92" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="96">
+        <v>30</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="22">
+        <v>8</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="G33" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="118"/>
+      <c r="I33" s="115"/>
+      <c r="K33" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" s="118"/>
+      <c r="M33" s="115"/>
+      <c r="O33" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q33" s="92" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="96">
+        <v>31</v>
+      </c>
+      <c r="B34" s="19">
+        <v>1</v>
+      </c>
+      <c r="C34" s="22">
+        <v>9</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="99"/>
+      <c r="G34" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="H34" s="118"/>
+      <c r="I34" s="115"/>
+      <c r="K34" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="118"/>
+      <c r="M34" s="115"/>
+      <c r="O34" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q34" s="92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="96">
+        <v>32</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="22">
+        <v>10</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="99"/>
+      <c r="G35" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="118"/>
+      <c r="I35" s="115"/>
+      <c r="K35" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" s="118"/>
+      <c r="M35" s="115"/>
+      <c r="O35" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q35" s="92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="96">
+        <v>33</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="22">
+        <v>11</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="99"/>
+      <c r="G36" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="118"/>
+      <c r="I36" s="115"/>
+      <c r="K36" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36" s="118"/>
+      <c r="M36" s="115"/>
+      <c r="O36" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q36" s="92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="109">
+        <v>34</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="116"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="116"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="96">
+        <v>35</v>
+      </c>
+      <c r="B38" s="19">
+        <v>1</v>
+      </c>
+      <c r="C38" s="22">
+        <v>1</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="118"/>
+      <c r="I38" s="115"/>
+      <c r="K38" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" s="118"/>
+      <c r="M38" s="115"/>
+      <c r="O38" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q38" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="96">
+        <v>36</v>
+      </c>
+      <c r="B39" s="19">
+        <v>1</v>
+      </c>
+      <c r="C39" s="22">
+        <v>2</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="108"/>
+      <c r="G39" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39" s="118"/>
+      <c r="I39" s="115"/>
+      <c r="K39" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" s="118"/>
+      <c r="M39" s="115"/>
+      <c r="O39" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q39" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="96">
+        <v>37</v>
+      </c>
+      <c r="B40" s="19">
+        <v>1</v>
+      </c>
+      <c r="C40" s="22">
+        <v>3</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="108"/>
+      <c r="G40" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" s="118"/>
+      <c r="I40" s="115"/>
+      <c r="K40" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" s="118"/>
+      <c r="M40" s="115"/>
+      <c r="O40" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q40" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="96">
+        <v>38</v>
+      </c>
+      <c r="B41" s="19">
+        <v>1</v>
+      </c>
+      <c r="C41" s="22">
+        <v>4</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="108"/>
+      <c r="G41" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="H41" s="118"/>
+      <c r="I41" s="115"/>
+      <c r="K41" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="L41" s="118"/>
+      <c r="M41" s="115"/>
+      <c r="O41" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q41" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="96">
+        <v>39</v>
+      </c>
+      <c r="B42" s="19">
+        <v>1</v>
+      </c>
+      <c r="C42" s="22">
+        <v>5</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="108"/>
+      <c r="G42" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" s="118"/>
+      <c r="I42" s="115"/>
+      <c r="K42" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="L42" s="118"/>
+      <c r="M42" s="115"/>
+      <c r="O42" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q42" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="96">
+        <v>40</v>
+      </c>
+      <c r="B43" s="19">
+        <v>1</v>
+      </c>
+      <c r="C43" s="22">
+        <v>6</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="108"/>
+      <c r="G43" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="118"/>
+      <c r="I43" s="115"/>
+      <c r="K43" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="L43" s="118"/>
+      <c r="M43" s="115"/>
+      <c r="O43" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q43" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="96">
+        <v>41</v>
+      </c>
+      <c r="B44" s="19">
+        <v>1</v>
+      </c>
+      <c r="C44" s="22">
+        <v>7</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="108"/>
+      <c r="G44" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="H44" s="118"/>
+      <c r="I44" s="115"/>
+      <c r="K44" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="L44" s="118"/>
+      <c r="M44" s="115"/>
+      <c r="O44" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q44" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="96">
+        <v>42</v>
+      </c>
+      <c r="B45" s="19">
+        <v>1</v>
+      </c>
+      <c r="C45" s="22">
+        <v>8</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="108"/>
+      <c r="G45" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45" s="118"/>
+      <c r="I45" s="115"/>
+      <c r="K45" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="L45" s="118"/>
+      <c r="M45" s="115"/>
+      <c r="O45" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q45" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="96">
+        <v>43</v>
+      </c>
+      <c r="B46" s="19">
+        <v>1</v>
+      </c>
+      <c r="C46" s="22">
+        <v>9</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="108"/>
+      <c r="G46" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="118"/>
+      <c r="I46" s="115"/>
+      <c r="K46" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="L46" s="118"/>
+      <c r="M46" s="115"/>
+      <c r="O46" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q46" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="96">
+        <v>44</v>
+      </c>
+      <c r="B47" s="19">
+        <v>1</v>
+      </c>
+      <c r="C47" s="22">
+        <v>10</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="108"/>
+      <c r="G47" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" s="118"/>
+      <c r="I47" s="115"/>
+      <c r="K47" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="L47" s="118"/>
+      <c r="M47" s="115"/>
+      <c r="O47" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q47" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="96">
+        <v>45</v>
+      </c>
+      <c r="B48" s="19">
+        <v>1</v>
+      </c>
+      <c r="C48" s="22">
+        <v>11</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="108"/>
+      <c r="G48" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="H48" s="118"/>
+      <c r="I48" s="115"/>
+      <c r="K48" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="L48" s="118"/>
+      <c r="M48" s="115"/>
+      <c r="O48" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q48" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="109">
+        <v>46</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="116"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="116"/>
+      <c r="Q49" s="110"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="96">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="96">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="96">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="96">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="96">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="96">
+        <v>53</v>
+      </c>
+      <c r="G56" s="92" t="s">
+        <v>276</v>
+      </c>
+      <c r="H56" s="118"/>
+      <c r="I56" s="115"/>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="118"/>
+      <c r="M56" s="115"/>
+      <c r="O56">
+        <f ca="1">RANDBETWEEN(1,11)</f>
+        <v>3</v>
+      </c>
+      <c r="Q56">
+        <f ca="1">RANDBETWEEN(1,11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="96">
+        <v>54</v>
+      </c>
+      <c r="G57" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="H57" s="118"/>
+      <c r="I57" s="115"/>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57" s="118"/>
+      <c r="M57" s="115"/>
+      <c r="O57">
+        <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G58" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" s="118"/>
+      <c r="I58" s="115"/>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58" s="118"/>
+      <c r="M58" s="115"/>
+      <c r="O58">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G59" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="H59" s="118"/>
+      <c r="I59" s="115"/>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59" s="118"/>
+      <c r="M59" s="115"/>
+      <c r="O59">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="118"/>
+      <c r="I60" s="115"/>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60" s="118"/>
+      <c r="M60" s="115"/>
+      <c r="O60">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83" t="s">
+      <c r="C61" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="H61" s="118"/>
+      <c r="I61" s="115"/>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="L61" s="118"/>
+      <c r="M61" s="115"/>
+      <c r="O61">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="G62" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="H62" s="118"/>
+      <c r="I62" s="115"/>
+      <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="L62" s="118"/>
+      <c r="M62" s="115"/>
+      <c r="O62">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83" t="s">
+      <c r="C63" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="31"/>
+      <c r="G63" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="H63" s="118"/>
+      <c r="I63" s="115"/>
+      <c r="K63">
+        <v>8</v>
+      </c>
+      <c r="L63" s="118"/>
+      <c r="M63" s="115"/>
+      <c r="O63">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="G64" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" s="118"/>
+      <c r="I64" s="115"/>
+      <c r="K64">
+        <v>9</v>
+      </c>
+      <c r="L64" s="118"/>
+      <c r="M64" s="115"/>
+      <c r="O64">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B65" s="94"/>
+      <c r="D65" s="95"/>
+      <c r="G65" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="H65" s="118"/>
+      <c r="I65" s="115"/>
+      <c r="K65">
+        <v>10</v>
+      </c>
+      <c r="L65" s="118"/>
+      <c r="M65" s="115"/>
+      <c r="O65">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="G66" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="H66" s="118"/>
+      <c r="I66" s="115"/>
+      <c r="K66">
+        <v>11</v>
+      </c>
+      <c r="L66" s="118"/>
+      <c r="M66" s="115"/>
+      <c r="O66">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="Q66">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B73">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B77">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B85">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="83" t="s">
-        <v>203</v>
-      </c>
-      <c r="K6" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="M6" s="83" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="E86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="K7" s="83" t="s">
-        <v>203</v>
-      </c>
-      <c r="M7" s="83" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="E90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="M8" s="83" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="E91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="M9" s="84" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="K10" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="M10" s="83" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="K11" s="83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="83" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="K12" s="84" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E92" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="83" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="76" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="75" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8568,8 +10394,8 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9694,8 +11520,8 @@
     </row>
     <row r="8" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42"/>
-      <c r="B8" s="86" t="s">
-        <v>218</v>
+      <c r="B8" s="80" t="s">
+        <v>217</v>
       </c>
       <c r="C8" s="43"/>
     </row>
@@ -9767,8 +11593,8 @@
     </row>
     <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
-      <c r="B17" s="86" t="s">
-        <v>218</v>
+      <c r="B17" s="80" t="s">
+        <v>217</v>
       </c>
       <c r="C17" s="47"/>
     </row>
@@ -9840,8 +11666,8 @@
     </row>
     <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="51"/>
-      <c r="B26" s="86" t="s">
-        <v>218</v>
+      <c r="B26" s="80" t="s">
+        <v>217</v>
       </c>
       <c r="C26" s="52"/>
     </row>
@@ -9913,8 +11739,8 @@
     </row>
     <row r="35" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33"/>
-      <c r="B35" s="86" t="s">
-        <v>218</v>
+      <c r="B35" s="80" t="s">
+        <v>217</v>
       </c>
       <c r="C35" s="34"/>
     </row>

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9FDA99-7B7E-48F5-88B0-298465D30AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F2ADD-DCAD-4242-B8EA-BCC8B9EB6A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
     <sheet name="items" sheetId="11" r:id="rId2"/>
-    <sheet name="counerbalancing" sheetId="10" r:id="rId3"/>
-    <sheet name="videolabels" sheetId="9" r:id="rId4"/>
-    <sheet name="procedure" sheetId="12" r:id="rId5"/>
+    <sheet name="Overlap_counterbalancing" sheetId="10" r:id="rId3"/>
+    <sheet name="Pilot1_counterbalancing" sheetId="13" r:id="rId4"/>
+    <sheet name="marker" sheetId="14" r:id="rId5"/>
+    <sheet name="videolabels" sheetId="9" r:id="rId6"/>
+    <sheet name="procedure" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">subject_list!$A$1:$AA$77</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="331">
   <si>
     <t>study</t>
   </si>
@@ -867,6 +869,159 @@
   </si>
   <si>
     <t>have been noticed</t>
+  </si>
+  <si>
+    <t>verb_chit</t>
+  </si>
+  <si>
+    <t>verb_yell</t>
+  </si>
+  <si>
+    <t>verb_sign</t>
+  </si>
+  <si>
+    <t>lack_drawing</t>
+  </si>
+  <si>
+    <t>lack_phone</t>
+  </si>
+  <si>
+    <t>lack_sleep</t>
+  </si>
+  <si>
+    <t>agit_drum</t>
+  </si>
+  <si>
+    <t>agit_walk</t>
+  </si>
+  <si>
+    <t>agit_pen</t>
+  </si>
+  <si>
+    <t>00-01</t>
+  </si>
+  <si>
+    <t>01-04</t>
+  </si>
+  <si>
+    <t>04-07</t>
+  </si>
+  <si>
+    <t>07-10</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>in einem 3min zeitfenster störung für max 1min oder bis ermahnt wird</t>
+  </si>
+  <si>
+    <t>in der ersten minute keine störung</t>
+  </si>
+  <si>
+    <t>within a timewindow, there can only be an overlap of different types of dist (i.e. ist never the case that two students yell at the same time)</t>
+  </si>
+  <si>
+    <t>within a session, no dist appears twice (i.e. looking phone happens only once in ten minutes)</t>
+  </si>
+  <si>
+    <t>there are 9 dist in a ten min intervall (quelle einfügen die sagt dass das real ist</t>
+  </si>
+  <si>
+    <t>SESSION</t>
+  </si>
+  <si>
+    <t>Unit1</t>
+  </si>
+  <si>
+    <t>Unit2</t>
+  </si>
+  <si>
+    <t>Unit3</t>
+  </si>
+  <si>
+    <t>Unit4</t>
+  </si>
+  <si>
+    <t>as a student, no participant has to do the same dist twice in a session</t>
+  </si>
+  <si>
+    <t>as a student, each participant contributes 3 dist in each unit of different dist-types</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>verbal</t>
+  </si>
+  <si>
+    <t>lack of enth</t>
+  </si>
+  <si>
+    <t>agitation</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>calib</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>armraise</t>
+  </si>
+  <si>
+    <t>marker_id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>color_B</t>
+  </si>
+  <si>
+    <t>color_G</t>
+  </si>
+  <si>
+    <t>color_R</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>rect</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1232,12 +1387,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1523,6 +1687,26 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1912,32 +2096,32 @@
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="12.81640625" customWidth="1"/>
-    <col min="25" max="25" width="11.1796875" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
     <col min="26" max="26" width="55" customWidth="1"/>
-    <col min="27" max="27" width="65.81640625" customWidth="1"/>
+    <col min="27" max="27" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2108,7 +2292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2196,7 +2380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2284,7 +2468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2372,7 +2556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2460,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2548,7 +2732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2636,7 +2820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2724,7 +2908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2812,7 +2996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2900,7 +3084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2988,7 +3172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3076,7 +3260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3105,7 +3289,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3134,7 +3318,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3222,7 +3406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3310,7 +3494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -3398,7 +3582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -3486,7 +3670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -3574,7 +3758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -3662,7 +3846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -3750,7 +3934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -3838,7 +4022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>9</v>
       </c>
@@ -3926,7 +4110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -4014,7 +4198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -4102,7 +4286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -4190,7 +4374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -4278,7 +4462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>14</v>
       </c>
@@ -4366,7 +4550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -4454,7 +4638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>16</v>
       </c>
@@ -4542,7 +4726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -4630,7 +4814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>18</v>
       </c>
@@ -4718,7 +4902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>19</v>
       </c>
@@ -4806,7 +4990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -4894,7 +5078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>21</v>
       </c>
@@ -4982,7 +5166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -5070,7 +5254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>23</v>
       </c>
@@ -5158,7 +5342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>24</v>
       </c>
@@ -5246,7 +5430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5275,7 +5459,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5304,7 +5488,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -5392,7 +5576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -5480,7 +5664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -5568,7 +5752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -5656,7 +5840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -5744,7 +5928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -5832,7 +6016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -5920,7 +6104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -6008,7 +6192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -6096,7 +6280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -6184,7 +6368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -6272,7 +6456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -6360,7 +6544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -6448,7 +6632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -6536,7 +6720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -6624,7 +6808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -6712,7 +6896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -6800,7 +6984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -6888,7 +7072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -6976,7 +7160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -7064,7 +7248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -7152,7 +7336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -7240,7 +7424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -7328,7 +7512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -7416,7 +7600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7445,7 +7629,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7474,7 +7658,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -7489,7 +7673,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -7504,7 +7688,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -7519,7 +7703,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
@@ -7534,7 +7718,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>25</v>
       </c>
@@ -7549,7 +7733,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -7564,7 +7748,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -7579,7 +7763,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -7594,7 +7778,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>29</v>
       </c>
@@ -7609,7 +7793,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -7638,25 +7822,25 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" customWidth="1"/>
-    <col min="4" max="4" width="63.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>83</v>
       </c>
@@ -7673,7 +7857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>1</v>
       </c>
@@ -7684,30 +7868,30 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="85" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="85" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="85" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="85" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="86"/>
     </row>
-    <row r="11" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>2</v>
       </c>
@@ -7718,35 +7902,35 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="85" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="85" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="85" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="85" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="85" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="86"/>
     </row>
-    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>3</v>
       </c>
@@ -7757,30 +7941,30 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="85" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="85" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="85" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="85" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="86"/>
     </row>
-    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>4</v>
       </c>
@@ -7791,39 +7975,39 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="85" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="85" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="85" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="85" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="85" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:3" s="90" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" s="90" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="88" t="s">
         <v>261</v>
       </c>
       <c r="C31" s="88"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>5</v>
       </c>
@@ -7834,40 +8018,40 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="85" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="85" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="85" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="85" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="85" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="85" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="86"/>
     </row>
-    <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>6</v>
       </c>
@@ -7878,35 +8062,35 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="85" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="85" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="85" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="85" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="85" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="86"/>
     </row>
-    <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>7</v>
       </c>
@@ -7918,47 +8102,47 @@
       </c>
       <c r="E47" s="87"/>
     </row>
-    <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="85" t="s">
         <v>269</v>
       </c>
       <c r="E48" s="87"/>
     </row>
-    <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="85" t="s">
         <v>270</v>
       </c>
       <c r="E49" s="87"/>
     </row>
-    <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="85" t="s">
         <v>271</v>
       </c>
       <c r="E50" s="87"/>
     </row>
-    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="86"/>
     </row>
-    <row r="52" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="88" t="s">
         <v>272</v>
       </c>
       <c r="B52" s="88"/>
       <c r="E52" s="87"/>
     </row>
-    <row r="53" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="87" t="s">
         <v>273</v>
       </c>
       <c r="B53" s="87"/>
     </row>
-    <row r="54" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="87" t="s">
         <v>250</v>
       </c>
       <c r="B54" s="87"/>
     </row>
-    <row r="55" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="87" t="s">
         <v>251</v>
       </c>
@@ -7967,14 +8151,14 @@
       </c>
       <c r="C55" s="87"/>
     </row>
-    <row r="56" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="87" t="s">
         <v>253</v>
       </c>
       <c r="B56" s="87"/>
       <c r="C56" s="87"/>
     </row>
-    <row r="57" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="87"/>
     </row>
   </sheetData>
@@ -7987,32 +8171,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CU92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="75" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="75" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="21" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" style="116" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="96" customWidth="1"/>
-    <col min="11" max="11" width="40.81640625" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="116" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="96" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
     <col min="12" max="12" width="6" style="21" customWidth="1"/>
-    <col min="13" max="13" width="4.90625" style="116" customWidth="1"/>
-    <col min="14" max="14" width="7.1796875" style="96" customWidth="1"/>
-    <col min="15" max="15" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.08984375" style="96" customWidth="1"/>
-    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="116" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="96" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="96" customWidth="1"/>
+    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
@@ -8062,7 +8246,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96">
         <v>1</v>
       </c>
@@ -8181,7 +8365,7 @@
       <c r="CT2" s="72"/>
       <c r="CU2" s="72"/>
     </row>
-    <row r="3" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="96">
         <v>2</v>
       </c>
@@ -8298,7 +8482,7 @@
       <c r="CT3" s="72"/>
       <c r="CU3" s="72"/>
     </row>
-    <row r="4" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="96">
         <v>3</v>
       </c>
@@ -8415,7 +8599,7 @@
       <c r="CT4" s="72"/>
       <c r="CU4" s="72"/>
     </row>
-    <row r="5" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="96">
         <v>4</v>
       </c>
@@ -8532,7 +8716,7 @@
       <c r="CT5" s="72"/>
       <c r="CU5" s="72"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" s="96">
         <v>5</v>
       </c>
@@ -8565,7 +8749,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" s="96">
         <v>6</v>
       </c>
@@ -8598,7 +8782,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" s="96">
         <v>7</v>
       </c>
@@ -8631,7 +8815,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" s="96">
         <v>8</v>
       </c>
@@ -8664,7 +8848,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" s="96">
         <v>9</v>
       </c>
@@ -8697,7 +8881,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" s="96">
         <v>10</v>
       </c>
@@ -8730,7 +8914,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" s="96">
         <v>11</v>
       </c>
@@ -8763,7 +8947,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:99" s="109" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:99" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F13" s="112"/>
       <c r="G13" s="110"/>
       <c r="H13" s="24"/>
@@ -8775,7 +8959,7 @@
       <c r="O13" s="111"/>
       <c r="Q13" s="111"/>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" s="96">
         <v>12</v>
       </c>
@@ -8809,7 +8993,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" s="96">
         <v>13</v>
       </c>
@@ -8840,7 +9024,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" s="96">
         <v>14</v>
       </c>
@@ -8871,7 +9055,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="96">
         <v>15</v>
       </c>
@@ -8902,7 +9086,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="96">
         <v>16</v>
       </c>
@@ -8933,7 +9117,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="96">
         <v>17</v>
       </c>
@@ -8964,7 +9148,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="96">
         <v>18</v>
       </c>
@@ -8995,7 +9179,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="96">
         <v>19</v>
       </c>
@@ -9026,7 +9210,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="96">
         <v>20</v>
       </c>
@@ -9057,7 +9241,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="96">
         <v>21</v>
       </c>
@@ -9088,7 +9272,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="96">
         <v>22</v>
       </c>
@@ -9119,7 +9303,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G25" s="111"/>
       <c r="H25" s="118"/>
       <c r="I25" s="115"/>
@@ -9129,7 +9313,7 @@
       <c r="O25" s="111"/>
       <c r="Q25" s="111"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="96">
         <v>23</v>
       </c>
@@ -9162,7 +9346,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="96">
         <v>24</v>
       </c>
@@ -9193,7 +9377,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="96">
         <v>25</v>
       </c>
@@ -9224,7 +9408,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="96">
         <v>26</v>
       </c>
@@ -9255,7 +9439,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="96">
         <v>27</v>
       </c>
@@ -9286,7 +9470,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="96">
         <v>28</v>
       </c>
@@ -9317,7 +9501,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="96">
         <v>29</v>
       </c>
@@ -9348,7 +9532,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="96">
         <v>30</v>
       </c>
@@ -9379,7 +9563,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="96">
         <v>31</v>
       </c>
@@ -9410,7 +9594,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="96">
         <v>32</v>
       </c>
@@ -9441,7 +9625,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="96">
         <v>33</v>
       </c>
@@ -9472,7 +9656,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109">
         <v>34</v>
       </c>
@@ -9481,7 +9665,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="116"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="96">
         <v>35</v>
       </c>
@@ -9514,7 +9698,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="96">
         <v>36</v>
       </c>
@@ -9545,7 +9729,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="96">
         <v>37</v>
       </c>
@@ -9576,7 +9760,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="96">
         <v>38</v>
       </c>
@@ -9607,7 +9791,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="96">
         <v>39</v>
       </c>
@@ -9638,7 +9822,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="96">
         <v>40</v>
       </c>
@@ -9669,7 +9853,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="96">
         <v>41</v>
       </c>
@@ -9700,7 +9884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="96">
         <v>42</v>
       </c>
@@ -9731,7 +9915,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="96">
         <v>43</v>
       </c>
@@ -9762,7 +9946,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="96">
         <v>44</v>
       </c>
@@ -9793,7 +9977,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="96">
         <v>45</v>
       </c>
@@ -9824,7 +10008,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="109">
         <v>46</v>
       </c>
@@ -9834,37 +10018,37 @@
       <c r="M49" s="116"/>
       <c r="Q49" s="110"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="96">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="96">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="96">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="96">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="96">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="96">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="96">
         <v>53</v>
       </c>
@@ -9887,7 +10071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="96">
         <v>54</v>
       </c>
@@ -9903,14 +10087,14 @@
       <c r="M57" s="115"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G58" s="92" t="s">
         <v>199</v>
       </c>
@@ -9923,14 +10107,14 @@
       <c r="M58" s="115"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G59" s="92" t="s">
         <v>277</v>
       </c>
@@ -9943,14 +10127,14 @@
       <c r="M59" s="115"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="75" t="s">
         <v>202</v>
       </c>
@@ -9966,14 +10150,14 @@
       <c r="M60" s="115"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="73" t="s">
         <v>200</v>
       </c>
@@ -9998,14 +10182,14 @@
       <c r="M61" s="115"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>201</v>
       </c>
@@ -10030,14 +10214,14 @@
       <c r="M62" s="115"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>199</v>
       </c>
@@ -10060,14 +10244,14 @@
       <c r="M63" s="115"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="s">
         <v>210</v>
       </c>
@@ -10094,10 +10278,10 @@
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B65" s="94"/>
       <c r="D65" s="95"/>
       <c r="G65" s="92" t="s">
@@ -10112,14 +10296,14 @@
       <c r="M65" s="115"/>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G66" s="92" t="s">
         <v>275</v>
       </c>
@@ -10132,14 +10316,47 @@
       <c r="M66" s="115"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>2</v>
       </c>
@@ -10153,7 +10370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>2</v>
       </c>
@@ -10167,7 +10384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>2</v>
       </c>
@@ -10181,7 +10398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>2</v>
       </c>
@@ -10195,7 +10412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>3</v>
       </c>
@@ -10209,7 +10426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>3</v>
       </c>
@@ -10223,7 +10440,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>3</v>
       </c>
@@ -10237,7 +10454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>3</v>
       </c>
@@ -10251,7 +10468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>4</v>
       </c>
@@ -10262,7 +10479,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>4</v>
       </c>
@@ -10273,7 +10490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>4</v>
       </c>
@@ -10284,7 +10501,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>4</v>
       </c>
@@ -10295,7 +10512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>5</v>
       </c>
@@ -10306,7 +10523,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>5</v>
       </c>
@@ -10317,7 +10534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>5</v>
       </c>
@@ -10328,7 +10545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>5</v>
       </c>
@@ -10339,7 +10556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>6</v>
       </c>
@@ -10350,7 +10567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>6</v>
       </c>
@@ -10361,7 +10578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>6</v>
       </c>
@@ -10372,7 +10589,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>6</v>
       </c>
@@ -10390,6 +10607,2763 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E918F0-9C6B-4528-8541-240528FAF3FE}">
+  <dimension ref="E1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="7.7109375" style="11" customWidth="1"/>
+    <col min="10" max="13" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="132"/>
+      <c r="I1" s="129" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" s="136" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="137" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="134" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="126" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="K2" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H3" s="134"/>
+      <c r="I3" s="126" t="s">
+        <v>307</v>
+      </c>
+      <c r="J3" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="K3" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H4" s="135"/>
+      <c r="I4" s="138" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="K4" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="L4" s="95" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="133" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="128"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="123"/>
+    </row>
+    <row r="7" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="134"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="134" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" s="129"/>
+      <c r="J8" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="134"/>
+      <c r="I9" s="127" t="s">
+        <v>289</v>
+      </c>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="134"/>
+      <c r="I10" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="K10" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="L10" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="134"/>
+      <c r="I11" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="J11" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="L11" s="121" t="s">
+        <v>288</v>
+      </c>
+      <c r="M11" s="124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H12" s="134"/>
+      <c r="I12" s="130" t="s">
+        <v>292</v>
+      </c>
+      <c r="J12" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="L12" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="M12" s="125" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="134"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="134"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="134" t="s">
+        <v>301</v>
+      </c>
+      <c r="I15" s="129"/>
+      <c r="J15" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H16" s="134"/>
+      <c r="I16" s="131" t="s">
+        <v>289</v>
+      </c>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H17" s="134"/>
+      <c r="I17" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="J17" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="K17" s="121" t="s">
+        <v>286</v>
+      </c>
+      <c r="L17" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H18" s="134"/>
+      <c r="I18" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="J18" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="K18" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="L18" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H19" s="134"/>
+      <c r="I19" s="130" t="s">
+        <v>292</v>
+      </c>
+      <c r="J19" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="K19" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="L19" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="M19" s="95" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="134"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="134"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H22" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="129"/>
+      <c r="J22" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="134"/>
+      <c r="I23" s="131" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="120"/>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="134"/>
+      <c r="I24" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="J24" s="121" t="s">
+        <v>288</v>
+      </c>
+      <c r="K24" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="L24" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="134"/>
+      <c r="I25" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="J25" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="121" t="s">
+        <v>286</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="134"/>
+      <c r="I26" s="130" t="s">
+        <v>292</v>
+      </c>
+      <c r="J26" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="L26" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="M26" s="95" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="134"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="134"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H29" s="134" t="s">
+        <v>303</v>
+      </c>
+      <c r="I29" s="129"/>
+      <c r="J29" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="134"/>
+      <c r="I30" s="131" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="134"/>
+      <c r="I31" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" s="121" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H32" s="134"/>
+      <c r="I32" s="127" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="L32" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="H33" s="135"/>
+      <c r="I33" s="130" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" s="122" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="L33" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="M33" s="95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD37BA56-ED44-45A8-8BC4-C6ACD2907AAC}">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(C2,"_",D2,"_",E2)</f>
+        <v>calib_calib_1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">CONCATENATE(C3,"_",D3,"_",E3)</f>
+        <v>calib_calib_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>calib_calib_3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>calib_calib_4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>calib_calib_5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>calib_calib_6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>calib_calib_7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>calib_calib_8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>calib_calib_9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>board_board_1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>board_board_2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>board_board_3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>board_board_4</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>clock_clock_clock</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>A_person_front</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>A_person_back</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>A_armraise_armraise</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>A_watch_watch</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_1</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_2</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_2</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_2</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_2</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_3</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_3</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_3</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_3</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_4</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_4</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_4</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>330</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>A_material_4</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>B_person_front</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" t="s">
+        <v>316</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>B_person_back</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38" t="s">
+        <v>321</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>B_armraise_armraise</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>B_watch_watch</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>330</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_1</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>330</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_1</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_1</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_1</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>314</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_2</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>314</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_2</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>330</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>314</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_2</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>314</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_2</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>314</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_3</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_3</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>314</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_3</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_3</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>314</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_4</v>
+      </c>
+      <c r="G52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_4</v>
+      </c>
+      <c r="G53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>314</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_4</v>
+      </c>
+      <c r="G54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" t="s">
+        <v>314</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>B_material_4</v>
+      </c>
+      <c r="G55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>317</v>
+      </c>
+      <c r="E56" t="s">
+        <v>315</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>C_person_front</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>317</v>
+      </c>
+      <c r="E57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>C_person_back</v>
+      </c>
+      <c r="G57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>C_armraise_armraise</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>320</v>
+      </c>
+      <c r="E59" t="s">
+        <v>320</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>C_watch_watch</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>330</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>314</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>C_material_1</v>
+      </c>
+      <c r="G60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>330</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>C_material_1</v>
+      </c>
+      <c r="G61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>C_material_1</v>
+      </c>
+      <c r="G62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>314</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>C_material_1</v>
+      </c>
+      <c r="G63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>330</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>C_material_2</v>
+      </c>
+      <c r="G64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>C_material_2</v>
+      </c>
+      <c r="G65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>C_material_2</v>
+      </c>
+      <c r="G66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>314</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F95" si="1">CONCATENATE(C67,"_",D67,"_",E67)</f>
+        <v>C_material_2</v>
+      </c>
+      <c r="G67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>314</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>C_material_3</v>
+      </c>
+      <c r="G68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>330</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>314</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>C_material_3</v>
+      </c>
+      <c r="G69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>330</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
+        <v>314</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>C_material_3</v>
+      </c>
+      <c r="G70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>330</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>C_material_3</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>330</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s">
+        <v>314</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>C_material_4</v>
+      </c>
+      <c r="G72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
+        <v>314</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>C_material_4</v>
+      </c>
+      <c r="G73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>314</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>C_material_4</v>
+      </c>
+      <c r="G74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>C_material_4</v>
+      </c>
+      <c r="G75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>329</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" t="s">
+        <v>317</v>
+      </c>
+      <c r="E76" t="s">
+        <v>315</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>D_person_front</v>
+      </c>
+      <c r="G76">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>329</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" t="s">
+        <v>316</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>D_person_back</v>
+      </c>
+      <c r="G77">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" t="s">
+        <v>321</v>
+      </c>
+      <c r="E78" t="s">
+        <v>321</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>D_armraise_armraise</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>D_watch_watch</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>330</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
+        <v>314</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_1</v>
+      </c>
+      <c r="G80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>330</v>
+      </c>
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" t="s">
+        <v>314</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_1</v>
+      </c>
+      <c r="G81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" t="s">
+        <v>314</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_1</v>
+      </c>
+      <c r="G82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>330</v>
+      </c>
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" t="s">
+        <v>314</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_1</v>
+      </c>
+      <c r="G83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" t="s">
+        <v>314</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_2</v>
+      </c>
+      <c r="G84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" t="s">
+        <v>314</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_2</v>
+      </c>
+      <c r="G85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>330</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_2</v>
+      </c>
+      <c r="G86">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_2</v>
+      </c>
+      <c r="G87">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>330</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" t="s">
+        <v>314</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_3</v>
+      </c>
+      <c r="G88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" t="s">
+        <v>314</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_3</v>
+      </c>
+      <c r="G89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" t="s">
+        <v>314</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_3</v>
+      </c>
+      <c r="G90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" t="s">
+        <v>314</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_3</v>
+      </c>
+      <c r="G91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" t="s">
+        <v>314</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_4</v>
+      </c>
+      <c r="G92">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" t="s">
+        <v>314</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_4</v>
+      </c>
+      <c r="G93">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>330</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s">
+        <v>314</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_4</v>
+      </c>
+      <c r="G94">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>330</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>314</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>D_material_4</v>
+      </c>
+      <c r="G95">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -10398,14 +13372,14 @@
       <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -10425,7 +13399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -10446,7 +13420,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -10467,7 +13441,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -10488,7 +13462,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -10509,7 +13483,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -10530,7 +13504,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -10551,7 +13525,7 @@
         <v xml:space="preserve">Study1_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>2</v>
       </c>
@@ -10572,7 +13546,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -10593,7 +13567,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -10614,7 +13588,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -10635,7 +13609,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -10656,7 +13630,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -10677,7 +13651,7 @@
         <v xml:space="preserve">Study2_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>3</v>
       </c>
@@ -10698,7 +13672,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>3</v>
       </c>
@@ -10719,7 +13693,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>3</v>
       </c>
@@ -10740,7 +13714,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>3</v>
       </c>
@@ -10761,7 +13735,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>3</v>
       </c>
@@ -10782,7 +13756,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>3</v>
       </c>
@@ -10803,7 +13777,7 @@
         <v xml:space="preserve">Study1_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>4</v>
       </c>
@@ -10824,7 +13798,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>4</v>
       </c>
@@ -10845,7 +13819,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>4</v>
       </c>
@@ -10866,7 +13840,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>4</v>
       </c>
@@ -10887,7 +13861,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>4</v>
       </c>
@@ -10908,7 +13882,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>4</v>
       </c>
@@ -10929,12 +13903,12 @@
         <v xml:space="preserve">Study1_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>1</v>
       </c>
@@ -10955,7 +13929,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>1</v>
       </c>
@@ -10976,7 +13950,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -10997,7 +13971,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>1</v>
       </c>
@@ -11018,7 +13992,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>1</v>
       </c>
@@ -11039,7 +14013,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>1</v>
       </c>
@@ -11060,7 +14034,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>2</v>
       </c>
@@ -11081,7 +14055,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>2</v>
       </c>
@@ -11102,7 +14076,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>2</v>
       </c>
@@ -11123,7 +14097,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>2</v>
       </c>
@@ -11144,7 +14118,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -11165,7 +14139,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>2</v>
       </c>
@@ -11186,7 +14160,7 @@
         <v xml:space="preserve">Study2_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>3</v>
       </c>
@@ -11207,7 +14181,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>3</v>
       </c>
@@ -11228,7 +14202,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -11249,7 +14223,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>3</v>
       </c>
@@ -11270,7 +14244,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>3</v>
       </c>
@@ -11291,7 +14265,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>3</v>
       </c>
@@ -11312,7 +14286,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>4</v>
       </c>
@@ -11333,7 +14307,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>4</v>
       </c>
@@ -11354,7 +14328,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>4</v>
       </c>
@@ -11375,7 +14349,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>4</v>
       </c>
@@ -11396,7 +14370,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>4</v>
       </c>
@@ -11417,7 +14391,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>4</v>
       </c>
@@ -11438,13 +14412,13 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BCB49E-F251-46D8-AB80-3127C0BB634B}">
   <dimension ref="A1:C47"/>
   <sheetViews>
@@ -11452,14 +14426,14 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="40.36328125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="16" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>161</v>
       </c>
@@ -11470,12 +14444,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
     </row>
-    <row r="3" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>176</v>
       </c>
@@ -11486,21 +14460,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>177</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
     </row>
-    <row r="5" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="65" t="s">
         <v>178</v>
       </c>
       <c r="C5" s="66"/>
     </row>
-    <row r="6" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>162</v>
       </c>
@@ -11511,21 +14485,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>167</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
     </row>
-    <row r="8" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="80" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="43"/>
     </row>
-    <row r="9" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>169</v>
       </c>
@@ -11536,19 +14510,19 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>170</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
     </row>
-    <row r="12" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>171</v>
       </c>
@@ -11559,19 +14533,19 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="60"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
     </row>
-    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>179</v>
       </c>
@@ -11582,7 +14556,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>167</v>
       </c>
@@ -11591,14 +14565,14 @@
       </c>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="80" t="s">
         <v>217</v>
       </c>
       <c r="C17" s="47"/>
     </row>
-    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>182</v>
       </c>
@@ -11609,19 +14583,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>170</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
     </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>183</v>
       </c>
@@ -11632,19 +14606,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>172</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
     </row>
-    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
     </row>
-    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>184</v>
       </c>
@@ -11655,7 +14629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -11664,14 +14638,14 @@
       </c>
       <c r="C25" s="30"/>
     </row>
-    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51"/>
       <c r="B26" s="80" t="s">
         <v>217</v>
       </c>
       <c r="C26" s="52"/>
     </row>
-    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
         <v>185</v>
       </c>
@@ -11682,19 +14656,19 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>170</v>
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
     </row>
-    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
     </row>
-    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>188</v>
       </c>
@@ -11705,19 +14679,19 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>172</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="61"/>
       <c r="C32" s="61"/>
     </row>
-    <row r="33" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
         <v>189</v>
       </c>
@@ -11728,7 +14702,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>167</v>
       </c>
@@ -11737,14 +14711,14 @@
       </c>
       <c r="C34" s="30"/>
     </row>
-    <row r="35" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
       <c r="B35" s="80" t="s">
         <v>217</v>
       </c>
       <c r="C35" s="34"/>
     </row>
-    <row r="36" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>190</v>
       </c>
@@ -11755,19 +14729,19 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
     </row>
-    <row r="38" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
     </row>
-    <row r="39" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>191</v>
       </c>
@@ -11778,19 +14752,19 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>172</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
     </row>
-    <row r="41" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="68"/>
       <c r="B41" s="69"/>
       <c r="C41" s="69"/>
     </row>
-    <row r="42" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="68" t="s">
         <v>194</v>
       </c>
@@ -11801,26 +14775,26 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="70" t="s">
         <v>167</v>
       </c>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="62"/>
       <c r="B44" s="63" t="s">
         <v>193</v>
       </c>
       <c r="C44" s="63"/>
     </row>
-    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
     </row>
-    <row r="46" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="60" t="s">
         <v>198</v>
       </c>
@@ -11831,7 +14805,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>197</v>
       </c>

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F2ADD-DCAD-4242-B8EA-BCC8B9EB6A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C634CD-A2B4-4736-99AD-32987ECE42F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="331">
   <si>
     <t>study</t>
   </si>
@@ -529,9 +529,6 @@
     <t xml:space="preserve">introduction/briefing </t>
   </si>
   <si>
-    <t>teacher001</t>
-  </si>
-  <si>
     <t>(15')</t>
   </si>
   <si>
@@ -553,9 +550,6 @@
     <t>QA - teacher-students</t>
   </si>
   <si>
-    <t>teacher002</t>
-  </si>
-  <si>
     <t>technical set-up + tests</t>
   </si>
   <si>
@@ -589,12 +583,6 @@
     <t>11.15 - 11.25</t>
   </si>
   <si>
-    <t>teacher003</t>
-  </si>
-  <si>
-    <t>teacher004</t>
-  </si>
-  <si>
     <t>11.25 - 11.30</t>
   </si>
   <si>
@@ -1022,6 +1010,18 @@
   </si>
   <si>
     <t>rect</t>
+  </si>
+  <si>
+    <t>teacherA</t>
+  </si>
+  <si>
+    <t>teacherB</t>
+  </si>
+  <si>
+    <t>teacherC</t>
+  </si>
+  <si>
+    <t>teacherD</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1396,12 +1396,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1707,6 +1718,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -2093,35 +2107,35 @@
   <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" customWidth="1"/>
     <col min="26" max="26" width="55" customWidth="1"/>
-    <col min="27" max="27" width="65.85546875" customWidth="1"/>
+    <col min="27" max="27" width="65.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2204,7 +2218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2242,7 +2256,7 @@
         <v>41</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="N2" s="3">
         <v>21</v>
@@ -2292,7 +2306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2330,7 +2344,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N3" s="3">
         <v>20</v>
@@ -2380,7 +2394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2418,7 +2432,7 @@
         <v>41</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="N4" s="3">
         <v>15</v>
@@ -2468,7 +2482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2506,7 +2520,7 @@
         <v>41</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3">
         <v>23</v>
@@ -2556,7 +2570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2644,7 +2658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2732,7 +2746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2820,7 +2834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2908,7 +2922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2996,7 +3010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3084,7 +3098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3172,7 +3186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3260,7 +3274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3289,7 +3303,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3318,7 +3332,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3406,7 +3420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3494,7 +3508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -3582,7 +3596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -3670,7 +3684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -3758,7 +3772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -3846,7 +3860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -3934,7 +3948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -4022,7 +4036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>9</v>
       </c>
@@ -4110,7 +4124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -4198,7 +4212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -4286,7 +4300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -4374,7 +4388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -4462,7 +4476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>14</v>
       </c>
@@ -4550,7 +4564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -4638,7 +4652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>16</v>
       </c>
@@ -4726,7 +4740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -4814,7 +4828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>18</v>
       </c>
@@ -4902,7 +4916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>19</v>
       </c>
@@ -4990,7 +5004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -5078,7 +5092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>21</v>
       </c>
@@ -5166,7 +5180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -5254,7 +5268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>23</v>
       </c>
@@ -5342,7 +5356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>24</v>
       </c>
@@ -5430,7 +5444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5459,7 +5473,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5488,7 +5502,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -5576,7 +5590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -5664,7 +5678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -5752,7 +5766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -5840,7 +5854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -5928,7 +5942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -6016,7 +6030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -6104,7 +6118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -6192,7 +6206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -6280,7 +6294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -6368,7 +6382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -6456,7 +6470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -6544,7 +6558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -6632,7 +6646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -6720,7 +6734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -6808,7 +6822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -6896,7 +6910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -6984,7 +6998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -7072,7 +7086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -7160,7 +7174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -7248,7 +7262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -7336,7 +7350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -7424,7 +7438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -7512,7 +7526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -7600,7 +7614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7629,7 +7643,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7658,7 +7672,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -7673,7 +7687,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -7688,7 +7702,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -7703,7 +7717,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
@@ -7718,7 +7732,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>25</v>
       </c>
@@ -7733,7 +7747,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -7748,7 +7762,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -7763,7 +7777,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -7778,7 +7792,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>29</v>
       </c>
@@ -7793,7 +7807,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -7822,25 +7836,25 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
+    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="89" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81" t="s">
         <v>83</v>
       </c>
@@ -7851,314 +7865,314 @@
         <v>82</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E4" s="81" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27">
         <v>1</v>
       </c>
       <c r="B5" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="85" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="85" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="85" t="s">
+    </row>
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="85" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="85" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="85" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="85" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="85" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="86"/>
     </row>
-    <row r="11" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27">
         <v>2</v>
       </c>
       <c r="B11" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="85" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="85" t="s">
+    </row>
+    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="85" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="85" t="s">
+    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="85" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="85" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="85" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="85" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="86"/>
     </row>
-    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>3</v>
       </c>
       <c r="B18" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="85" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="C18" s="85" t="s">
+    </row>
+    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="85" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="85" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="85" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="85" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="85" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="86"/>
     </row>
-    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27">
         <v>4</v>
       </c>
       <c r="B24" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="85" t="s">
+    </row>
+    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="85" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="85" t="s">
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="85" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="85" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="85" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="85" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="85" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" s="90" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:3" s="90" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A31" s="88" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C31" s="88"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="27">
         <v>5</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C32" s="85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="85" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="85" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="85" t="s">
+    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="85" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="85" t="s">
+    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="85" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="85" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="85" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="85" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="85" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="86"/>
     </row>
-    <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="27">
         <v>6</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C40" s="85" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="85" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="85" t="s">
+    <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="85" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="85" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="85" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="85" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="85" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="86"/>
     </row>
-    <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="27">
         <v>7</v>
       </c>
       <c r="B47" s="84" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C47" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="87"/>
+    </row>
+    <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" s="87"/>
+    </row>
+    <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="87"/>
+    </row>
+    <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="E50" s="87"/>
+    </row>
+    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="86"/>
+    </row>
+    <row r="52" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="88" t="s">
         <v>268</v>
-      </c>
-      <c r="E47" s="87"/>
-    </row>
-    <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="85" t="s">
-        <v>269</v>
-      </c>
-      <c r="E48" s="87"/>
-    </row>
-    <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="E49" s="87"/>
-    </row>
-    <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="E50" s="87"/>
-    </row>
-    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="86"/>
-    </row>
-    <row r="52" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="88" t="s">
-        <v>272</v>
       </c>
       <c r="B52" s="88"/>
       <c r="E52" s="87"/>
     </row>
-    <row r="53" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="87" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B53" s="87"/>
     </row>
-    <row r="54" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="87" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B54" s="87"/>
     </row>
-    <row r="55" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="87" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C55" s="87"/>
     </row>
-    <row r="56" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="87" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B56" s="87"/>
       <c r="C56" s="87"/>
     </row>
-    <row r="57" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C57" s="87"/>
     </row>
   </sheetData>
@@ -8175,28 +8189,28 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="75" customWidth="1"/>
+    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="21" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="116" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="96" customWidth="1"/>
-    <col min="11" max="11" width="40.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" style="116" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="96" customWidth="1"/>
+    <col min="11" max="11" width="40.81640625" customWidth="1"/>
     <col min="12" max="12" width="6" style="21" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="116" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="96" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="96" customWidth="1"/>
-    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.81640625" style="116" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" style="96" customWidth="1"/>
+    <col min="15" max="15" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1796875" style="96" customWidth="1"/>
+    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
@@ -8213,40 +8227,40 @@
         <v>93</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I1" s="113" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J1" s="104" t="s">
         <v>94</v>
       </c>
       <c r="K1" s="78" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L1" s="117" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M1" s="113" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N1" s="104" t="s">
         <v>95</v>
       </c>
       <c r="O1" s="78" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P1" s="104" t="s">
         <v>96</v>
       </c>
       <c r="Q1" s="78" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="96">
         <v>1</v>
       </c>
@@ -8264,23 +8278,23 @@
       </c>
       <c r="F2" s="101"/>
       <c r="G2" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="114"/>
       <c r="J2" s="105"/>
       <c r="K2" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L2" s="24"/>
       <c r="M2" s="114"/>
       <c r="N2" s="105"/>
       <c r="O2" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P2" s="105"/>
       <c r="Q2" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="R2" s="72"/>
       <c r="S2" s="72"/>
@@ -8365,7 +8379,7 @@
       <c r="CT2" s="72"/>
       <c r="CU2" s="72"/>
     </row>
-    <row r="3" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="96">
         <v>2</v>
       </c>
@@ -8381,23 +8395,23 @@
       <c r="E3" s="97"/>
       <c r="F3" s="102"/>
       <c r="G3" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="114"/>
       <c r="J3" s="106"/>
       <c r="K3" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L3" s="24"/>
       <c r="M3" s="114"/>
       <c r="N3" s="105"/>
       <c r="O3" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P3" s="105"/>
       <c r="Q3" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="R3" s="72"/>
       <c r="S3" s="72"/>
@@ -8482,7 +8496,7 @@
       <c r="CT3" s="72"/>
       <c r="CU3" s="72"/>
     </row>
-    <row r="4" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="96">
         <v>3</v>
       </c>
@@ -8498,23 +8512,23 @@
       <c r="E4" s="97"/>
       <c r="F4" s="102"/>
       <c r="G4" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="114"/>
       <c r="J4" s="106"/>
       <c r="K4" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L4" s="24"/>
       <c r="M4" s="114"/>
       <c r="N4" s="105"/>
       <c r="O4" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P4" s="105"/>
       <c r="Q4" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R4" s="72"/>
       <c r="S4" s="72"/>
@@ -8599,7 +8613,7 @@
       <c r="CT4" s="72"/>
       <c r="CU4" s="72"/>
     </row>
-    <row r="5" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="96">
         <v>4</v>
       </c>
@@ -8615,23 +8629,23 @@
       <c r="E5" s="97"/>
       <c r="F5" s="102"/>
       <c r="G5" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="114"/>
       <c r="J5" s="106"/>
       <c r="K5" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L5" s="24"/>
       <c r="M5" s="114"/>
       <c r="N5" s="105"/>
       <c r="O5" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P5" s="105"/>
       <c r="Q5" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R5" s="72"/>
       <c r="S5" s="72"/>
@@ -8716,7 +8730,7 @@
       <c r="CT5" s="72"/>
       <c r="CU5" s="72"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A6" s="96">
         <v>5</v>
       </c>
@@ -8732,24 +8746,24 @@
       <c r="E6" s="97"/>
       <c r="F6" s="103"/>
       <c r="G6" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="114"/>
       <c r="J6" s="107"/>
       <c r="K6" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="114"/>
       <c r="O6" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="92" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A7" s="96">
         <v>6</v>
       </c>
@@ -8765,24 +8779,24 @@
       <c r="E7" s="97"/>
       <c r="F7" s="103"/>
       <c r="G7" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="114"/>
       <c r="J7" s="107"/>
       <c r="K7" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L7" s="24"/>
       <c r="M7" s="114"/>
       <c r="O7" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="92" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A8" s="96">
         <v>7</v>
       </c>
@@ -8798,24 +8812,24 @@
       <c r="E8" s="97"/>
       <c r="F8" s="103"/>
       <c r="G8" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="114"/>
       <c r="J8" s="107"/>
       <c r="K8" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="114"/>
       <c r="O8" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="92" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A9" s="96">
         <v>8</v>
       </c>
@@ -8831,24 +8845,24 @@
       <c r="E9" s="97"/>
       <c r="F9" s="103"/>
       <c r="G9" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="114"/>
       <c r="J9" s="107"/>
       <c r="K9" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="114"/>
       <c r="O9" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A10" s="96">
         <v>9</v>
       </c>
@@ -8864,24 +8878,24 @@
       <c r="E10" s="97"/>
       <c r="F10" s="103"/>
       <c r="G10" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="114"/>
       <c r="J10" s="107"/>
       <c r="K10" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L10" s="24"/>
       <c r="M10" s="114"/>
       <c r="O10" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="92" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A11" s="96">
         <v>10</v>
       </c>
@@ -8897,24 +8911,24 @@
       <c r="E11" s="97"/>
       <c r="F11" s="103"/>
       <c r="G11" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="114"/>
       <c r="J11" s="107"/>
       <c r="K11" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="114"/>
       <c r="O11" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="92" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A12" s="96">
         <v>11</v>
       </c>
@@ -8930,24 +8944,24 @@
       <c r="E12" s="97"/>
       <c r="F12" s="103"/>
       <c r="G12" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="114"/>
       <c r="J12" s="107"/>
       <c r="K12" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="114"/>
       <c r="O12" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q12" s="92" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:99" s="109" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99" s="109" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F13" s="112"/>
       <c r="G13" s="110"/>
       <c r="H13" s="24"/>
@@ -8959,7 +8973,7 @@
       <c r="O13" s="111"/>
       <c r="Q13" s="111"/>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A14" s="96">
         <v>12</v>
       </c>
@@ -8976,24 +8990,24 @@
         <v>158</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H14" s="118"/>
       <c r="I14" s="115"/>
       <c r="J14" s="107"/>
       <c r="K14" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L14" s="118"/>
       <c r="M14" s="115"/>
       <c r="O14" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="92" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A15" s="96">
         <v>13</v>
       </c>
@@ -9008,23 +9022,23 @@
       </c>
       <c r="E15" s="98"/>
       <c r="G15" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H15" s="118"/>
       <c r="I15" s="115"/>
       <c r="K15" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L15" s="118"/>
       <c r="M15" s="115"/>
       <c r="O15" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q15" s="92" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A16" s="96">
         <v>14</v>
       </c>
@@ -9039,23 +9053,23 @@
       </c>
       <c r="E16" s="98"/>
       <c r="G16" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H16" s="118"/>
       <c r="I16" s="115"/>
       <c r="K16" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L16" s="118"/>
       <c r="M16" s="115"/>
       <c r="O16" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="92" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="96">
         <v>15</v>
       </c>
@@ -9070,23 +9084,23 @@
       </c>
       <c r="E17" s="98"/>
       <c r="G17" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H17" s="118"/>
       <c r="I17" s="115"/>
       <c r="K17" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L17" s="118"/>
       <c r="M17" s="115"/>
       <c r="O17" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="92" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="96">
         <v>16</v>
       </c>
@@ -9101,23 +9115,23 @@
       </c>
       <c r="E18" s="98"/>
       <c r="G18" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H18" s="118"/>
       <c r="I18" s="115"/>
       <c r="K18" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L18" s="118"/>
       <c r="M18" s="115"/>
       <c r="O18" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="96">
         <v>17</v>
       </c>
@@ -9132,23 +9146,23 @@
       </c>
       <c r="E19" s="98"/>
       <c r="G19" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H19" s="118"/>
       <c r="I19" s="115"/>
       <c r="K19" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L19" s="118"/>
       <c r="M19" s="115"/>
       <c r="O19" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="92" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="96">
         <v>18</v>
       </c>
@@ -9163,23 +9177,23 @@
       </c>
       <c r="E20" s="98"/>
       <c r="G20" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H20" s="118"/>
       <c r="I20" s="115"/>
       <c r="K20" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L20" s="118"/>
       <c r="M20" s="115"/>
       <c r="O20" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="92" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="96">
         <v>19</v>
       </c>
@@ -9194,23 +9208,23 @@
       </c>
       <c r="E21" s="98"/>
       <c r="G21" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H21" s="118"/>
       <c r="I21" s="115"/>
       <c r="K21" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L21" s="118"/>
       <c r="M21" s="115"/>
       <c r="O21" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q21" s="92" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="96">
         <v>20</v>
       </c>
@@ -9225,23 +9239,23 @@
       </c>
       <c r="E22" s="98"/>
       <c r="G22" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H22" s="118"/>
       <c r="I22" s="115"/>
       <c r="K22" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L22" s="118"/>
       <c r="M22" s="115"/>
       <c r="O22" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="92" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="96">
         <v>21</v>
       </c>
@@ -9256,23 +9270,23 @@
       </c>
       <c r="E23" s="98"/>
       <c r="G23" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H23" s="118"/>
       <c r="I23" s="115"/>
       <c r="K23" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L23" s="118"/>
       <c r="M23" s="115"/>
       <c r="O23" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q23" s="92" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="96">
         <v>22</v>
       </c>
@@ -9287,23 +9301,23 @@
       </c>
       <c r="E24" s="98"/>
       <c r="G24" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H24" s="118"/>
       <c r="I24" s="115"/>
       <c r="K24" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L24" s="118"/>
       <c r="M24" s="115"/>
       <c r="O24" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="92" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G25" s="111"/>
       <c r="H25" s="118"/>
       <c r="I25" s="115"/>
@@ -9313,7 +9327,7 @@
       <c r="O25" s="111"/>
       <c r="Q25" s="111"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="96">
         <v>23</v>
       </c>
@@ -9330,23 +9344,23 @@
         <v>159</v>
       </c>
       <c r="G26" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H26" s="118"/>
       <c r="I26" s="115"/>
       <c r="K26" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L26" s="118"/>
       <c r="M26" s="115"/>
       <c r="O26" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="92" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="96">
         <v>24</v>
       </c>
@@ -9361,23 +9375,23 @@
       </c>
       <c r="E27" s="99"/>
       <c r="G27" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H27" s="118"/>
       <c r="I27" s="115"/>
       <c r="K27" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L27" s="118"/>
       <c r="M27" s="115"/>
       <c r="O27" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q27" s="92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="96">
         <v>25</v>
       </c>
@@ -9392,23 +9406,23 @@
       </c>
       <c r="E28" s="99"/>
       <c r="G28" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H28" s="118"/>
       <c r="I28" s="115"/>
       <c r="K28" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L28" s="118"/>
       <c r="M28" s="115"/>
       <c r="O28" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="92" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="96">
         <v>26</v>
       </c>
@@ -9423,23 +9437,23 @@
       </c>
       <c r="E29" s="99"/>
       <c r="G29" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H29" s="118"/>
       <c r="I29" s="115"/>
       <c r="K29" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L29" s="118"/>
       <c r="M29" s="115"/>
       <c r="O29" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="92" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="96">
         <v>27</v>
       </c>
@@ -9454,23 +9468,23 @@
       </c>
       <c r="E30" s="99"/>
       <c r="G30" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H30" s="118"/>
       <c r="I30" s="115"/>
       <c r="K30" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L30" s="118"/>
       <c r="M30" s="115"/>
       <c r="O30" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="92" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="96">
         <v>28</v>
       </c>
@@ -9485,23 +9499,23 @@
       </c>
       <c r="E31" s="99"/>
       <c r="G31" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H31" s="118"/>
       <c r="I31" s="115"/>
       <c r="K31" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L31" s="118"/>
       <c r="M31" s="115"/>
       <c r="O31" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="92" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="96">
         <v>29</v>
       </c>
@@ -9516,23 +9530,23 @@
       </c>
       <c r="E32" s="99"/>
       <c r="G32" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H32" s="118"/>
       <c r="I32" s="115"/>
       <c r="K32" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L32" s="118"/>
       <c r="M32" s="115"/>
       <c r="O32" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q32" s="92" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="96">
         <v>30</v>
       </c>
@@ -9547,23 +9561,23 @@
       </c>
       <c r="E33" s="99"/>
       <c r="G33" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H33" s="118"/>
       <c r="I33" s="115"/>
       <c r="K33" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L33" s="118"/>
       <c r="M33" s="115"/>
       <c r="O33" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q33" s="92" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="96">
         <v>31</v>
       </c>
@@ -9578,23 +9592,23 @@
       </c>
       <c r="E34" s="99"/>
       <c r="G34" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H34" s="118"/>
       <c r="I34" s="115"/>
       <c r="K34" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L34" s="118"/>
       <c r="M34" s="115"/>
       <c r="O34" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="92" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="96">
         <v>32</v>
       </c>
@@ -9609,23 +9623,23 @@
       </c>
       <c r="E35" s="99"/>
       <c r="G35" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H35" s="118"/>
       <c r="I35" s="115"/>
       <c r="K35" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L35" s="118"/>
       <c r="M35" s="115"/>
       <c r="O35" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="92" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="96">
         <v>33</v>
       </c>
@@ -9640,23 +9654,23 @@
       </c>
       <c r="E36" s="99"/>
       <c r="G36" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H36" s="118"/>
       <c r="I36" s="115"/>
       <c r="K36" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L36" s="118"/>
       <c r="M36" s="115"/>
       <c r="O36" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="92" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="109">
         <v>34</v>
       </c>
@@ -9665,7 +9679,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="116"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="96">
         <v>35</v>
       </c>
@@ -9682,23 +9696,23 @@
         <v>160</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H38" s="118"/>
       <c r="I38" s="115"/>
       <c r="K38" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L38" s="118"/>
       <c r="M38" s="115"/>
       <c r="O38" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="96">
         <v>36</v>
       </c>
@@ -9713,23 +9727,23 @@
       </c>
       <c r="E39" s="108"/>
       <c r="G39" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H39" s="118"/>
       <c r="I39" s="115"/>
       <c r="K39" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L39" s="118"/>
       <c r="M39" s="115"/>
       <c r="O39" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="96">
         <v>37</v>
       </c>
@@ -9744,23 +9758,23 @@
       </c>
       <c r="E40" s="108"/>
       <c r="G40" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H40" s="118"/>
       <c r="I40" s="115"/>
       <c r="K40" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L40" s="118"/>
       <c r="M40" s="115"/>
       <c r="O40" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q40" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="96">
         <v>38</v>
       </c>
@@ -9775,23 +9789,23 @@
       </c>
       <c r="E41" s="108"/>
       <c r="G41" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H41" s="118"/>
       <c r="I41" s="115"/>
       <c r="K41" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L41" s="118"/>
       <c r="M41" s="115"/>
       <c r="O41" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q41" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="96">
         <v>39</v>
       </c>
@@ -9806,23 +9820,23 @@
       </c>
       <c r="E42" s="108"/>
       <c r="G42" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H42" s="118"/>
       <c r="I42" s="115"/>
       <c r="K42" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L42" s="118"/>
       <c r="M42" s="115"/>
       <c r="O42" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q42" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="96">
         <v>40</v>
       </c>
@@ -9837,23 +9851,23 @@
       </c>
       <c r="E43" s="108"/>
       <c r="G43" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H43" s="118"/>
       <c r="I43" s="115"/>
       <c r="K43" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L43" s="118"/>
       <c r="M43" s="115"/>
       <c r="O43" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q43" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="96">
         <v>41</v>
       </c>
@@ -9868,23 +9882,23 @@
       </c>
       <c r="E44" s="108"/>
       <c r="G44" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H44" s="118"/>
       <c r="I44" s="115"/>
       <c r="K44" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L44" s="118"/>
       <c r="M44" s="115"/>
       <c r="O44" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q44" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="96">
         <v>42</v>
       </c>
@@ -9899,23 +9913,23 @@
       </c>
       <c r="E45" s="108"/>
       <c r="G45" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H45" s="118"/>
       <c r="I45" s="115"/>
       <c r="K45" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L45" s="118"/>
       <c r="M45" s="115"/>
       <c r="O45" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q45" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="96">
         <v>43</v>
       </c>
@@ -9930,23 +9944,23 @@
       </c>
       <c r="E46" s="108"/>
       <c r="G46" s="92" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H46" s="118"/>
       <c r="I46" s="115"/>
       <c r="K46" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L46" s="118"/>
       <c r="M46" s="115"/>
       <c r="O46" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q46" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="96">
         <v>44</v>
       </c>
@@ -9961,23 +9975,23 @@
       </c>
       <c r="E47" s="108"/>
       <c r="G47" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H47" s="118"/>
       <c r="I47" s="115"/>
       <c r="K47" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L47" s="118"/>
       <c r="M47" s="115"/>
       <c r="O47" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q47" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="Q47" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="96">
         <v>45</v>
       </c>
@@ -9992,23 +10006,23 @@
       </c>
       <c r="E48" s="108"/>
       <c r="G48" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H48" s="118"/>
       <c r="I48" s="115"/>
       <c r="K48" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L48" s="118"/>
       <c r="M48" s="115"/>
       <c r="O48" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q48" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="109">
         <v>46</v>
       </c>
@@ -10018,42 +10032,42 @@
       <c r="M49" s="116"/>
       <c r="Q49" s="110"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="96">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="96">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="96">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="96">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="96">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="96">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="96">
         <v>53</v>
       </c>
       <c r="G56" s="92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H56" s="118"/>
       <c r="I56" s="115"/>
@@ -10064,19 +10078,19 @@
       <c r="M56" s="115"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="96">
         <v>54</v>
       </c>
       <c r="G57" s="92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H57" s="118"/>
       <c r="I57" s="115"/>
@@ -10087,16 +10101,16 @@
       <c r="M57" s="115"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G58" s="92" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H58" s="118"/>
       <c r="I58" s="115"/>
@@ -10107,16 +10121,16 @@
       <c r="M58" s="115"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G59" s="92" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H59" s="118"/>
       <c r="I59" s="115"/>
@@ -10127,19 +10141,19 @@
       <c r="M59" s="115"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="75" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G60" s="92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H60" s="118"/>
       <c r="I60" s="115"/>
@@ -10150,28 +10164,28 @@
       <c r="M60" s="115"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" s="73" t="s">
+      <c r="G61" s="92" t="s">
         <v>203</v>
-      </c>
-      <c r="D61" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="G61" s="92" t="s">
-        <v>207</v>
       </c>
       <c r="H61" s="118"/>
       <c r="I61" s="115"/>
@@ -10182,28 +10196,28 @@
       <c r="M61" s="115"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B62" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="31" t="s">
+      <c r="D62" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="74" t="s">
-        <v>209</v>
-      </c>
       <c r="G62" s="92" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H62" s="118"/>
       <c r="I62" s="115"/>
@@ -10214,26 +10228,26 @@
       <c r="M62" s="115"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D63" s="31"/>
       <c r="G63" s="92" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H63" s="118"/>
       <c r="I63" s="115"/>
@@ -10244,26 +10258,26 @@
       <c r="M63" s="115"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="77" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C64" s="77" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D64" s="29"/>
       <c r="G64" s="92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H64" s="118"/>
       <c r="I64" s="115"/>
@@ -10274,18 +10288,18 @@
       <c r="M64" s="115"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B65" s="94"/>
       <c r="D65" s="95"/>
       <c r="G65" s="92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H65" s="118"/>
       <c r="I65" s="115"/>
@@ -10300,12 +10314,12 @@
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G66" s="92" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H66" s="118"/>
       <c r="I66" s="115"/>
@@ -10316,47 +10330,47 @@
       <c r="M66" s="115"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B67" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>277</v>
+      </c>
+      <c r="B68" t="s">
         <v>280</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C68" t="s">
         <v>283</v>
       </c>
-      <c r="C67" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" t="s">
         <v>281</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C69" t="s">
         <v>284</v>
       </c>
-      <c r="C68" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>282</v>
-      </c>
-      <c r="B69" t="s">
-        <v>285</v>
-      </c>
-      <c r="C69" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>2</v>
       </c>
@@ -10370,7 +10384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>2</v>
       </c>
@@ -10384,7 +10398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>2</v>
       </c>
@@ -10398,7 +10412,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>2</v>
       </c>
@@ -10412,7 +10426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>3</v>
       </c>
@@ -10426,7 +10440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>3</v>
       </c>
@@ -10440,7 +10454,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>3</v>
       </c>
@@ -10454,7 +10468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>3</v>
       </c>
@@ -10468,7 +10482,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>4</v>
       </c>
@@ -10479,7 +10493,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>4</v>
       </c>
@@ -10490,7 +10504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>4</v>
       </c>
@@ -10501,7 +10515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>4</v>
       </c>
@@ -10512,7 +10526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>5</v>
       </c>
@@ -10523,7 +10537,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>5</v>
       </c>
@@ -10534,7 +10548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>5</v>
       </c>
@@ -10545,7 +10559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>5</v>
       </c>
@@ -10556,7 +10570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>6</v>
       </c>
@@ -10567,7 +10581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>6</v>
       </c>
@@ -10578,7 +10592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>6</v>
       </c>
@@ -10589,7 +10603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>6</v>
       </c>
@@ -10608,83 +10622,83 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E918F0-9C6B-4528-8541-240528FAF3FE}">
-  <dimension ref="E1:M41"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="7.7109375" style="11" customWidth="1"/>
-    <col min="10" max="13" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="11" customWidth="1"/>
+    <col min="10" max="13" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H1" s="132"/>
       <c r="I1" s="129" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J1" s="136" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K1" s="136" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L1" s="137" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="8:13" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H2" s="134" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I2" s="126" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J2" s="121" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K2" s="121" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="8:13" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H3" s="134"/>
       <c r="I3" s="126" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J3" s="121" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K3" s="121" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="8:13" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H4" s="135"/>
       <c r="I4" s="138" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J4" s="122" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K4" s="122" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L4" s="95" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H6" s="133" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I6" s="128"/>
       <c r="J6" s="67"/>
@@ -10692,7 +10706,7 @@
       <c r="L6" s="67"/>
       <c r="M6" s="123"/>
     </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H7" s="134"/>
       <c r="I7" s="126"/>
       <c r="J7" s="121"/>
@@ -10700,9 +10714,9 @@
       <c r="L7" s="121"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H8" s="134" t="s">
-        <v>300</v>
+    <row r="8" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H8" s="133" t="s">
+        <v>296</v>
       </c>
       <c r="I8" s="129"/>
       <c r="J8" s="136" t="s">
@@ -10718,71 +10732,71 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H9" s="134"/>
-      <c r="I9" s="127" t="s">
-        <v>289</v>
-      </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="131" t="s">
+        <v>285</v>
+      </c>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
+    </row>
+    <row r="10" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H10" s="134"/>
       <c r="I10" s="127" t="s">
-        <v>290</v>
-      </c>
-      <c r="J10" s="121" t="s">
-        <v>280</v>
+        <v>286</v>
+      </c>
+      <c r="J10" s="124" t="s">
+        <v>289</v>
       </c>
       <c r="K10" s="121" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L10" s="121" t="s">
-        <v>285</v>
-      </c>
-      <c r="M10" s="124" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H11" s="134"/>
       <c r="I11" s="127" t="s">
-        <v>291</v>
-      </c>
-      <c r="J11" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="J11" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="121" t="s">
         <v>283</v>
       </c>
-      <c r="K11" s="121" t="s">
-        <v>281</v>
-      </c>
-      <c r="L11" s="121" t="s">
-        <v>288</v>
-      </c>
-      <c r="M11" s="124" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H12" s="134"/>
       <c r="I12" s="130" t="s">
-        <v>292</v>
-      </c>
-      <c r="J12" s="122" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="J12" s="125" t="s">
+        <v>289</v>
       </c>
       <c r="K12" s="122" t="s">
+        <v>276</v>
+      </c>
+      <c r="L12" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="M12" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="L12" s="122" t="s">
-        <v>282</v>
-      </c>
-      <c r="M12" s="125" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H13" s="134"/>
       <c r="I13" s="127"/>
       <c r="J13" s="121"/>
@@ -10790,7 +10804,7 @@
       <c r="L13" s="121"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H14" s="134"/>
       <c r="I14" s="127"/>
       <c r="J14" s="121"/>
@@ -10798,9 +10812,9 @@
       <c r="L14" s="121"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H15" s="134" t="s">
-        <v>301</v>
+    <row r="15" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H15" s="133" t="s">
+        <v>297</v>
       </c>
       <c r="I15" s="129"/>
       <c r="J15" s="136" t="s">
@@ -10816,71 +10830,71 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H16" s="134"/>
       <c r="I16" s="131" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J16" s="119"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
       <c r="M16" s="120"/>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H17" s="134"/>
       <c r="I17" s="127" t="s">
-        <v>290</v>
-      </c>
-      <c r="J17" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="K17" s="121" t="s">
         <v>286</v>
       </c>
+      <c r="J17" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="K17" s="124" t="s">
+        <v>289</v>
+      </c>
       <c r="L17" s="121" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H18" s="134"/>
       <c r="I18" s="127" t="s">
-        <v>291</v>
-      </c>
-      <c r="J18" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="K18" s="121" t="s">
-        <v>283</v>
+        <v>287</v>
+      </c>
+      <c r="J18" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="K18" s="124" t="s">
+        <v>289</v>
       </c>
       <c r="L18" s="121" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H19" s="134"/>
       <c r="I19" s="130" t="s">
-        <v>292</v>
-      </c>
-      <c r="J19" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="K19" s="122" t="s">
-        <v>280</v>
+        <v>288</v>
+      </c>
+      <c r="J19" s="122" t="s">
+        <v>281</v>
+      </c>
+      <c r="K19" s="125" t="s">
+        <v>289</v>
       </c>
       <c r="L19" s="122" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M19" s="95" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H20" s="134"/>
       <c r="I20" s="127"/>
       <c r="J20" s="121"/>
@@ -10888,7 +10902,7 @@
       <c r="L20" s="121"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H21" s="134"/>
       <c r="I21" s="127"/>
       <c r="J21" s="121"/>
@@ -10896,9 +10910,9 @@
       <c r="L21" s="121"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H22" s="134" t="s">
-        <v>302</v>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H22" s="133" t="s">
+        <v>298</v>
       </c>
       <c r="I22" s="129"/>
       <c r="J22" s="136" t="s">
@@ -10914,89 +10928,89 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H23" s="134"/>
       <c r="I23" s="131" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J23" s="119"/>
       <c r="K23" s="119"/>
       <c r="L23" s="119"/>
       <c r="M23" s="120"/>
     </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H24" s="134"/>
       <c r="I24" s="127" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J24" s="121" t="s">
-        <v>288</v>
-      </c>
-      <c r="K24" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="L24" s="121" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="K24" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="L24" s="124" t="s">
+        <v>289</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H25" s="134"/>
       <c r="I25" s="127" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J25" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="L25" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="M25" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="K25" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="L25" s="121" t="s">
-        <v>286</v>
-      </c>
-      <c r="M25" s="29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H26" s="134"/>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H26" s="135"/>
       <c r="I26" s="130" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J26" s="122" t="s">
-        <v>285</v>
-      </c>
-      <c r="K26" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="L26" s="122" t="s">
-        <v>280</v>
+        <v>283</v>
+      </c>
+      <c r="K26" s="122" t="s">
+        <v>281</v>
+      </c>
+      <c r="L26" s="125" t="s">
+        <v>289</v>
       </c>
       <c r="M26" s="95" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H27" s="134"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H28" s="134"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H29" s="134" t="s">
-        <v>303</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H27" s="140"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H28" s="94"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="95"/>
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H29" s="139" t="s">
+        <v>299</v>
       </c>
       <c r="I29" s="129"/>
       <c r="J29" s="136" t="s">
@@ -11012,106 +11026,103 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H30" s="134"/>
-      <c r="I30" s="131" t="s">
-        <v>289</v>
-      </c>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="120"/>
-    </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="127" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H31" s="134"/>
       <c r="I31" s="127" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J31" s="121" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="K31" s="121" t="s">
-        <v>288</v>
-      </c>
-      <c r="L31" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="M31" s="29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="124" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H32" s="134"/>
       <c r="I32" s="127" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J32" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" s="121" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="K32" s="121" t="s">
-        <v>282</v>
-      </c>
-      <c r="L32" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="M32" s="29" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="124" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H33" s="135"/>
       <c r="I33" s="130" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" s="125" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>292</v>
-      </c>
-      <c r="J33" s="122" t="s">
-        <v>287</v>
-      </c>
-      <c r="K33" s="122" t="s">
-        <v>285</v>
-      </c>
-      <c r="L33" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="M33" s="95" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J35" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J36" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J38" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J40" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J41" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -11128,46 +11139,46 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" t="s">
         <v>322</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
         <v>323</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>324</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>325</v>
       </c>
-      <c r="H1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>329</v>
-      </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -11177,18 +11188,18 @@
         <v>calib_calib_1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -11198,18 +11209,18 @@
         <v>calib_calib_2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -11219,18 +11230,18 @@
         <v>calib_calib_3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -11240,18 +11251,18 @@
         <v>calib_calib_4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -11261,18 +11272,18 @@
         <v>calib_calib_5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -11282,18 +11293,18 @@
         <v>calib_calib_6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -11303,18 +11314,18 @@
         <v>calib_calib_7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -11324,18 +11335,18 @@
         <v>calib_calib_8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -11345,18 +11356,18 @@
         <v>calib_calib_9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -11369,18 +11380,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -11393,18 +11404,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -11417,18 +11428,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -11441,42 +11452,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>clock_clock_clock</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -11486,21 +11497,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -11510,60 +11521,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>A_armraise_armraise</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>A_watch_watch</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -11576,18 +11587,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -11600,18 +11611,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -11624,18 +11635,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -11648,18 +11659,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -11672,18 +11683,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -11696,18 +11707,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -11720,18 +11731,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -11744,18 +11755,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -11768,18 +11779,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -11792,18 +11803,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -11816,18 +11827,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -11840,18 +11851,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -11864,18 +11875,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -11888,18 +11899,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -11912,18 +11923,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -11936,21 +11947,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -11960,21 +11971,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E37" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -11984,60 +11995,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E38" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
         <v>B_armraise_armraise</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E39" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
         <v>B_watch_watch</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -12050,18 +12061,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -12074,18 +12085,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -12098,18 +12109,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -12122,18 +12133,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -12146,18 +12157,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -12170,18 +12181,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -12194,18 +12205,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -12218,18 +12229,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -12242,18 +12253,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -12266,18 +12277,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -12290,18 +12301,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -12314,18 +12325,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -12338,18 +12349,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -12362,18 +12373,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -12386,18 +12397,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -12410,21 +12421,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C56" t="s">
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E56" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -12434,21 +12445,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C57" t="s">
         <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E57" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -12458,60 +12469,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C58" t="s">
         <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E58" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
         <v>C_armraise_armraise</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C59" t="s">
         <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E59" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
         <v>C_watch_watch</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C60" t="s">
         <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -12524,18 +12535,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C61" t="s">
         <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -12548,18 +12559,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C62" t="s">
         <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -12572,18 +12583,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C63" t="s">
         <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -12596,18 +12607,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C64" t="s">
         <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -12620,18 +12631,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C65" t="s">
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -12644,18 +12655,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C66" t="s">
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -12668,18 +12679,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C67" t="s">
         <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -12692,18 +12703,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -12716,18 +12727,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -12740,18 +12751,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -12764,18 +12775,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -12788,18 +12799,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -12812,18 +12823,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C73" t="s">
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E73">
         <v>4</v>
@@ -12836,18 +12847,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -12860,18 +12871,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C75" t="s">
         <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -12884,21 +12895,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C76" t="s">
         <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E76" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
@@ -12908,21 +12919,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C77" t="s">
         <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E77" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
@@ -12932,60 +12943,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C78" t="s">
         <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E78" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
         <v>D_armraise_armraise</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C79" t="s">
         <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E79" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
         <v>D_watch_watch</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C80" t="s">
         <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -12998,18 +13009,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C81" t="s">
         <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -13022,18 +13033,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
       </c>
       <c r="D82" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -13046,18 +13057,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -13070,18 +13081,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
       </c>
       <c r="D84" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -13094,18 +13105,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -13118,18 +13129,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C86" t="s">
         <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -13142,18 +13153,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C87" t="s">
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -13166,18 +13177,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C88" t="s">
         <v>39</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -13190,18 +13201,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -13214,18 +13225,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E90">
         <v>3</v>
@@ -13238,18 +13249,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C91" t="s">
         <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E91">
         <v>3</v>
@@ -13262,18 +13273,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C92" t="s">
         <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -13286,18 +13297,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C93" t="s">
         <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -13310,18 +13321,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C94" t="s">
         <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -13334,18 +13345,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C95" t="s">
         <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -13372,14 +13383,14 @@
       <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -13399,7 +13410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -13420,7 +13431,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -13441,7 +13452,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -13462,7 +13473,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -13483,7 +13494,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -13504,7 +13515,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -13525,7 +13536,7 @@
         <v xml:space="preserve">Study1_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>2</v>
       </c>
@@ -13546,7 +13557,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -13567,7 +13578,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -13588,7 +13599,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -13609,7 +13620,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -13630,7 +13641,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -13651,7 +13662,7 @@
         <v xml:space="preserve">Study2_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>3</v>
       </c>
@@ -13672,7 +13683,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>3</v>
       </c>
@@ -13693,7 +13704,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>3</v>
       </c>
@@ -13714,7 +13725,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>3</v>
       </c>
@@ -13735,7 +13746,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>3</v>
       </c>
@@ -13756,7 +13767,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>3</v>
       </c>
@@ -13777,7 +13788,7 @@
         <v xml:space="preserve">Study1_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>4</v>
       </c>
@@ -13798,7 +13809,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="24">
         <v>4</v>
       </c>
@@ -13819,7 +13830,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="24">
         <v>4</v>
       </c>
@@ -13840,7 +13851,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="24">
         <v>4</v>
       </c>
@@ -13861,7 +13872,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>4</v>
       </c>
@@ -13882,7 +13893,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="24">
         <v>4</v>
       </c>
@@ -13903,12 +13914,12 @@
         <v xml:space="preserve">Study1_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>1</v>
       </c>
@@ -13929,7 +13940,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>1</v>
       </c>
@@ -13950,7 +13961,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -13971,7 +13982,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>1</v>
       </c>
@@ -13992,7 +14003,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>1</v>
       </c>
@@ -14013,7 +14024,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>1</v>
       </c>
@@ -14034,7 +14045,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="23">
         <v>2</v>
       </c>
@@ -14055,7 +14066,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="23">
         <v>2</v>
       </c>
@@ -14076,7 +14087,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="23">
         <v>2</v>
       </c>
@@ -14097,7 +14108,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="23">
         <v>2</v>
       </c>
@@ -14118,7 +14129,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -14139,7 +14150,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="23">
         <v>2</v>
       </c>
@@ -14160,7 +14171,7 @@
         <v xml:space="preserve">Study2_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="18">
         <v>3</v>
       </c>
@@ -14181,7 +14192,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>3</v>
       </c>
@@ -14202,7 +14213,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -14223,7 +14234,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>3</v>
       </c>
@@ -14244,7 +14255,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="18">
         <v>3</v>
       </c>
@@ -14265,7 +14276,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="18">
         <v>3</v>
       </c>
@@ -14286,7 +14297,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="24">
         <v>4</v>
       </c>
@@ -14307,7 +14318,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="24">
         <v>4</v>
       </c>
@@ -14328,7 +14339,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="24">
         <v>4</v>
       </c>
@@ -14349,7 +14360,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="24">
         <v>4</v>
       </c>
@@ -14370,7 +14381,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="24">
         <v>4</v>
       </c>
@@ -14391,7 +14402,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="24">
         <v>4</v>
       </c>
@@ -14412,7 +14423,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14420,20 +14431,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BCB49E-F251-46D8-AB80-3127C0BB634B}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" style="31" customWidth="1"/>
     <col min="3" max="3" width="16" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>161</v>
       </c>
@@ -14444,37 +14455,37 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
     </row>
-    <row r="3" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
     </row>
-    <row r="5" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64"/>
       <c r="B5" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="66"/>
     </row>
-    <row r="6" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
         <v>162</v>
       </c>
@@ -14485,334 +14496,403 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
     </row>
-    <row r="8" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42"/>
       <c r="B8" s="80" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C8" s="43"/>
     </row>
-    <row r="9" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
         <v>169</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>170</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
     </row>
-    <row r="12" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
         <v>171</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>172</v>
       </c>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+    <row r="14" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+    </row>
+    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+    </row>
+    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+    </row>
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="46"/>
+      <c r="B20" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="B21" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="30"/>
-    </row>
-    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="47"/>
-    </row>
-    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-    </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-    </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>173</v>
-      </c>
       <c r="C21" s="47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
     </row>
-    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-    </row>
-    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+    </row>
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+    </row>
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+    </row>
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+    </row>
+    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="30"/>
+    </row>
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="51"/>
+      <c r="B32" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="52"/>
+    </row>
+    <row r="33" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+    </row>
+    <row r="35" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+    </row>
+    <row r="36" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="61" t="s">
+      <c r="B36" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="68"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+    </row>
+    <row r="39" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+    </row>
+    <row r="41" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="60"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+    </row>
+    <row r="42" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="61" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+    <row r="43" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="30"/>
+    </row>
+    <row r="44" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="33"/>
+      <c r="B44" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="34"/>
+    </row>
+    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C25" s="30"/>
-    </row>
-    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="52"/>
-    </row>
-    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-    </row>
-    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-    </row>
-    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="C45" s="34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+    </row>
+    <row r="47" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="68"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="62"/>
+      <c r="B53" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="63"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-    </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-    </row>
-    <row r="33" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="30"/>
-    </row>
-    <row r="35" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="34"/>
-    </row>
-    <row r="36" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-    </row>
-    <row r="38" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-    </row>
-    <row r="39" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-    </row>
-    <row r="41" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-    </row>
-    <row r="42" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="69" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-    </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="63"/>
-    </row>
-    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-    </row>
-    <row r="46" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="30"/>
+      <c r="C56" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C634CD-A2B4-4736-99AD-32987ECE42F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F889EB7-5AD6-4C8F-8FB4-A5DE254D1AC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="332">
   <si>
     <t>study</t>
   </si>
@@ -1022,13 +1022,16 @@
   </si>
   <si>
     <t>teacherD</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1085,6 +1088,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1412,7 +1422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1721,6 +1731,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1795,6 +1806,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2110,32 +2124,32 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="12.81640625" customWidth="1"/>
-    <col min="25" max="25" width="11.1796875" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
     <col min="26" max="26" width="55" customWidth="1"/>
-    <col min="27" max="27" width="65.81640625" customWidth="1"/>
+    <col min="27" max="27" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2218,7 +2232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2306,7 +2320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2394,7 +2408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2482,7 +2496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2570,7 +2584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2658,7 +2672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2746,7 +2760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2834,7 +2848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2922,7 +2936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3010,7 +3024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3098,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3186,7 +3200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3274,7 +3288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3303,7 +3317,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3332,7 +3346,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3420,7 +3434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3508,7 +3522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -3596,7 +3610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -3684,7 +3698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -3772,7 +3786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -3860,7 +3874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -3948,7 +3962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -4036,7 +4050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>9</v>
       </c>
@@ -4124,7 +4138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -4212,7 +4226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -4300,7 +4314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -4388,7 +4402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -4476,7 +4490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>14</v>
       </c>
@@ -4564,7 +4578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -4652,7 +4666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>16</v>
       </c>
@@ -4740,7 +4754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -4828,7 +4842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>18</v>
       </c>
@@ -4916,7 +4930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>19</v>
       </c>
@@ -5004,7 +5018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -5092,7 +5106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>21</v>
       </c>
@@ -5180,7 +5194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -5268,7 +5282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>23</v>
       </c>
@@ -5356,7 +5370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>24</v>
       </c>
@@ -5444,7 +5458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5473,7 +5487,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5502,7 +5516,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -5590,7 +5604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -5678,7 +5692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -5766,7 +5780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -5854,7 +5868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -5942,7 +5956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -6030,7 +6044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -6118,7 +6132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -6206,7 +6220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -6294,7 +6308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -6382,7 +6396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -6470,7 +6484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -6558,7 +6572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -6646,7 +6660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -6734,7 +6748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -6822,7 +6836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -6910,7 +6924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -6998,7 +7012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -7086,7 +7100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -7174,7 +7188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -7262,7 +7276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -7350,7 +7364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -7438,7 +7452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -7526,7 +7540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -7614,7 +7628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7643,7 +7657,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7672,7 +7686,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -7687,7 +7701,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -7702,7 +7716,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -7717,7 +7731,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
@@ -7732,7 +7746,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>25</v>
       </c>
@@ -7747,7 +7761,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -7762,7 +7776,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -7777,7 +7791,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -7792,7 +7806,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>29</v>
       </c>
@@ -7807,7 +7821,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -7836,25 +7850,25 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" customWidth="1"/>
-    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>83</v>
       </c>
@@ -7871,7 +7885,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>1</v>
       </c>
@@ -7882,30 +7896,30 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="85" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="85" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="85" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="85" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="86"/>
     </row>
-    <row r="11" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>2</v>
       </c>
@@ -7916,35 +7930,35 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="85" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="85" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="85" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="85" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="85" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="86"/>
     </row>
-    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>3</v>
       </c>
@@ -7955,30 +7969,30 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="85" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="85" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="85" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="85" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="86"/>
     </row>
-    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>4</v>
       </c>
@@ -7989,39 +8003,39 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="85" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="85" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="85" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="85" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="85" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:3" s="90" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" s="90" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="88" t="s">
         <v>257</v>
       </c>
       <c r="C31" s="88"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>5</v>
       </c>
@@ -8032,40 +8046,40 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="85" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="85" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="85" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="85" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="85" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="85" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="86"/>
     </row>
-    <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>6</v>
       </c>
@@ -8076,35 +8090,35 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="85" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="85" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="85" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="85" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="85" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="86"/>
     </row>
-    <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>7</v>
       </c>
@@ -8116,47 +8130,47 @@
       </c>
       <c r="E47" s="87"/>
     </row>
-    <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="85" t="s">
         <v>265</v>
       </c>
       <c r="E48" s="87"/>
     </row>
-    <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="85" t="s">
         <v>266</v>
       </c>
       <c r="E49" s="87"/>
     </row>
-    <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="85" t="s">
         <v>267</v>
       </c>
       <c r="E50" s="87"/>
     </row>
-    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="86"/>
     </row>
-    <row r="52" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="88" t="s">
         <v>268</v>
       </c>
       <c r="B52" s="88"/>
       <c r="E52" s="87"/>
     </row>
-    <row r="53" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="87" t="s">
         <v>269</v>
       </c>
       <c r="B53" s="87"/>
     </row>
-    <row r="54" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="87" t="s">
         <v>246</v>
       </c>
       <c r="B54" s="87"/>
     </row>
-    <row r="55" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="87" t="s">
         <v>247</v>
       </c>
@@ -8165,14 +8179,14 @@
       </c>
       <c r="C55" s="87"/>
     </row>
-    <row r="56" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="87" t="s">
         <v>249</v>
       </c>
       <c r="B56" s="87"/>
       <c r="C56" s="87"/>
     </row>
-    <row r="57" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="87"/>
     </row>
   </sheetData>
@@ -8189,28 +8203,28 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="75" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="75" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="21" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" style="116" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="96" customWidth="1"/>
-    <col min="11" max="11" width="40.81640625" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="116" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="96" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
     <col min="12" max="12" width="6" style="21" customWidth="1"/>
-    <col min="13" max="13" width="4.81640625" style="116" customWidth="1"/>
-    <col min="14" max="14" width="7.1796875" style="96" customWidth="1"/>
-    <col min="15" max="15" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1796875" style="96" customWidth="1"/>
-    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="116" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="96" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="96" customWidth="1"/>
+    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
@@ -8260,7 +8274,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96">
         <v>1</v>
       </c>
@@ -8379,7 +8393,7 @@
       <c r="CT2" s="72"/>
       <c r="CU2" s="72"/>
     </row>
-    <row r="3" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="96">
         <v>2</v>
       </c>
@@ -8496,7 +8510,7 @@
       <c r="CT3" s="72"/>
       <c r="CU3" s="72"/>
     </row>
-    <row r="4" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="96">
         <v>3</v>
       </c>
@@ -8613,7 +8627,7 @@
       <c r="CT4" s="72"/>
       <c r="CU4" s="72"/>
     </row>
-    <row r="5" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="96">
         <v>4</v>
       </c>
@@ -8730,7 +8744,7 @@
       <c r="CT5" s="72"/>
       <c r="CU5" s="72"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" s="96">
         <v>5</v>
       </c>
@@ -8763,7 +8777,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" s="96">
         <v>6</v>
       </c>
@@ -8796,7 +8810,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" s="96">
         <v>7</v>
       </c>
@@ -8829,7 +8843,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" s="96">
         <v>8</v>
       </c>
@@ -8862,7 +8876,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" s="96">
         <v>9</v>
       </c>
@@ -8895,7 +8909,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" s="96">
         <v>10</v>
       </c>
@@ -8928,7 +8942,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" s="96">
         <v>11</v>
       </c>
@@ -8961,7 +8975,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:99" s="109" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:99" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F13" s="112"/>
       <c r="G13" s="110"/>
       <c r="H13" s="24"/>
@@ -8973,7 +8987,7 @@
       <c r="O13" s="111"/>
       <c r="Q13" s="111"/>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" s="96">
         <v>12</v>
       </c>
@@ -9007,7 +9021,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" s="96">
         <v>13</v>
       </c>
@@ -9038,7 +9052,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" s="96">
         <v>14</v>
       </c>
@@ -9069,7 +9083,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="96">
         <v>15</v>
       </c>
@@ -9100,7 +9114,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="96">
         <v>16</v>
       </c>
@@ -9131,7 +9145,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="96">
         <v>17</v>
       </c>
@@ -9162,7 +9176,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="96">
         <v>18</v>
       </c>
@@ -9193,7 +9207,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="96">
         <v>19</v>
       </c>
@@ -9224,7 +9238,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="96">
         <v>20</v>
       </c>
@@ -9255,7 +9269,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="96">
         <v>21</v>
       </c>
@@ -9286,7 +9300,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="96">
         <v>22</v>
       </c>
@@ -9317,7 +9331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G25" s="111"/>
       <c r="H25" s="118"/>
       <c r="I25" s="115"/>
@@ -9327,7 +9341,7 @@
       <c r="O25" s="111"/>
       <c r="Q25" s="111"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="96">
         <v>23</v>
       </c>
@@ -9360,7 +9374,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="96">
         <v>24</v>
       </c>
@@ -9391,7 +9405,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="96">
         <v>25</v>
       </c>
@@ -9422,7 +9436,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="96">
         <v>26</v>
       </c>
@@ -9453,7 +9467,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="96">
         <v>27</v>
       </c>
@@ -9484,7 +9498,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="96">
         <v>28</v>
       </c>
@@ -9515,7 +9529,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="96">
         <v>29</v>
       </c>
@@ -9546,7 +9560,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="96">
         <v>30</v>
       </c>
@@ -9577,7 +9591,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="96">
         <v>31</v>
       </c>
@@ -9608,7 +9622,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="96">
         <v>32</v>
       </c>
@@ -9639,7 +9653,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="96">
         <v>33</v>
       </c>
@@ -9670,7 +9684,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="109">
         <v>34</v>
       </c>
@@ -9679,7 +9693,7 @@
       <c r="L37" s="21"/>
       <c r="M37" s="116"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="96">
         <v>35</v>
       </c>
@@ -9712,7 +9726,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="96">
         <v>36</v>
       </c>
@@ -9743,7 +9757,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="96">
         <v>37</v>
       </c>
@@ -9774,7 +9788,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="96">
         <v>38</v>
       </c>
@@ -9805,7 +9819,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="96">
         <v>39</v>
       </c>
@@ -9836,7 +9850,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="96">
         <v>40</v>
       </c>
@@ -9867,7 +9881,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="96">
         <v>41</v>
       </c>
@@ -9898,7 +9912,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="96">
         <v>42</v>
       </c>
@@ -9929,7 +9943,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="96">
         <v>43</v>
       </c>
@@ -9960,7 +9974,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="96">
         <v>44</v>
       </c>
@@ -9991,7 +10005,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="96">
         <v>45</v>
       </c>
@@ -10022,7 +10036,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="109">
         <v>46</v>
       </c>
@@ -10032,37 +10046,37 @@
       <c r="M49" s="116"/>
       <c r="Q49" s="110"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="96">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="96">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="96">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="96">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="96">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="96">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="96">
         <v>53</v>
       </c>
@@ -10078,14 +10092,14 @@
       <c r="M56" s="115"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="96">
         <v>54</v>
       </c>
@@ -10101,14 +10115,14 @@
       <c r="M57" s="115"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G58" s="92" t="s">
         <v>195</v>
       </c>
@@ -10121,14 +10135,14 @@
       <c r="M58" s="115"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G59" s="92" t="s">
         <v>273</v>
       </c>
@@ -10141,14 +10155,14 @@
       <c r="M59" s="115"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="75" t="s">
         <v>198</v>
       </c>
@@ -10168,10 +10182,10 @@
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="73" t="s">
         <v>196</v>
       </c>
@@ -10196,14 +10210,14 @@
       <c r="M61" s="115"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>197</v>
       </c>
@@ -10228,14 +10242,14 @@
       <c r="M62" s="115"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>195</v>
       </c>
@@ -10258,14 +10272,14 @@
       <c r="M63" s="115"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="s">
         <v>206</v>
       </c>
@@ -10288,14 +10302,14 @@
       <c r="M64" s="115"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B65" s="94"/>
       <c r="D65" s="95"/>
       <c r="G65" s="92" t="s">
@@ -10310,14 +10324,14 @@
       <c r="M65" s="115"/>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G66" s="92" t="s">
         <v>271</v>
       </c>
@@ -10330,14 +10344,14 @@
       <c r="M66" s="115"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>276</v>
       </c>
@@ -10348,7 +10362,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>277</v>
       </c>
@@ -10359,7 +10373,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>278</v>
       </c>
@@ -10370,7 +10384,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>2</v>
       </c>
@@ -10384,7 +10398,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>2</v>
       </c>
@@ -10398,7 +10412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>2</v>
       </c>
@@ -10412,7 +10426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>2</v>
       </c>
@@ -10426,7 +10440,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>3</v>
       </c>
@@ -10440,7 +10454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>3</v>
       </c>
@@ -10454,7 +10468,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>3</v>
       </c>
@@ -10468,7 +10482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>3</v>
       </c>
@@ -10482,7 +10496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>4</v>
       </c>
@@ -10493,7 +10507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>4</v>
       </c>
@@ -10504,7 +10518,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>4</v>
       </c>
@@ -10515,7 +10529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>4</v>
       </c>
@@ -10526,7 +10540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>5</v>
       </c>
@@ -10537,7 +10551,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>5</v>
       </c>
@@ -10548,7 +10562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>5</v>
       </c>
@@ -10559,7 +10573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>5</v>
       </c>
@@ -10570,7 +10584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>6</v>
       </c>
@@ -10581,7 +10595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>6</v>
       </c>
@@ -10592,7 +10606,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>6</v>
       </c>
@@ -10603,7 +10617,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>6</v>
       </c>
@@ -10628,13 +10642,13 @@
       <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="7.7265625" style="11" customWidth="1"/>
-    <col min="10" max="13" width="25.453125" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="11" customWidth="1"/>
+    <col min="10" max="13" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H1" s="132"/>
       <c r="I1" s="129" t="s">
         <v>305</v>
@@ -10649,7 +10663,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H2" s="134" t="s">
         <v>207</v>
       </c>
@@ -10666,7 +10680,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H3" s="134"/>
       <c r="I3" s="126" t="s">
         <v>303</v>
@@ -10681,7 +10695,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H4" s="135"/>
       <c r="I4" s="138" t="s">
         <v>304</v>
@@ -10696,7 +10710,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H6" s="133" t="s">
         <v>295</v>
       </c>
@@ -10706,7 +10720,7 @@
       <c r="L6" s="67"/>
       <c r="M6" s="123"/>
     </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H7" s="134"/>
       <c r="I7" s="126"/>
       <c r="J7" s="121"/>
@@ -10714,7 +10728,7 @@
       <c r="L7" s="121"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H8" s="133" t="s">
         <v>296</v>
       </c>
@@ -10732,7 +10746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H9" s="134"/>
       <c r="I9" s="131" t="s">
         <v>285</v>
@@ -10742,7 +10756,7 @@
       <c r="L9" s="119"/>
       <c r="M9" s="120"/>
     </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H10" s="134"/>
       <c r="I10" s="127" t="s">
         <v>286</v>
@@ -10760,7 +10774,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H11" s="134"/>
       <c r="I11" s="127" t="s">
         <v>287</v>
@@ -10778,7 +10792,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H12" s="134"/>
       <c r="I12" s="130" t="s">
         <v>288</v>
@@ -10796,7 +10810,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H13" s="134"/>
       <c r="I13" s="127"/>
       <c r="J13" s="121"/>
@@ -10804,7 +10818,7 @@
       <c r="L13" s="121"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H14" s="134"/>
       <c r="I14" s="127"/>
       <c r="J14" s="121"/>
@@ -10812,7 +10826,7 @@
       <c r="L14" s="121"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H15" s="133" t="s">
         <v>297</v>
       </c>
@@ -10830,7 +10844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H16" s="134"/>
       <c r="I16" s="131" t="s">
         <v>285</v>
@@ -10840,7 +10854,7 @@
       <c r="L16" s="119"/>
       <c r="M16" s="120"/>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H17" s="134"/>
       <c r="I17" s="127" t="s">
         <v>286</v>
@@ -10858,7 +10872,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H18" s="134"/>
       <c r="I18" s="127" t="s">
         <v>287</v>
@@ -10876,7 +10890,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H19" s="134"/>
       <c r="I19" s="130" t="s">
         <v>288</v>
@@ -10894,7 +10908,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H20" s="134"/>
       <c r="I20" s="127"/>
       <c r="J20" s="121"/>
@@ -10902,7 +10916,7 @@
       <c r="L20" s="121"/>
       <c r="M20" s="29"/>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H21" s="134"/>
       <c r="I21" s="127"/>
       <c r="J21" s="121"/>
@@ -10910,7 +10924,7 @@
       <c r="L21" s="121"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H22" s="133" t="s">
         <v>298</v>
       </c>
@@ -10928,7 +10942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H23" s="134"/>
       <c r="I23" s="131" t="s">
         <v>285</v>
@@ -10938,7 +10952,7 @@
       <c r="L23" s="119"/>
       <c r="M23" s="120"/>
     </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H24" s="134"/>
       <c r="I24" s="127" t="s">
         <v>286</v>
@@ -10956,7 +10970,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H25" s="134"/>
       <c r="I25" s="127" t="s">
         <v>287</v>
@@ -10974,7 +10988,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H26" s="135"/>
       <c r="I26" s="130" t="s">
         <v>288</v>
@@ -10992,7 +11006,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H27" s="140"/>
       <c r="I27" s="141"/>
       <c r="J27" s="119"/>
@@ -11000,7 +11014,7 @@
       <c r="L27" s="119"/>
       <c r="M27" s="120"/>
     </row>
-    <row r="28" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H28" s="94"/>
       <c r="I28" s="138"/>
       <c r="J28" s="122"/>
@@ -11008,7 +11022,7 @@
       <c r="L28" s="122"/>
       <c r="M28" s="95"/>
     </row>
-    <row r="29" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H29" s="139" t="s">
         <v>299</v>
       </c>
@@ -11026,7 +11040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H30" s="134"/>
       <c r="I30" s="127" t="s">
         <v>285</v>
@@ -11036,7 +11050,7 @@
       <c r="L30" s="121"/>
       <c r="M30" s="29"/>
     </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H31" s="134"/>
       <c r="I31" s="127" t="s">
         <v>286</v>
@@ -11054,7 +11068,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H32" s="134"/>
       <c r="I32" s="127" t="s">
         <v>287</v>
@@ -11072,7 +11086,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H33" s="135"/>
       <c r="I33" s="130" t="s">
         <v>288</v>
@@ -11090,37 +11104,37 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>292</v>
       </c>
@@ -11133,18 +11147,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD37BA56-ED44-45A8-8BC4-C6ACD2907AAC}">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="31.1796875" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>318</v>
       </c>
@@ -11167,7 +11181,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11188,7 +11202,7 @@
         <v>calib_calib_1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11209,7 +11223,7 @@
         <v>calib_calib_2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11230,7 +11244,7 @@
         <v>calib_calib_3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11251,7 +11265,7 @@
         <v>calib_calib_4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11272,7 +11286,7 @@
         <v>calib_calib_5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11293,7 +11307,7 @@
         <v>calib_calib_6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11314,7 +11328,7 @@
         <v>calib_calib_7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11335,7 +11349,7 @@
         <v>calib_calib_8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11356,7 +11370,7 @@
         <v>calib_calib_9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11380,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11404,7 +11418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11428,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11452,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11473,7 +11487,7 @@
         <v>clock_clock_clock</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11497,7 +11511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11521,7 +11535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11542,7 +11556,7 @@
         <v>A_armraise_armraise</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11563,7 +11577,7 @@
         <v>A_watch_watch</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11587,7 +11601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11611,7 +11625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11635,7 +11649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11659,7 +11673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11683,7 +11697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11707,7 +11721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11731,7 +11745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11755,7 +11769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11779,7 +11793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11803,7 +11817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11827,7 +11841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11851,7 +11865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11875,7 +11889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11899,7 +11913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11923,7 +11937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11947,7 +11961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11971,7 +11985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11995,7 +12009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12016,7 +12030,7 @@
         <v>B_armraise_armraise</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12037,7 +12051,7 @@
         <v>B_watch_watch</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12061,7 +12075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12085,7 +12099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12109,7 +12123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12133,7 +12147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12157,7 +12171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12181,7 +12195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12205,7 +12219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12229,7 +12243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12253,7 +12267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12277,7 +12291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12301,7 +12315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12325,7 +12339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12349,7 +12363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12373,7 +12387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12397,7 +12411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12421,7 +12435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12445,7 +12459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12469,7 +12483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12490,7 +12504,7 @@
         <v>C_armraise_armraise</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12511,7 +12525,7 @@
         <v>C_watch_watch</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12535,7 +12549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12559,7 +12573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12583,7 +12597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12607,7 +12621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12631,7 +12645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12655,7 +12669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12679,7 +12693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12696,14 +12710,14 @@
         <v>2</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F95" si="1">CONCATENATE(C67,"_",D67,"_",E67)</f>
+        <f t="shared" ref="F67:F101" si="1">CONCATENATE(C67,"_",D67,"_",E67)</f>
         <v>C_material_2</v>
       </c>
       <c r="G67">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12727,7 +12741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12751,7 +12765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12775,7 +12789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12799,7 +12813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12823,7 +12837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12847,7 +12861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12871,7 +12885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12895,7 +12909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12919,7 +12933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12943,7 +12957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12964,7 +12978,7 @@
         <v>D_armraise_armraise</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12985,7 +12999,7 @@
         <v>D_watch_watch</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13009,7 +13023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13033,7 +13047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13057,7 +13071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13081,7 +13095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13105,7 +13119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13129,7 +13143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13153,7 +13167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13177,7 +13191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13201,7 +13215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13225,7 +13239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13249,7 +13263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13273,7 +13287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13297,7 +13311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13321,7 +13335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13345,7 +13359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13367,6 +13381,204 @@
       </c>
       <c r="G95">
         <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="142">
+        <v>95</v>
+      </c>
+      <c r="B96" s="142" t="s">
+        <v>325</v>
+      </c>
+      <c r="C96" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="D96" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="E96" s="142" t="s">
+        <v>311</v>
+      </c>
+      <c r="F96" s="142" t="str">
+        <f t="shared" si="1"/>
+        <v>test_test_front</v>
+      </c>
+      <c r="G96" s="142">
+        <v>22</v>
+      </c>
+      <c r="H96" s="142">
+        <v>255</v>
+      </c>
+      <c r="I96" s="142">
+        <v>102</v>
+      </c>
+      <c r="J96" s="142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="142">
+        <v>96</v>
+      </c>
+      <c r="B97" s="142" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="D97" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="E97" s="142" t="s">
+        <v>312</v>
+      </c>
+      <c r="F97" s="142" t="str">
+        <f t="shared" si="1"/>
+        <v>test_test_back</v>
+      </c>
+      <c r="G97" s="142">
+        <v>22</v>
+      </c>
+      <c r="H97" s="142">
+        <v>255</v>
+      </c>
+      <c r="I97" s="142">
+        <v>102</v>
+      </c>
+      <c r="J97" s="142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="142">
+        <v>97</v>
+      </c>
+      <c r="B98" s="142" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="D98" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" s="142">
+        <v>1</v>
+      </c>
+      <c r="F98" s="142" t="str">
+        <f t="shared" si="1"/>
+        <v>test_test_1</v>
+      </c>
+      <c r="G98" s="142">
+        <v>23</v>
+      </c>
+      <c r="H98" s="142">
+        <v>255</v>
+      </c>
+      <c r="I98" s="142">
+        <v>102</v>
+      </c>
+      <c r="J98" s="142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="142">
+        <v>98</v>
+      </c>
+      <c r="B99" s="142" t="s">
+        <v>326</v>
+      </c>
+      <c r="C99" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="E99" s="142">
+        <v>2</v>
+      </c>
+      <c r="F99" s="142" t="str">
+        <f t="shared" si="1"/>
+        <v>test_test_2</v>
+      </c>
+      <c r="G99" s="142">
+        <v>23</v>
+      </c>
+      <c r="H99" s="142">
+        <v>255</v>
+      </c>
+      <c r="I99" s="142">
+        <v>102</v>
+      </c>
+      <c r="J99" s="142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="142">
+        <v>99</v>
+      </c>
+      <c r="B100" s="142" t="s">
+        <v>326</v>
+      </c>
+      <c r="C100" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="D100" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="E100" s="142">
+        <v>3</v>
+      </c>
+      <c r="F100" s="142" t="str">
+        <f t="shared" si="1"/>
+        <v>test_test_3</v>
+      </c>
+      <c r="G100" s="142">
+        <v>23</v>
+      </c>
+      <c r="H100" s="142">
+        <v>255</v>
+      </c>
+      <c r="I100" s="142">
+        <v>102</v>
+      </c>
+      <c r="J100" s="142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="142">
+        <v>100</v>
+      </c>
+      <c r="B101" s="142" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="D101" s="142" t="s">
+        <v>331</v>
+      </c>
+      <c r="E101" s="142">
+        <v>4</v>
+      </c>
+      <c r="F101" s="142" t="str">
+        <f t="shared" si="1"/>
+        <v>test_test_4</v>
+      </c>
+      <c r="G101" s="142">
+        <v>23</v>
+      </c>
+      <c r="H101" s="142">
+        <v>255</v>
+      </c>
+      <c r="I101" s="142">
+        <v>102</v>
+      </c>
+      <c r="J101" s="142">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -13383,14 +13595,14 @@
       <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -13410,7 +13622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -13431,7 +13643,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -13452,7 +13664,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -13473,7 +13685,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -13494,7 +13706,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -13515,7 +13727,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -13536,7 +13748,7 @@
         <v xml:space="preserve">Study1_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>2</v>
       </c>
@@ -13557,7 +13769,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -13578,7 +13790,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -13599,7 +13811,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>2</v>
       </c>
@@ -13620,7 +13832,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>2</v>
       </c>
@@ -13641,7 +13853,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -13662,7 +13874,7 @@
         <v xml:space="preserve">Study2_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>3</v>
       </c>
@@ -13683,7 +13895,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>3</v>
       </c>
@@ -13704,7 +13916,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>3</v>
       </c>
@@ -13725,7 +13937,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>3</v>
       </c>
@@ -13746,7 +13958,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>3</v>
       </c>
@@ -13767,7 +13979,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>3</v>
       </c>
@@ -13788,7 +14000,7 @@
         <v xml:space="preserve">Study1_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>4</v>
       </c>
@@ -13809,7 +14021,7 @@
         <v xml:space="preserve">Study1_pilot_expert_glasses </v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>4</v>
       </c>
@@ -13830,7 +14042,7 @@
         <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>4</v>
       </c>
@@ -13851,7 +14063,7 @@
         <v>Study1_pilot_expert_cam2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>4</v>
       </c>
@@ -13872,7 +14084,7 @@
         <v>Study1_pilot_expert_cam3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>4</v>
       </c>
@@ -13893,7 +14105,7 @@
         <v>Study1_pilot_expert_cam4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>4</v>
       </c>
@@ -13914,12 +14126,12 @@
         <v xml:space="preserve">Study1_pilot_expert_ambient </v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>1</v>
       </c>
@@ -13940,7 +14152,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>1</v>
       </c>
@@ -13961,7 +14173,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>1</v>
       </c>
@@ -13982,7 +14194,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>1</v>
       </c>
@@ -14003,7 +14215,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>1</v>
       </c>
@@ -14024,7 +14236,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>1</v>
       </c>
@@ -14045,7 +14257,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>2</v>
       </c>
@@ -14066,7 +14278,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>2</v>
       </c>
@@ -14087,7 +14299,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>2</v>
       </c>
@@ -14108,7 +14320,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>2</v>
       </c>
@@ -14129,7 +14341,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>2</v>
       </c>
@@ -14150,7 +14362,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>2</v>
       </c>
@@ -14171,7 +14383,7 @@
         <v xml:space="preserve">Study2_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>3</v>
       </c>
@@ -14192,7 +14404,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>3</v>
       </c>
@@ -14213,7 +14425,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -14234,7 +14446,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>3</v>
       </c>
@@ -14255,7 +14467,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>3</v>
       </c>
@@ -14276,7 +14488,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>3</v>
       </c>
@@ -14297,7 +14509,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>4</v>
       </c>
@@ -14318,7 +14530,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>4</v>
       </c>
@@ -14339,7 +14551,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>4</v>
       </c>
@@ -14360,7 +14572,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>4</v>
       </c>
@@ -14381,7 +14593,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>4</v>
       </c>
@@ -14402,7 +14614,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>4</v>
       </c>
@@ -14423,7 +14635,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14437,14 +14649,14 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="16" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>161</v>
       </c>
@@ -14455,12 +14667,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
     </row>
-    <row r="3" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>174</v>
       </c>
@@ -14471,21 +14683,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
     </row>
-    <row r="5" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="65" t="s">
         <v>176</v>
       </c>
       <c r="C5" s="66"/>
     </row>
-    <row r="6" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>162</v>
       </c>
@@ -14496,21 +14708,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>166</v>
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
     </row>
-    <row r="8" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="80" t="s">
         <v>213</v>
       </c>
       <c r="C8" s="43"/>
     </row>
-    <row r="9" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>168</v>
       </c>
@@ -14521,19 +14733,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
     </row>
-    <row r="12" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>170</v>
       </c>
@@ -14544,19 +14756,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
       <c r="B14" s="69"/>
       <c r="C14" s="69"/>
     </row>
-    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="68" t="s">
         <v>190</v>
       </c>
@@ -14567,19 +14779,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>166</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
     </row>
-    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
     </row>
-    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
         <v>177</v>
       </c>
@@ -14590,7 +14802,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>166</v>
       </c>
@@ -14599,14 +14811,14 @@
       </c>
       <c r="C19" s="30"/>
     </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
       <c r="B20" s="80" t="s">
         <v>213</v>
       </c>
       <c r="C20" s="47"/>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>180</v>
       </c>
@@ -14617,19 +14829,19 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>169</v>
       </c>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
     </row>
-    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
     </row>
-    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
         <v>181</v>
       </c>
@@ -14640,19 +14852,19 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>171</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
     </row>
-    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68"/>
       <c r="B26" s="69"/>
       <c r="C26" s="69"/>
     </row>
-    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="68" t="s">
         <v>190</v>
       </c>
@@ -14663,19 +14875,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70" t="s">
         <v>166</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
     </row>
-    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
     </row>
-    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="60" t="s">
         <v>182</v>
       </c>
@@ -14686,7 +14898,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>166</v>
       </c>
@@ -14695,14 +14907,14 @@
       </c>
       <c r="C31" s="30"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="80" t="s">
         <v>213</v>
       </c>
       <c r="C32" s="52"/>
     </row>
-    <row r="33" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
         <v>183</v>
       </c>
@@ -14713,19 +14925,19 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>169</v>
       </c>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
     </row>
-    <row r="35" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
     </row>
-    <row r="36" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
         <v>184</v>
       </c>
@@ -14736,19 +14948,19 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
     </row>
-    <row r="38" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="68"/>
       <c r="B38" s="69"/>
       <c r="C38" s="69"/>
     </row>
-    <row r="39" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="68" t="s">
         <v>190</v>
       </c>
@@ -14759,19 +14971,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="70" t="s">
         <v>166</v>
       </c>
       <c r="B40" s="71"/>
       <c r="C40" s="71"/>
     </row>
-    <row r="41" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="61"/>
       <c r="C41" s="61"/>
     </row>
-    <row r="42" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>185</v>
       </c>
@@ -14782,7 +14994,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>166</v>
       </c>
@@ -14791,14 +15003,14 @@
       </c>
       <c r="C43" s="30"/>
     </row>
-    <row r="44" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="80" t="s">
         <v>213</v>
       </c>
       <c r="C44" s="34"/>
     </row>
-    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>186</v>
       </c>
@@ -14809,19 +15021,19 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>169</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
     </row>
-    <row r="47" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>187</v>
       </c>
@@ -14832,19 +15044,19 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>171</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="68"/>
       <c r="B50" s="69"/>
       <c r="C50" s="69"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="68" t="s">
         <v>190</v>
       </c>
@@ -14855,26 +15067,26 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="70" t="s">
         <v>166</v>
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="63" t="s">
         <v>189</v>
       </c>
       <c r="C53" s="63"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="60"/>
       <c r="B54" s="61"/>
       <c r="C54" s="61"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
         <v>194</v>
       </c>
@@ -14885,7 +15097,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>193</v>
       </c>

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856A438C-C11F-4A2D-88AF-4E13F62D3384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC169C1-DB61-4C23-89E9-143E02A6291B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="335">
   <si>
     <t>study</t>
   </si>
@@ -568,9 +568,6 @@
     <t>data saving/</t>
   </si>
   <si>
-    <t>teacher changing</t>
-  </si>
-  <si>
     <t>11.30 - 11.45</t>
   </si>
   <si>
@@ -580,9 +577,6 @@
     <t>11.55 - 12.00</t>
   </si>
   <si>
-    <t>dismantling</t>
-  </si>
-  <si>
     <t>END</t>
   </si>
   <si>
@@ -880,21 +874,12 @@
     <t>teach</t>
   </si>
   <si>
-    <t>in einem 3min zeitfenster störung für max 1min oder bis ermahnt wird</t>
-  </si>
-  <si>
-    <t>in der ersten minute keine störung</t>
-  </si>
-  <si>
     <t>within a timewindow, there can only be an overlap of different types of dist (i.e. ist never the case that two students yell at the same time)</t>
   </si>
   <si>
     <t>within a session, no dist appears twice (i.e. looking phone happens only once in ten minutes)</t>
   </si>
   <si>
-    <t>there are 9 dist in a ten min intervall (quelle einfügen die sagt dass das real ist</t>
-  </si>
-  <si>
     <t>SESSION</t>
   </si>
   <si>
@@ -1043,6 +1028,12 @@
   </si>
   <si>
     <t>13.00 - 13.45</t>
+  </si>
+  <si>
+    <t>clearing away the technical devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change of instructor </t>
   </si>
 </sst>
 </file>
@@ -8159,8 +8150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8173,12 +8164,12 @@
   <sheetData>
     <row r="1" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="89" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="81" customFormat="1" x14ac:dyDescent="0.35">
@@ -8192,7 +8183,7 @@
         <v>82</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E4" s="81" t="s">
         <v>84</v>
@@ -8203,30 +8194,30 @@
         <v>1</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="85" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C7" s="85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C8" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="85" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -8237,35 +8228,35 @@
         <v>2</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C12" s="85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C15" s="85" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -8276,30 +8267,30 @@
         <v>3</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="85" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="85" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -8310,41 +8301,41 @@
         <v>4</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C25" s="85" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C26" s="85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C27" s="85" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C29" s="85" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:3" s="90" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A31" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C31" s="88"/>
     </row>
@@ -8353,40 +8344,40 @@
         <v>5</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" s="85" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="85" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C34" s="85" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="85" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="85" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="85" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -8397,35 +8388,35 @@
         <v>6</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C40" s="85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="85" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C44" s="85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="85" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
@@ -8436,28 +8427,28 @@
         <v>7</v>
       </c>
       <c r="B47" s="84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C47" s="85" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E47" s="87"/>
     </row>
     <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C48" s="85" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E48" s="87"/>
     </row>
     <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C49" s="85" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E49" s="87"/>
     </row>
     <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C50" s="85" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E50" s="87"/>
     </row>
@@ -8469,53 +8460,53 @@
         <v>8</v>
       </c>
       <c r="B52" s="145" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C52" s="85" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C53" s="85" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C54" s="85" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B57" s="88"/>
       <c r="E57" s="87"/>
     </row>
     <row r="58" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B58" s="87"/>
     </row>
     <row r="59" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B59" s="87"/>
     </row>
     <row r="60" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="87" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B60" s="87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C60" s="87"/>
     </row>
     <row r="61" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="87" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B61" s="87"/>
       <c r="C61" s="87"/>
@@ -8572,37 +8563,37 @@
         <v>93</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I1" s="113" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J1" s="104" t="s">
         <v>94</v>
       </c>
       <c r="K1" s="78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L1" s="117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M1" s="113" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N1" s="104" t="s">
         <v>95</v>
       </c>
       <c r="O1" s="78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P1" s="104" t="s">
         <v>96</v>
       </c>
       <c r="Q1" s="78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:99" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -8623,23 +8614,23 @@
       </c>
       <c r="F2" s="101"/>
       <c r="G2" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="114"/>
       <c r="J2" s="105"/>
       <c r="K2" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L2" s="24"/>
       <c r="M2" s="114"/>
       <c r="N2" s="105"/>
       <c r="O2" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P2" s="105"/>
       <c r="Q2" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R2" s="72"/>
       <c r="S2" s="72"/>
@@ -8740,23 +8731,23 @@
       <c r="E3" s="97"/>
       <c r="F3" s="102"/>
       <c r="G3" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="114"/>
       <c r="J3" s="106"/>
       <c r="K3" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L3" s="24"/>
       <c r="M3" s="114"/>
       <c r="N3" s="105"/>
       <c r="O3" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P3" s="105"/>
       <c r="Q3" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R3" s="72"/>
       <c r="S3" s="72"/>
@@ -8857,23 +8848,23 @@
       <c r="E4" s="97"/>
       <c r="F4" s="102"/>
       <c r="G4" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="114"/>
       <c r="J4" s="106"/>
       <c r="K4" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L4" s="24"/>
       <c r="M4" s="114"/>
       <c r="N4" s="105"/>
       <c r="O4" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P4" s="105"/>
       <c r="Q4" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R4" s="72"/>
       <c r="S4" s="72"/>
@@ -8974,23 +8965,23 @@
       <c r="E5" s="97"/>
       <c r="F5" s="102"/>
       <c r="G5" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="114"/>
       <c r="J5" s="106"/>
       <c r="K5" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L5" s="24"/>
       <c r="M5" s="114"/>
       <c r="N5" s="105"/>
       <c r="O5" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P5" s="105"/>
       <c r="Q5" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R5" s="72"/>
       <c r="S5" s="72"/>
@@ -9091,21 +9082,21 @@
       <c r="E6" s="97"/>
       <c r="F6" s="103"/>
       <c r="G6" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="114"/>
       <c r="J6" s="107"/>
       <c r="K6" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="114"/>
       <c r="O6" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:99" x14ac:dyDescent="0.35">
@@ -9124,21 +9115,21 @@
       <c r="E7" s="97"/>
       <c r="F7" s="103"/>
       <c r="G7" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="114"/>
       <c r="J7" s="107"/>
       <c r="K7" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L7" s="24"/>
       <c r="M7" s="114"/>
       <c r="O7" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:99" x14ac:dyDescent="0.35">
@@ -9157,21 +9148,21 @@
       <c r="E8" s="97"/>
       <c r="F8" s="103"/>
       <c r="G8" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="114"/>
       <c r="J8" s="107"/>
       <c r="K8" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="114"/>
       <c r="O8" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" s="92" t="s">
         <v>195</v>
-      </c>
-      <c r="Q8" s="92" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:99" x14ac:dyDescent="0.35">
@@ -9190,21 +9181,21 @@
       <c r="E9" s="97"/>
       <c r="F9" s="103"/>
       <c r="G9" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="114"/>
       <c r="J9" s="107"/>
       <c r="K9" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="114"/>
       <c r="O9" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q9" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:99" x14ac:dyDescent="0.35">
@@ -9223,21 +9214,21 @@
       <c r="E10" s="97"/>
       <c r="F10" s="103"/>
       <c r="G10" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="114"/>
       <c r="J10" s="107"/>
       <c r="K10" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L10" s="24"/>
       <c r="M10" s="114"/>
       <c r="O10" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:99" x14ac:dyDescent="0.35">
@@ -9256,21 +9247,21 @@
       <c r="E11" s="97"/>
       <c r="F11" s="103"/>
       <c r="G11" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="114"/>
       <c r="J11" s="107"/>
       <c r="K11" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="114"/>
       <c r="O11" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:99" x14ac:dyDescent="0.35">
@@ -9289,21 +9280,21 @@
       <c r="E12" s="97"/>
       <c r="F12" s="103"/>
       <c r="G12" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="114"/>
       <c r="J12" s="107"/>
       <c r="K12" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="114"/>
       <c r="O12" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:99" s="109" customFormat="1" x14ac:dyDescent="0.35">
@@ -9335,21 +9326,21 @@
         <v>158</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H14" s="118"/>
       <c r="I14" s="115"/>
       <c r="J14" s="107"/>
       <c r="K14" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L14" s="118"/>
       <c r="M14" s="115"/>
       <c r="O14" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:99" x14ac:dyDescent="0.35">
@@ -9367,20 +9358,20 @@
       </c>
       <c r="E15" s="98"/>
       <c r="G15" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H15" s="118"/>
       <c r="I15" s="115"/>
       <c r="K15" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L15" s="118"/>
       <c r="M15" s="115"/>
       <c r="O15" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q15" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:99" x14ac:dyDescent="0.35">
@@ -9398,20 +9389,20 @@
       </c>
       <c r="E16" s="98"/>
       <c r="G16" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H16" s="118"/>
       <c r="I16" s="115"/>
       <c r="K16" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L16" s="118"/>
       <c r="M16" s="115"/>
       <c r="O16" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -9429,20 +9420,20 @@
       </c>
       <c r="E17" s="98"/>
       <c r="G17" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H17" s="118"/>
       <c r="I17" s="115"/>
       <c r="K17" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L17" s="118"/>
       <c r="M17" s="115"/>
       <c r="O17" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q17" s="92" t="s">
         <v>195</v>
-      </c>
-      <c r="Q17" s="92" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -9460,20 +9451,20 @@
       </c>
       <c r="E18" s="98"/>
       <c r="G18" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H18" s="118"/>
       <c r="I18" s="115"/>
       <c r="K18" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L18" s="118"/>
       <c r="M18" s="115"/>
       <c r="O18" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -9491,20 +9482,20 @@
       </c>
       <c r="E19" s="98"/>
       <c r="G19" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H19" s="118"/>
       <c r="I19" s="115"/>
       <c r="K19" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L19" s="118"/>
       <c r="M19" s="115"/>
       <c r="O19" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -9522,20 +9513,20 @@
       </c>
       <c r="E20" s="98"/>
       <c r="G20" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H20" s="118"/>
       <c r="I20" s="115"/>
       <c r="K20" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L20" s="118"/>
       <c r="M20" s="115"/>
       <c r="O20" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -9553,20 +9544,20 @@
       </c>
       <c r="E21" s="98"/>
       <c r="G21" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H21" s="118"/>
       <c r="I21" s="115"/>
       <c r="K21" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L21" s="118"/>
       <c r="M21" s="115"/>
       <c r="O21" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -9584,20 +9575,20 @@
       </c>
       <c r="E22" s="98"/>
       <c r="G22" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H22" s="118"/>
       <c r="I22" s="115"/>
       <c r="K22" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L22" s="118"/>
       <c r="M22" s="115"/>
       <c r="O22" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -9615,20 +9606,20 @@
       </c>
       <c r="E23" s="98"/>
       <c r="G23" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H23" s="118"/>
       <c r="I23" s="115"/>
       <c r="K23" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L23" s="118"/>
       <c r="M23" s="115"/>
       <c r="O23" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -9646,20 +9637,20 @@
       </c>
       <c r="E24" s="98"/>
       <c r="G24" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H24" s="118"/>
       <c r="I24" s="115"/>
       <c r="K24" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L24" s="118"/>
       <c r="M24" s="115"/>
       <c r="O24" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q24" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
@@ -9689,20 +9680,20 @@
         <v>159</v>
       </c>
       <c r="G26" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H26" s="118"/>
       <c r="I26" s="115"/>
       <c r="K26" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L26" s="118"/>
       <c r="M26" s="115"/>
       <c r="O26" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -9720,20 +9711,20 @@
       </c>
       <c r="E27" s="99"/>
       <c r="G27" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H27" s="118"/>
       <c r="I27" s="115"/>
       <c r="K27" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L27" s="118"/>
       <c r="M27" s="115"/>
       <c r="O27" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q27" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -9751,20 +9742,20 @@
       </c>
       <c r="E28" s="99"/>
       <c r="G28" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H28" s="118"/>
       <c r="I28" s="115"/>
       <c r="K28" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L28" s="118"/>
       <c r="M28" s="115"/>
       <c r="O28" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -9782,20 +9773,20 @@
       </c>
       <c r="E29" s="99"/>
       <c r="G29" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H29" s="118"/>
       <c r="I29" s="115"/>
       <c r="K29" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L29" s="118"/>
       <c r="M29" s="115"/>
       <c r="O29" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -9813,20 +9804,20 @@
       </c>
       <c r="E30" s="99"/>
       <c r="G30" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H30" s="118"/>
       <c r="I30" s="115"/>
       <c r="K30" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L30" s="118"/>
       <c r="M30" s="115"/>
       <c r="O30" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -9844,20 +9835,20 @@
       </c>
       <c r="E31" s="99"/>
       <c r="G31" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H31" s="118"/>
       <c r="I31" s="115"/>
       <c r="K31" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L31" s="118"/>
       <c r="M31" s="115"/>
       <c r="O31" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -9875,20 +9866,20 @@
       </c>
       <c r="E32" s="99"/>
       <c r="G32" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H32" s="118"/>
       <c r="I32" s="115"/>
       <c r="K32" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L32" s="118"/>
       <c r="M32" s="115"/>
       <c r="O32" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -9906,20 +9897,20 @@
       </c>
       <c r="E33" s="99"/>
       <c r="G33" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H33" s="118"/>
       <c r="I33" s="115"/>
       <c r="K33" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L33" s="118"/>
       <c r="M33" s="115"/>
       <c r="O33" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q33" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -9937,20 +9928,20 @@
       </c>
       <c r="E34" s="99"/>
       <c r="G34" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H34" s="118"/>
       <c r="I34" s="115"/>
       <c r="K34" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L34" s="118"/>
       <c r="M34" s="115"/>
       <c r="O34" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q34" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -9968,20 +9959,20 @@
       </c>
       <c r="E35" s="99"/>
       <c r="G35" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H35" s="118"/>
       <c r="I35" s="115"/>
       <c r="K35" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L35" s="118"/>
       <c r="M35" s="115"/>
       <c r="O35" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q35" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -9999,20 +9990,20 @@
       </c>
       <c r="E36" s="99"/>
       <c r="G36" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H36" s="118"/>
       <c r="I36" s="115"/>
       <c r="K36" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L36" s="118"/>
       <c r="M36" s="115"/>
       <c r="O36" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q36" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
@@ -10041,20 +10032,20 @@
         <v>160</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H38" s="118"/>
       <c r="I38" s="115"/>
       <c r="K38" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L38" s="118"/>
       <c r="M38" s="115"/>
       <c r="O38" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q38" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -10072,20 +10063,20 @@
       </c>
       <c r="E39" s="108"/>
       <c r="G39" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H39" s="118"/>
       <c r="I39" s="115"/>
       <c r="K39" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L39" s="118"/>
       <c r="M39" s="115"/>
       <c r="O39" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q39" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -10103,20 +10094,20 @@
       </c>
       <c r="E40" s="108"/>
       <c r="G40" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H40" s="118"/>
       <c r="I40" s="115"/>
       <c r="K40" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L40" s="118"/>
       <c r="M40" s="115"/>
       <c r="O40" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q40" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -10134,20 +10125,20 @@
       </c>
       <c r="E41" s="108"/>
       <c r="G41" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H41" s="118"/>
       <c r="I41" s="115"/>
       <c r="K41" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L41" s="118"/>
       <c r="M41" s="115"/>
       <c r="O41" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q41" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -10165,20 +10156,20 @@
       </c>
       <c r="E42" s="108"/>
       <c r="G42" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H42" s="118"/>
       <c r="I42" s="115"/>
       <c r="K42" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L42" s="118"/>
       <c r="M42" s="115"/>
       <c r="O42" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q42" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -10196,20 +10187,20 @@
       </c>
       <c r="E43" s="108"/>
       <c r="G43" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H43" s="118"/>
       <c r="I43" s="115"/>
       <c r="K43" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L43" s="118"/>
       <c r="M43" s="115"/>
       <c r="O43" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q43" s="79" t="s">
         <v>199</v>
-      </c>
-      <c r="Q43" s="79" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -10227,20 +10218,20 @@
       </c>
       <c r="E44" s="108"/>
       <c r="G44" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H44" s="118"/>
       <c r="I44" s="115"/>
       <c r="K44" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L44" s="118"/>
       <c r="M44" s="115"/>
       <c r="O44" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q44" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -10258,20 +10249,20 @@
       </c>
       <c r="E45" s="108"/>
       <c r="G45" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H45" s="118"/>
       <c r="I45" s="115"/>
       <c r="K45" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L45" s="118"/>
       <c r="M45" s="115"/>
       <c r="O45" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q45" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -10289,20 +10280,20 @@
       </c>
       <c r="E46" s="108"/>
       <c r="G46" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H46" s="118"/>
       <c r="I46" s="115"/>
       <c r="K46" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L46" s="118"/>
       <c r="M46" s="115"/>
       <c r="O46" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q46" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -10320,20 +10311,20 @@
       </c>
       <c r="E47" s="108"/>
       <c r="G47" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H47" s="118"/>
       <c r="I47" s="115"/>
       <c r="K47" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L47" s="118"/>
       <c r="M47" s="115"/>
       <c r="O47" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q47" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -10351,20 +10342,20 @@
       </c>
       <c r="E48" s="108"/>
       <c r="G48" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H48" s="118"/>
       <c r="I48" s="115"/>
       <c r="K48" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L48" s="118"/>
       <c r="M48" s="115"/>
       <c r="O48" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q48" s="79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="109" customFormat="1" x14ac:dyDescent="0.35">
@@ -10412,7 +10403,7 @@
         <v>53</v>
       </c>
       <c r="G56" s="92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H56" s="118"/>
       <c r="I56" s="115"/>
@@ -10423,11 +10414,11 @@
       <c r="M56" s="115"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -10435,7 +10426,7 @@
         <v>54</v>
       </c>
       <c r="G57" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H57" s="118"/>
       <c r="I57" s="115"/>
@@ -10446,7 +10437,7 @@
       <c r="M57" s="115"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
@@ -10455,7 +10446,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G58" s="92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H58" s="118"/>
       <c r="I58" s="115"/>
@@ -10466,16 +10457,16 @@
       <c r="M58" s="115"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G59" s="92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H59" s="118"/>
       <c r="I59" s="115"/>
@@ -10486,19 +10477,19 @@
       <c r="M59" s="115"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="75" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G60" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H60" s="118"/>
       <c r="I60" s="115"/>
@@ -10509,28 +10500,28 @@
       <c r="M60" s="115"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C61" s="73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D61" s="73" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G61" s="92" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H61" s="118"/>
       <c r="I61" s="115"/>
@@ -10541,28 +10532,28 @@
       <c r="M61" s="115"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B62" s="74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D62" s="74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G62" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H62" s="118"/>
       <c r="I62" s="115"/>
@@ -10573,26 +10564,26 @@
       <c r="M62" s="115"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C63" s="93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D63" s="31"/>
       <c r="G63" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H63" s="118"/>
       <c r="I63" s="115"/>
@@ -10603,26 +10594,26 @@
       <c r="M63" s="115"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C64" s="77" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D64" s="29"/>
       <c r="G64" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H64" s="118"/>
       <c r="I64" s="115"/>
@@ -10633,18 +10624,18 @@
       <c r="M64" s="115"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B65" s="94"/>
       <c r="D65" s="95"/>
       <c r="G65" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H65" s="118"/>
       <c r="I65" s="115"/>
@@ -10655,16 +10646,16 @@
       <c r="M65" s="115"/>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G66" s="92" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H66" s="118"/>
       <c r="I66" s="115"/>
@@ -10675,44 +10666,44 @@
       <c r="M66" s="115"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
@@ -10967,507 +10958,586 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E918F0-9C6B-4528-8541-240528FAF3FE}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.7265625" style="11" customWidth="1"/>
     <col min="10" max="13" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H1" s="132"/>
-      <c r="I1" s="129" t="s">
-        <v>298</v>
-      </c>
-      <c r="J1" s="136" t="s">
-        <v>299</v>
-      </c>
-      <c r="K1" s="136" t="s">
-        <v>300</v>
-      </c>
-      <c r="L1" s="137" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H2" s="134" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="126" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="132"/>
+      <c r="B1" s="129" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="136" t="s">
         <v>295</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="E1" s="137" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="134"/>
+      <c r="B3" s="126" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="135"/>
+      <c r="B4" s="138" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="122" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="D4" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="E4" s="95" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="3" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H3" s="134"/>
-      <c r="I3" s="126" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3" s="121" t="s">
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="11"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="133" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="123"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="134"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="29"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="133" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="129"/>
+      <c r="C8" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="134"/>
+      <c r="B9" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="134"/>
+      <c r="B10" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="134"/>
+      <c r="B11" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="K3" s="121" t="s">
+      <c r="E11" s="121" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="134"/>
+      <c r="B12" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="122" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="134"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="29"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="134"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="29"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="133" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="129"/>
+      <c r="C15" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="134"/>
+      <c r="B16" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="134"/>
+      <c r="B17" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="134"/>
+      <c r="B18" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="F18" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="134"/>
+      <c r="B19" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="134"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="29"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="134"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="29"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="133" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="134"/>
+      <c r="B23" s="131" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="4" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H4" s="135"/>
-      <c r="I4" s="138" t="s">
-        <v>297</v>
-      </c>
-      <c r="J4" s="122" t="s">
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="134"/>
+      <c r="B24" s="127" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="134"/>
+      <c r="B25" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="121" t="s">
         <v>271</v>
       </c>
-      <c r="K4" s="122" t="s">
+      <c r="D25" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="135"/>
+      <c r="B26" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="D26" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="140"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="94"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="95"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="139" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" s="129"/>
+      <c r="C29" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="134"/>
+      <c r="B30" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="29"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="134"/>
+      <c r="B31" s="127" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H6" s="133" t="s">
-        <v>288</v>
-      </c>
-      <c r="I6" s="128"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="123"/>
-    </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H7" s="134"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="29"/>
-    </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H8" s="133" t="s">
+      <c r="C31" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="121" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" s="121" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="134"/>
+      <c r="B32" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="121" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="124" t="s">
+        <v>280</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="135"/>
+      <c r="B33" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" s="122" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="122" t="s">
+        <v>271</v>
+      </c>
+      <c r="E33" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="11"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="11"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="11"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="11"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="11"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="11"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="11"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="11"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="11"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="11"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="11"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="11"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="11"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="11"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>289</v>
-      </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="137" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H9" s="134"/>
-      <c r="I9" s="131" t="s">
-        <v>278</v>
-      </c>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
-    </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H10" s="134"/>
-      <c r="I10" s="127" t="s">
-        <v>279</v>
-      </c>
-      <c r="J10" s="124" t="s">
-        <v>282</v>
-      </c>
-      <c r="K10" s="121" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H11" s="134"/>
-      <c r="I11" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="J11" s="124" t="s">
-        <v>282</v>
-      </c>
-      <c r="K11" s="121" t="s">
-        <v>272</v>
-      </c>
-      <c r="L11" s="121" t="s">
-        <v>276</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H12" s="134"/>
-      <c r="I12" s="130" t="s">
-        <v>281</v>
-      </c>
-      <c r="J12" s="125" t="s">
-        <v>282</v>
-      </c>
-      <c r="K12" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="L12" s="122" t="s">
-        <v>273</v>
-      </c>
-      <c r="M12" s="95" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H13" s="134"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H14" s="134"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H15" s="133" t="s">
-        <v>290</v>
-      </c>
-      <c r="I15" s="129"/>
-      <c r="J15" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="137" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H16" s="134"/>
-      <c r="I16" s="131" t="s">
-        <v>278</v>
-      </c>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
-    </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H17" s="134"/>
-      <c r="I17" s="127" t="s">
-        <v>279</v>
-      </c>
-      <c r="J17" s="121" t="s">
-        <v>277</v>
-      </c>
-      <c r="K17" s="124" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="121" t="s">
-        <v>272</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H18" s="134"/>
-      <c r="I18" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="J18" s="121" t="s">
-        <v>271</v>
-      </c>
-      <c r="K18" s="124" t="s">
-        <v>282</v>
-      </c>
-      <c r="L18" s="121" t="s">
-        <v>275</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H19" s="134"/>
-      <c r="I19" s="130" t="s">
-        <v>281</v>
-      </c>
-      <c r="J19" s="122" t="s">
-        <v>274</v>
-      </c>
-      <c r="K19" s="125" t="s">
-        <v>282</v>
-      </c>
-      <c r="L19" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="M19" s="95" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H20" s="134"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H21" s="134"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H22" s="133" t="s">
-        <v>291</v>
-      </c>
-      <c r="I22" s="129"/>
-      <c r="J22" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" s="137" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H23" s="134"/>
-      <c r="I23" s="131" t="s">
-        <v>278</v>
-      </c>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="120"/>
-    </row>
-    <row r="24" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H24" s="134"/>
-      <c r="I24" s="127" t="s">
-        <v>279</v>
-      </c>
-      <c r="J24" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="K24" s="121" t="s">
-        <v>277</v>
-      </c>
-      <c r="L24" s="124" t="s">
-        <v>282</v>
-      </c>
-      <c r="M24" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H25" s="134"/>
-      <c r="I25" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="J25" s="121" t="s">
-        <v>273</v>
-      </c>
-      <c r="K25" s="121" t="s">
-        <v>271</v>
-      </c>
-      <c r="L25" s="124" t="s">
-        <v>282</v>
-      </c>
-      <c r="M25" s="29" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H26" s="135"/>
-      <c r="I26" s="130" t="s">
-        <v>281</v>
-      </c>
-      <c r="J26" s="122" t="s">
-        <v>276</v>
-      </c>
-      <c r="K26" s="122" t="s">
-        <v>274</v>
-      </c>
-      <c r="L26" s="125" t="s">
-        <v>282</v>
-      </c>
-      <c r="M26" s="95" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H27" s="140"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="120"/>
-    </row>
-    <row r="28" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H28" s="94"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="95"/>
-    </row>
-    <row r="29" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H29" s="139" t="s">
-        <v>292</v>
-      </c>
-      <c r="I29" s="129"/>
-      <c r="J29" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="M29" s="137" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H30" s="134"/>
-      <c r="I30" s="127" t="s">
-        <v>278</v>
-      </c>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H31" s="134"/>
-      <c r="I31" s="127" t="s">
-        <v>279</v>
-      </c>
-      <c r="J31" s="121" t="s">
-        <v>269</v>
-      </c>
-      <c r="K31" s="121" t="s">
-        <v>276</v>
-      </c>
-      <c r="L31" s="121" t="s">
-        <v>274</v>
-      </c>
-      <c r="M31" s="124" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="8:13" x14ac:dyDescent="0.35">
-      <c r="H32" s="134"/>
-      <c r="I32" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="J32" s="121" t="s">
-        <v>272</v>
-      </c>
-      <c r="K32" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="L32" s="121" t="s">
-        <v>277</v>
-      </c>
-      <c r="M32" s="124" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="H33" s="135"/>
-      <c r="I33" s="130" t="s">
-        <v>281</v>
-      </c>
-      <c r="J33" s="122" t="s">
-        <v>275</v>
-      </c>
-      <c r="K33" s="122" t="s">
-        <v>273</v>
-      </c>
-      <c r="L33" s="122" t="s">
-        <v>271</v>
-      </c>
-      <c r="M33" s="125" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -11481,8 +11551,8 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L94" sqref="L94"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11492,25 +11562,25 @@
   <sheetData>
     <row r="1" spans="1:10" s="146" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="146" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="146" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="146" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="146" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="146" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="J1" s="146" t="s">
         <v>312</v>
-      </c>
-      <c r="F1" s="146" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" s="146" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="146" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" s="146" t="s">
-        <v>316</v>
-      </c>
-      <c r="J1" s="146" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.35">
@@ -11518,13 +11588,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="143" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C2" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D2" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E2" s="143">
         <v>1</v>
@@ -11548,13 +11618,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="143" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C3" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D3" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E3" s="143">
         <v>2</v>
@@ -11578,13 +11648,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="143" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C4" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D4" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E4" s="143">
         <v>3</v>
@@ -11608,13 +11678,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="143" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C5" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D5" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E5" s="143">
         <v>4</v>
@@ -11638,13 +11708,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="143" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C6" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D6" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E6" s="143">
         <v>5</v>
@@ -11668,13 +11738,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="143" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C7" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D7" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E7" s="143">
         <v>6</v>
@@ -11698,13 +11768,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="143" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C8" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D8" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E8" s="143">
         <v>7</v>
@@ -11728,13 +11798,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="143" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C9" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D9" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E9" s="143">
         <v>8</v>
@@ -11758,13 +11828,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C10" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D10" s="143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E10" s="143">
         <v>9</v>
@@ -11788,13 +11858,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="160" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C11" s="160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D11" s="160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E11" s="160">
         <v>1</v>
@@ -11821,13 +11891,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="160" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D12" s="160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E12" s="160">
         <v>2</v>
@@ -11854,13 +11924,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="160" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C13" s="160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E13" s="160">
         <v>3</v>
@@ -11887,13 +11957,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="160" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C14" s="160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D14" s="160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E14" s="160">
         <v>4</v>
@@ -11920,16 +11990,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="144" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C15" s="144" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D15" s="144" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E15" s="144" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F15" s="144" t="str">
         <f t="shared" si="0"/>
@@ -11951,16 +12021,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="147" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C16" s="147" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="147" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E16" s="147" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F16" s="147" t="str">
         <f t="shared" si="0"/>
@@ -11984,16 +12054,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="147" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C17" s="147" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="147" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E17" s="147" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F17" s="147" t="str">
         <f t="shared" si="0"/>
@@ -12017,16 +12087,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="148" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C18" s="148" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="148" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E18" s="148" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F18" s="148" t="str">
         <f t="shared" si="0"/>
@@ -12048,16 +12118,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="150" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C19" s="150" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="150" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E19" s="150" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F19" s="150" t="str">
         <f t="shared" si="0"/>
@@ -12079,13 +12149,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="149" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C20" s="149" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="149" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E20" s="149">
         <v>1</v>
@@ -12112,13 +12182,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="149" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C21" s="149" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="149" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E21" s="149">
         <v>1</v>
@@ -12145,13 +12215,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="149" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C22" s="149" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="149" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E22" s="149">
         <v>1</v>
@@ -12178,13 +12248,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="149" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C23" s="149" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="149" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E23" s="149">
         <v>1</v>
@@ -12211,13 +12281,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C24" s="151" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="151" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E24" s="151">
         <v>2</v>
@@ -12244,13 +12314,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="151" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C25" s="151" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="151" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E25" s="151">
         <v>2</v>
@@ -12277,13 +12347,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="151" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C26" s="151" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="151" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E26" s="151">
         <v>2</v>
@@ -12310,13 +12380,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="151" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C27" s="151" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="151" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E27" s="151">
         <v>2</v>
@@ -12343,13 +12413,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="152" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C28" s="152" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="152" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E28" s="152">
         <v>3</v>
@@ -12376,13 +12446,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="152" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C29" s="152" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="152" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E29" s="152">
         <v>3</v>
@@ -12409,13 +12479,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="152" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C30" s="152" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="152" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E30" s="152">
         <v>3</v>
@@ -12442,13 +12512,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="152" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C31" s="152" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="152" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E31" s="152">
         <v>3</v>
@@ -12475,13 +12545,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="153" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C32" s="153" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="153" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E32" s="153">
         <v>4</v>
@@ -12508,13 +12578,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="153" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C33" s="153" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="153" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E33" s="153">
         <v>4</v>
@@ -12541,13 +12611,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="153" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C34" s="153" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="153" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E34" s="153">
         <v>4</v>
@@ -12574,13 +12644,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="153" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C35" s="153" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="153" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E35" s="153">
         <v>4</v>
@@ -12607,16 +12677,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="154" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C36" s="154" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="154" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E36" s="154" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F36" s="154" t="str">
         <f t="shared" si="0"/>
@@ -12640,16 +12710,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="154" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C37" s="154" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="154" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E37" s="154" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F37" s="154" t="str">
         <f t="shared" si="0"/>
@@ -12673,16 +12743,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="155" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C38" s="155" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="155" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E38" s="155" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F38" s="155" t="str">
         <f t="shared" si="0"/>
@@ -12704,16 +12774,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="169" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C39" s="169" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="169" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E39" s="169" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F39" s="169" t="str">
         <f t="shared" si="0"/>
@@ -12735,13 +12805,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="157" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C40" s="157" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="157" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E40" s="157">
         <v>1</v>
@@ -12768,13 +12838,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="157" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C41" s="157" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="157" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E41" s="157">
         <v>1</v>
@@ -12801,13 +12871,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="157" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C42" s="157" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="157" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E42" s="157">
         <v>1</v>
@@ -12834,13 +12904,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="157" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C43" s="157" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="157" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E43" s="157">
         <v>1</v>
@@ -12867,13 +12937,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="158" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C44" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="158" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E44" s="158">
         <v>2</v>
@@ -12900,13 +12970,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="158" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C45" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="158" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E45" s="158">
         <v>2</v>
@@ -12933,13 +13003,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="158" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C46" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="158" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E46" s="158">
         <v>2</v>
@@ -12966,13 +13036,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="158" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C47" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="158" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E47" s="158">
         <v>2</v>
@@ -12999,13 +13069,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="159" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C48" s="159" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="159" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E48" s="159">
         <v>3</v>
@@ -13032,13 +13102,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="159" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C49" s="159" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="159" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E49" s="159">
         <v>3</v>
@@ -13065,13 +13135,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="159" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C50" s="159" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="159" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E50" s="159">
         <v>3</v>
@@ -13098,13 +13168,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="159" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C51" s="159" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="159" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E51" s="159">
         <v>3</v>
@@ -13131,13 +13201,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="161" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C52" s="161" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="161" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E52" s="161">
         <v>4</v>
@@ -13164,13 +13234,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="161" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C53" s="161" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="161" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E53" s="161">
         <v>4</v>
@@ -13197,13 +13267,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="161" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C54" s="161" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="161" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E54" s="161">
         <v>4</v>
@@ -13230,13 +13300,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="161" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C55" s="161" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="161" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E55" s="161">
         <v>4</v>
@@ -13263,16 +13333,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="176" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C56" s="176" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="176" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E56" s="176" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F56" s="176" t="str">
         <f t="shared" si="0"/>
@@ -13296,16 +13366,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="176" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C57" s="176" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="176" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E57" s="176" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F57" s="176" t="str">
         <f t="shared" si="0"/>
@@ -13329,16 +13399,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="162" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C58" s="162" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="162" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E58" s="162" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F58" s="162" t="str">
         <f t="shared" si="0"/>
@@ -13360,16 +13430,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="163" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C59" s="163" t="s">
         <v>38</v>
       </c>
       <c r="D59" s="163" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E59" s="163" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F59" s="163" t="str">
         <f t="shared" si="0"/>
@@ -13391,13 +13461,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="164" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C60" s="164" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="164" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E60" s="164">
         <v>1</v>
@@ -13424,13 +13494,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="164" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C61" s="164" t="s">
         <v>38</v>
       </c>
       <c r="D61" s="164" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E61" s="164">
         <v>1</v>
@@ -13457,13 +13527,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C62" s="164" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="164" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E62" s="164">
         <v>1</v>
@@ -13490,13 +13560,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="164" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C63" s="164" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="164" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E63" s="164">
         <v>1</v>
@@ -13523,13 +13593,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="175" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C64" s="175" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="175" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E64" s="175">
         <v>2</v>
@@ -13556,13 +13626,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="175" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C65" s="175" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="175" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E65" s="175">
         <v>2</v>
@@ -13589,13 +13659,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="175" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C66" s="175" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="175" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E66" s="175">
         <v>2</v>
@@ -13622,13 +13692,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="175" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C67" s="175" t="s">
         <v>38</v>
       </c>
       <c r="D67" s="175" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E67" s="175">
         <v>2</v>
@@ -13655,13 +13725,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="165" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C68" s="165" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="165" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E68" s="165">
         <v>3</v>
@@ -13688,13 +13758,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="165" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C69" s="165" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="165" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E69" s="165">
         <v>3</v>
@@ -13721,13 +13791,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="165" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C70" s="165" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="165" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E70" s="165">
         <v>3</v>
@@ -13754,13 +13824,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="165" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C71" s="165" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="165" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E71" s="165">
         <v>3</v>
@@ -13787,13 +13857,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="167" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C72" s="167" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="167" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E72" s="167">
         <v>4</v>
@@ -13820,13 +13890,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="167" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C73" s="167" t="s">
         <v>38</v>
       </c>
       <c r="D73" s="167" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E73" s="167">
         <v>4</v>
@@ -13853,13 +13923,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="167" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C74" s="167" t="s">
         <v>38</v>
       </c>
       <c r="D74" s="167" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E74" s="167">
         <v>4</v>
@@ -13886,13 +13956,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="167" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C75" s="167" t="s">
         <v>38</v>
       </c>
       <c r="D75" s="167" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E75" s="167">
         <v>4</v>
@@ -13919,16 +13989,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="168" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C76" s="168" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="168" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E76" s="168" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F76" s="168" t="str">
         <f t="shared" si="1"/>
@@ -13952,16 +14022,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="168" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C77" s="168" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="168" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E77" s="168" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F77" s="168" t="str">
         <f t="shared" si="1"/>
@@ -13985,16 +14055,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="170" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C78" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="170" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E78" s="170" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F78" s="170" t="str">
         <f t="shared" si="1"/>
@@ -14016,16 +14086,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="171" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C79" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="171" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E79" s="171" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F79" s="171" t="str">
         <f t="shared" si="1"/>
@@ -14047,13 +14117,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="172" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C80" s="172" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="172" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E80" s="172">
         <v>1</v>
@@ -14080,13 +14150,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="172" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C81" s="172" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="172" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E81" s="172">
         <v>1</v>
@@ -14113,13 +14183,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="172" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C82" s="172" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="172" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E82" s="172">
         <v>1</v>
@@ -14146,13 +14216,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="172" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C83" s="172" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="172" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E83" s="172">
         <v>1</v>
@@ -14179,13 +14249,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="173" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C84" s="173" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="173" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E84" s="173">
         <v>2</v>
@@ -14212,13 +14282,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="173" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C85" s="173" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="173" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E85" s="173">
         <v>2</v>
@@ -14245,13 +14315,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="173" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C86" s="173" t="s">
         <v>39</v>
       </c>
       <c r="D86" s="173" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E86" s="173">
         <v>2</v>
@@ -14278,13 +14348,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="173" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C87" s="173" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="173" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E87" s="173">
         <v>2</v>
@@ -14311,13 +14381,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="174" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C88" s="174" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="174" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E88" s="174">
         <v>3</v>
@@ -14344,13 +14414,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="174" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C89" s="174" t="s">
         <v>39</v>
       </c>
       <c r="D89" s="174" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E89" s="174">
         <v>3</v>
@@ -14377,13 +14447,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="174" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C90" s="174" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="174" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E90" s="174">
         <v>3</v>
@@ -14410,13 +14480,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="174" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C91" s="174" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="174" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E91" s="174">
         <v>3</v>
@@ -14443,13 +14513,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="177" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C92" s="177" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="177" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E92" s="177">
         <v>4</v>
@@ -14476,13 +14546,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="177" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C93" s="177" t="s">
         <v>39</v>
       </c>
       <c r="D93" s="177" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E93" s="177">
         <v>4</v>
@@ -14509,13 +14579,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="177" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C94" s="177" t="s">
         <v>39</v>
       </c>
       <c r="D94" s="177" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E94" s="177">
         <v>4</v>
@@ -14542,13 +14612,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="177" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C95" s="177" t="s">
         <v>39</v>
       </c>
       <c r="D95" s="177" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E95" s="177">
         <v>4</v>
@@ -14575,16 +14645,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="142" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C96" s="142" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D96" s="142" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E96" s="142" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F96" s="142" t="str">
         <f t="shared" si="1"/>
@@ -14608,16 +14678,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="142" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C97" s="142" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D97" s="142" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E97" s="142" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F97" s="142" t="str">
         <f t="shared" si="1"/>
@@ -14641,13 +14711,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="142" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="C98" s="142" t="s">
-        <v>324</v>
-      </c>
       <c r="D98" s="142" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E98" s="142">
         <v>1</v>
@@ -14674,13 +14744,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="142" t="s">
+        <v>314</v>
+      </c>
+      <c r="C99" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="C99" s="142" t="s">
-        <v>324</v>
-      </c>
       <c r="D99" s="142" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E99" s="142">
         <v>2</v>
@@ -14707,13 +14777,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="142" t="s">
+        <v>314</v>
+      </c>
+      <c r="C100" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="142" t="s">
-        <v>324</v>
-      </c>
       <c r="D100" s="142" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E100" s="142">
         <v>3</v>
@@ -14740,13 +14810,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="142" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="C101" s="142" t="s">
-        <v>324</v>
-      </c>
       <c r="D101" s="142" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E101" s="142">
         <v>4</v>
@@ -15833,8 +15903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BCB49E-F251-46D8-AB80-3127C0BB634B}">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16130,7 +16200,7 @@
     <row r="8" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42"/>
       <c r="B8" s="80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="181"/>
@@ -16174,7 +16244,7 @@
         <v>167</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D9" s="181"/>
       <c r="E9" s="181"/>
@@ -16293,7 +16363,7 @@
         <v>172</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D12" s="181"/>
       <c r="E12" s="181"/>
@@ -16409,10 +16479,10 @@
         <v>177</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" s="181"/>
       <c r="E15" s="181"/>
@@ -16525,7 +16595,7 @@
     </row>
     <row r="18" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="178" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B18" s="61" t="s">
         <v>178</v>
@@ -16571,7 +16641,7 @@
         <v>166</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="181"/>
@@ -16610,7 +16680,7 @@
     <row r="20" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="46"/>
       <c r="B20" s="80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="181"/>
@@ -16648,13 +16718,13 @@
     </row>
     <row r="21" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B21" s="47" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D21" s="181"/>
       <c r="E21" s="181"/>
@@ -16767,13 +16837,13 @@
     </row>
     <row r="24" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>172</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D24" s="181"/>
       <c r="E24" s="181"/>
@@ -16886,13 +16956,13 @@
     </row>
     <row r="27" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="68" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D27" s="181"/>
       <c r="E27" s="181"/>
@@ -17005,7 +17075,7 @@
     </row>
     <row r="30" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B30" s="61" t="s">
         <v>178</v>
@@ -17051,7 +17121,7 @@
         <v>166</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="181"/>
@@ -17090,7 +17160,7 @@
     <row r="32" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51"/>
       <c r="B32" s="80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="181"/>
@@ -17128,13 +17198,13 @@
     </row>
     <row r="33" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D33" s="181"/>
       <c r="E33" s="181"/>
@@ -17247,13 +17317,13 @@
     </row>
     <row r="36" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="52" t="s">
         <v>172</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D36" s="181"/>
       <c r="E36" s="181"/>
@@ -17366,13 +17436,13 @@
     </row>
     <row r="39" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="69" t="s">
         <v>185</v>
-      </c>
-      <c r="B39" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="69" t="s">
-        <v>187</v>
       </c>
       <c r="D39" s="181"/>
       <c r="E39" s="181"/>
@@ -17485,7 +17555,7 @@
     </row>
     <row r="42" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="60" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B42" s="61" t="s">
         <v>178</v>
@@ -17531,7 +17601,7 @@
         <v>166</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="181"/>
@@ -17570,7 +17640,7 @@
     <row r="44" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C44" s="34"/>
       <c r="D44" s="181"/>
@@ -17608,13 +17678,13 @@
     </row>
     <row r="45" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>167</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D45" s="181"/>
       <c r="E45" s="181"/>
@@ -17727,13 +17797,13 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="33" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>172</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D48" s="121"/>
       <c r="E48" s="121"/>
@@ -17782,13 +17852,13 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="68" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B51" s="69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -17801,7 +17871,7 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="62"/>
       <c r="B53" s="63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C53" s="63"/>
     </row>
@@ -17812,7 +17882,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B55" s="61" t="s">
         <v>178</v>
@@ -17826,7 +17896,7 @@
         <v>175</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="C56" s="30"/>
     </row>

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF96AF9-37F6-442F-B70A-338D1CB44F3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF05DE5-0B5C-4E1A-943D-9B229C1B2C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
@@ -784,9 +784,6 @@
     <t>Die Lehrkraft drückte sich klar und verständlich aus.</t>
   </si>
   <si>
-    <t>Die Lehrkraft verwendete ausschließlich Standardsprache im Unterricht.</t>
-  </si>
-  <si>
     <t>Die Arbeitsaufträge waren präzise, klar und kurz formuliert.</t>
   </si>
   <si>
@@ -1043,6 +1040,9 @@
   </si>
   <si>
     <t>marker_test_front_board</t>
+  </si>
+  <si>
+    <t>(Die Lehrkraft verwendete ausschließlich Standardsprache im Unterricht.)</t>
   </si>
 </sst>
 </file>
@@ -8159,8 +8159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8410,22 +8410,22 @@
     </row>
     <row r="42" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="82" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C44" s="82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -8439,25 +8439,25 @@
         <v>236</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E47" s="84"/>
     </row>
     <row r="48" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C48" s="82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E48" s="84"/>
     </row>
     <row r="49" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C49" s="82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E49" s="84"/>
     </row>
     <row r="50" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C50" s="82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E50" s="84"/>
     </row>
@@ -8469,32 +8469,32 @@
         <v>8</v>
       </c>
       <c r="B52" s="142" t="s">
+        <v>319</v>
+      </c>
+      <c r="C52" s="82" t="s">
         <v>320</v>
-      </c>
-      <c r="C52" s="82" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C53" s="82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C54" s="82" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B57" s="85"/>
       <c r="E57" s="84"/>
     </row>
     <row r="58" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B58" s="84"/>
     </row>
@@ -8575,10 +8575,10 @@
         <v>198</v>
       </c>
       <c r="H1" s="114" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="110" t="s">
         <v>265</v>
-      </c>
-      <c r="I1" s="110" t="s">
-        <v>266</v>
       </c>
       <c r="J1" s="101" t="s">
         <v>94</v>
@@ -8587,10 +8587,10 @@
         <v>198</v>
       </c>
       <c r="L1" s="114" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="110" t="s">
         <v>265</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>266</v>
       </c>
       <c r="N1" s="101" t="s">
         <v>95</v>
@@ -8629,7 +8629,7 @@
       <c r="I2" s="111"/>
       <c r="J2" s="102"/>
       <c r="K2" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="111"/>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="P3" s="102"/>
       <c r="Q3" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R3" s="69"/>
       <c r="S3" s="69"/>
@@ -8869,7 +8869,7 @@
       <c r="M4" s="111"/>
       <c r="N4" s="102"/>
       <c r="O4" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P4" s="102"/>
       <c r="Q4" s="89" t="s">
@@ -8980,7 +8980,7 @@
       <c r="I5" s="111"/>
       <c r="J5" s="103"/>
       <c r="K5" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="111"/>
@@ -9204,7 +9204,7 @@
         <v>195</v>
       </c>
       <c r="Q9" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:99" x14ac:dyDescent="0.35">
@@ -9234,10 +9234,10 @@
       <c r="L10" s="22"/>
       <c r="M10" s="111"/>
       <c r="O10" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q10" s="89" t="s">
         <v>261</v>
-      </c>
-      <c r="Q10" s="89" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:99" x14ac:dyDescent="0.35">
@@ -9262,15 +9262,15 @@
       <c r="I11" s="111"/>
       <c r="J11" s="104"/>
       <c r="K11" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="111"/>
       <c r="O11" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q11" s="89" t="s">
         <v>262</v>
-      </c>
-      <c r="Q11" s="89" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:99" x14ac:dyDescent="0.35">
@@ -9295,12 +9295,12 @@
       <c r="I12" s="111"/>
       <c r="J12" s="104"/>
       <c r="K12" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="111"/>
       <c r="O12" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="89" t="s">
         <v>188</v>
@@ -9335,7 +9335,7 @@
         <v>158</v>
       </c>
       <c r="G14" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H14" s="115"/>
       <c r="I14" s="112"/>
@@ -9473,7 +9473,7 @@
         <v>195</v>
       </c>
       <c r="Q18" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -9501,10 +9501,10 @@
       <c r="L19" s="115"/>
       <c r="M19" s="112"/>
       <c r="O19" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="89" t="s">
         <v>261</v>
-      </c>
-      <c r="Q19" s="89" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="E20" s="95"/>
       <c r="G20" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H20" s="115"/>
       <c r="I20" s="112"/>
@@ -9532,10 +9532,10 @@
       <c r="L20" s="115"/>
       <c r="M20" s="112"/>
       <c r="O20" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q20" s="89" t="s">
         <v>262</v>
-      </c>
-      <c r="Q20" s="89" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="E21" s="95"/>
       <c r="G21" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H21" s="115"/>
       <c r="I21" s="112"/>
@@ -9563,7 +9563,7 @@
       <c r="L21" s="115"/>
       <c r="M21" s="112"/>
       <c r="O21" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q21" s="89" t="s">
         <v>188</v>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="E22" s="95"/>
       <c r="G22" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H22" s="115"/>
       <c r="I22" s="112"/>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="E23" s="95"/>
       <c r="G23" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H23" s="115"/>
       <c r="I23" s="112"/>
@@ -9628,7 +9628,7 @@
         <v>186</v>
       </c>
       <c r="Q23" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="E24" s="95"/>
       <c r="G24" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H24" s="115"/>
       <c r="I24" s="112"/>
@@ -9656,7 +9656,7 @@
       <c r="L24" s="115"/>
       <c r="M24" s="112"/>
       <c r="O24" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q24" s="89" t="s">
         <v>197</v>
@@ -9733,7 +9733,7 @@
         <v>199</v>
       </c>
       <c r="Q27" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -9756,7 +9756,7 @@
       <c r="H28" s="115"/>
       <c r="I28" s="112"/>
       <c r="K28" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L28" s="115"/>
       <c r="M28" s="112"/>
@@ -9764,7 +9764,7 @@
         <v>199</v>
       </c>
       <c r="Q28" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -9782,12 +9782,12 @@
       </c>
       <c r="E29" s="96"/>
       <c r="G29" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H29" s="115"/>
       <c r="I29" s="112"/>
       <c r="K29" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L29" s="115"/>
       <c r="M29" s="112"/>
@@ -9795,7 +9795,7 @@
         <v>199</v>
       </c>
       <c r="Q29" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -9813,12 +9813,12 @@
       </c>
       <c r="E30" s="96"/>
       <c r="G30" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H30" s="115"/>
       <c r="I30" s="112"/>
       <c r="K30" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L30" s="115"/>
       <c r="M30" s="112"/>
@@ -9844,7 +9844,7 @@
       </c>
       <c r="E31" s="96"/>
       <c r="G31" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H31" s="115"/>
       <c r="I31" s="112"/>
@@ -9888,7 +9888,7 @@
         <v>199</v>
       </c>
       <c r="Q32" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -9911,7 +9911,7 @@
       <c r="H33" s="115"/>
       <c r="I33" s="112"/>
       <c r="K33" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L33" s="115"/>
       <c r="M33" s="112"/>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="E34" s="96"/>
       <c r="G34" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H34" s="115"/>
       <c r="I34" s="112"/>
@@ -10046,12 +10046,12 @@
       <c r="H38" s="115"/>
       <c r="I38" s="112"/>
       <c r="K38" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L38" s="115"/>
       <c r="M38" s="112"/>
       <c r="O38" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="76" t="s">
         <v>199</v>
@@ -10072,17 +10072,17 @@
       </c>
       <c r="E39" s="105"/>
       <c r="G39" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H39" s="115"/>
       <c r="I39" s="112"/>
       <c r="K39" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L39" s="115"/>
       <c r="M39" s="112"/>
       <c r="O39" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q39" s="76" t="s">
         <v>199</v>
@@ -10103,12 +10103,12 @@
       </c>
       <c r="E40" s="105"/>
       <c r="G40" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H40" s="115"/>
       <c r="I40" s="112"/>
       <c r="K40" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L40" s="115"/>
       <c r="M40" s="112"/>
@@ -10134,7 +10134,7 @@
       </c>
       <c r="E41" s="105"/>
       <c r="G41" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H41" s="115"/>
       <c r="I41" s="112"/>
@@ -10175,7 +10175,7 @@
       <c r="L42" s="115"/>
       <c r="M42" s="112"/>
       <c r="O42" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q42" s="76" t="s">
         <v>199</v>
@@ -10201,7 +10201,7 @@
       <c r="H43" s="115"/>
       <c r="I43" s="112"/>
       <c r="K43" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L43" s="115"/>
       <c r="M43" s="112"/>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="E44" s="105"/>
       <c r="G44" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H44" s="115"/>
       <c r="I44" s="112"/>
@@ -10361,7 +10361,7 @@
       <c r="L48" s="115"/>
       <c r="M48" s="112"/>
       <c r="O48" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q48" s="76" t="s">
         <v>199</v>
@@ -10412,7 +10412,7 @@
         <v>53</v>
       </c>
       <c r="G56" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H56" s="115"/>
       <c r="I56" s="112"/>
@@ -10423,11 +10423,11 @@
       <c r="M56" s="112"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -10446,11 +10446,11 @@
       <c r="M57" s="112"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
@@ -10466,16 +10466,16 @@
       <c r="M58" s="112"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G59" s="89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H59" s="115"/>
       <c r="I59" s="112"/>
@@ -10486,11 +10486,11 @@
       <c r="M59" s="112"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
@@ -10509,11 +10509,11 @@
       <c r="M60" s="112"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -10541,11 +10541,11 @@
       <c r="M61" s="112"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
@@ -10573,11 +10573,11 @@
       <c r="M62" s="112"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -10603,11 +10603,11 @@
       <c r="M63" s="112"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -10618,7 +10618,7 @@
         <v>203</v>
       </c>
       <c r="C64" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D64" s="26"/>
       <c r="G64" s="89" t="s">
@@ -10633,18 +10633,18 @@
       <c r="M64" s="112"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B65" s="91"/>
       <c r="D65" s="92"/>
       <c r="G65" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H65" s="115"/>
       <c r="I65" s="112"/>
@@ -10655,16 +10655,16 @@
       <c r="M65" s="112"/>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G66" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H66" s="115"/>
       <c r="I66" s="112"/>
@@ -10675,44 +10675,44 @@
       <c r="M66" s="112"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
@@ -10984,16 +10984,16 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="129"/>
       <c r="B1" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="133" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="D1" s="133" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="E1" s="134" t="s">
         <v>295</v>
-      </c>
-      <c r="E1" s="134" t="s">
-        <v>296</v>
       </c>
       <c r="I1"/>
     </row>
@@ -11002,48 +11002,48 @@
         <v>198</v>
       </c>
       <c r="B2" s="123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="131"/>
       <c r="B3" s="123" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="118" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="132"/>
       <c r="B4" s="135" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I4"/>
     </row>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="130" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="125"/>
       <c r="C6" s="64"/>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="126"/>
       <c r="C8" s="133" t="s">
@@ -11093,7 +11093,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="131"/>
       <c r="B9" s="128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" s="116"/>
       <c r="D9" s="116"/>
@@ -11104,57 +11104,57 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="131"/>
       <c r="B10" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E10" s="118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="131"/>
       <c r="B11" s="124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" s="118" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="131"/>
       <c r="B12" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="122" t="s">
-        <v>280</v>
-      </c>
       <c r="D12" s="119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I12"/>
     </row>
@@ -11178,7 +11178,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="130" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="126"/>
       <c r="C15" s="133" t="s">
@@ -11198,7 +11198,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="131"/>
       <c r="B16" s="128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="116"/>
       <c r="D16" s="116"/>
@@ -11209,57 +11209,57 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="131"/>
       <c r="B17" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E17" s="118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="131"/>
       <c r="B18" s="124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" s="118" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D18" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" s="118" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="131"/>
       <c r="B19" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="C19" s="119" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="122" t="s">
-        <v>280</v>
-      </c>
       <c r="E19" s="119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I19"/>
     </row>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="130" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B22" s="126"/>
       <c r="C22" s="133" t="s">
@@ -11303,7 +11303,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="131"/>
       <c r="B23" s="128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" s="116"/>
       <c r="D23" s="116"/>
@@ -11314,57 +11314,57 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="131"/>
       <c r="B24" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" s="118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="131"/>
       <c r="B25" s="124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="118" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D25" s="118" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E25" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="132"/>
       <c r="B26" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="C26" s="119" t="s">
-        <v>274</v>
-      </c>
-      <c r="D26" s="119" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="122" t="s">
-        <v>280</v>
-      </c>
       <c r="F26" s="92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I26"/>
     </row>
@@ -11388,7 +11388,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="126"/>
       <c r="C29" s="133" t="s">
@@ -11408,7 +11408,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="131"/>
       <c r="B30" s="124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="118"/>
       <c r="D30" s="118"/>
@@ -11419,57 +11419,57 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="131"/>
       <c r="B31" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" s="118" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E31" s="118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F31" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="131"/>
       <c r="B32" s="124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" s="118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D32" s="118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E32" s="118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F32" s="121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="132"/>
       <c r="B33" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="119" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>268</v>
+      </c>
+      <c r="F33" s="122" t="s">
         <v>279</v>
-      </c>
-      <c r="C33" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="D33" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" s="119" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33" s="122" t="s">
-        <v>280</v>
       </c>
       <c r="I33"/>
     </row>
@@ -11531,22 +11531,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -11560,7 +11560,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
@@ -11571,25 +11571,25 @@
   <sheetData>
     <row r="1" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="143" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="143" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="F1" s="143" t="s">
         <v>307</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="G1" s="143" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="H1" s="143" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="I1" s="143" t="s">
         <v>310</v>
       </c>
-      <c r="I1" s="143" t="s">
+      <c r="J1" s="143" t="s">
         <v>311</v>
-      </c>
-      <c r="J1" s="143" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
@@ -11597,13 +11597,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D2" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="140">
         <v>1</v>
@@ -11627,13 +11627,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="140">
         <v>2</v>
@@ -11657,13 +11657,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E4" s="140">
         <v>3</v>
@@ -11687,13 +11687,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D5" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" s="140">
         <v>4</v>
@@ -11717,13 +11717,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E6" s="140">
         <v>5</v>
@@ -11747,13 +11747,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="140">
         <v>6</v>
@@ -11777,13 +11777,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E8" s="140">
         <v>7</v>
@@ -11807,13 +11807,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E9" s="140">
         <v>8</v>
@@ -11837,13 +11837,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" s="140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E10" s="140">
         <v>9</v>
@@ -11867,13 +11867,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E11" s="157">
         <v>1</v>
@@ -11900,13 +11900,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D12" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" s="157">
         <v>2</v>
@@ -11933,13 +11933,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C13" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D13" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E13" s="157">
         <v>3</v>
@@ -11966,13 +11966,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C14" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D14" s="157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E14" s="157">
         <v>4</v>
@@ -11999,16 +11999,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="141" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C15" s="141" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15" s="141" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F15" s="141" t="str">
         <f t="shared" si="0"/>
@@ -12030,16 +12030,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C16" s="144" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="144" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E16" s="144" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F16" s="144" t="str">
         <f t="shared" si="0"/>
@@ -12063,16 +12063,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="144" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="144" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="144" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E17" s="144" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F17" s="144" t="str">
         <f t="shared" si="0"/>
@@ -12096,16 +12096,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="145" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="145" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E18" s="145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F18" s="145" t="str">
         <f t="shared" si="0"/>
@@ -12127,16 +12127,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="147" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19" s="147" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="147" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E19" s="147" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="147" t="str">
         <f t="shared" si="0"/>
@@ -12158,13 +12158,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="146" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20" s="146" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E20" s="146">
         <v>1</v>
@@ -12191,13 +12191,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="146" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" s="146" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E21" s="146">
         <v>1</v>
@@ -12224,13 +12224,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="146" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22" s="146" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E22" s="146">
         <v>1</v>
@@ -12257,13 +12257,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="146" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C23" s="146" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E23" s="146">
         <v>1</v>
@@ -12290,13 +12290,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="148" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C24" s="148" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E24" s="148">
         <v>2</v>
@@ -12323,13 +12323,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="148" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C25" s="148" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E25" s="148">
         <v>2</v>
@@ -12356,13 +12356,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="148" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26" s="148" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E26" s="148">
         <v>2</v>
@@ -12389,13 +12389,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="148" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C27" s="148" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E27" s="148">
         <v>2</v>
@@ -12422,13 +12422,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="149" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C28" s="149" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="149" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E28" s="149">
         <v>3</v>
@@ -12455,13 +12455,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="149" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C29" s="149" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="149" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E29" s="149">
         <v>3</v>
@@ -12488,13 +12488,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="149" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C30" s="149" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="149" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E30" s="149">
         <v>3</v>
@@ -12521,13 +12521,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="149" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C31" s="149" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="149" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E31" s="149">
         <v>3</v>
@@ -12554,13 +12554,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C32" s="150" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E32" s="150">
         <v>4</v>
@@ -12587,13 +12587,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C33" s="150" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E33" s="150">
         <v>4</v>
@@ -12620,13 +12620,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="150" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E34" s="150">
         <v>4</v>
@@ -12653,13 +12653,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="150" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C35" s="150" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E35" s="150">
         <v>4</v>
@@ -12686,16 +12686,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="151" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C36" s="151" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E36" s="151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F36" s="151" t="str">
         <f t="shared" si="0"/>
@@ -12719,16 +12719,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="151" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="151" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E37" s="151" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F37" s="151" t="str">
         <f t="shared" si="0"/>
@@ -12752,16 +12752,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="152" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C38" s="152" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="152" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E38" s="152" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F38" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12783,16 +12783,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="166" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C39" s="166" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="166" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E39" s="166" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F39" s="166" t="str">
         <f t="shared" si="0"/>
@@ -12814,13 +12814,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C40" s="154" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E40" s="154">
         <v>1</v>
@@ -12847,13 +12847,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C41" s="154" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E41" s="154">
         <v>1</v>
@@ -12880,13 +12880,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C42" s="154" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E42" s="154">
         <v>1</v>
@@ -12913,13 +12913,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43" s="154" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="154" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E43" s="154">
         <v>1</v>
@@ -12946,13 +12946,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="155" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44" s="155" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="155" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E44" s="155">
         <v>2</v>
@@ -12979,13 +12979,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="155" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="155" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="155" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E45" s="155">
         <v>2</v>
@@ -13012,13 +13012,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="155" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46" s="155" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="155" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E46" s="155">
         <v>2</v>
@@ -13045,13 +13045,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="155" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C47" s="155" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="155" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E47" s="155">
         <v>2</v>
@@ -13078,13 +13078,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="156" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48" s="156" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="156" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E48" s="156">
         <v>3</v>
@@ -13111,13 +13111,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="156" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C49" s="156" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="156" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E49" s="156">
         <v>3</v>
@@ -13144,13 +13144,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="156" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C50" s="156" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="156" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E50" s="156">
         <v>3</v>
@@ -13177,13 +13177,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="156" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C51" s="156" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="156" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E51" s="156">
         <v>3</v>
@@ -13210,13 +13210,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C52" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E52" s="158">
         <v>4</v>
@@ -13243,13 +13243,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C53" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E53" s="158">
         <v>4</v>
@@ -13276,13 +13276,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C54" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E54" s="158">
         <v>4</v>
@@ -13309,13 +13309,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="158" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C55" s="158" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E55" s="158">
         <v>4</v>
@@ -13342,16 +13342,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" s="173" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="173" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E56" s="173" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F56" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13375,16 +13375,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C57" s="173" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="173" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E57" s="173" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F57" s="173" t="str">
         <f t="shared" si="0"/>
@@ -13408,16 +13408,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="159" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C58" s="159" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E58" s="159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F58" s="159" t="str">
         <f t="shared" si="0"/>
@@ -13439,16 +13439,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="160" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C59" s="160" t="s">
         <v>38</v>
       </c>
       <c r="D59" s="160" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E59" s="160" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F59" s="160" t="str">
         <f t="shared" si="0"/>
@@ -13470,13 +13470,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C60" s="161" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="161" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E60" s="161">
         <v>1</v>
@@ -13503,13 +13503,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61" s="161" t="s">
         <v>38</v>
       </c>
       <c r="D61" s="161" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E61" s="161">
         <v>1</v>
@@ -13536,13 +13536,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C62" s="161" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="161" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E62" s="161">
         <v>1</v>
@@ -13569,13 +13569,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C63" s="161" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="161" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E63" s="161">
         <v>1</v>
@@ -13602,13 +13602,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="172" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C64" s="172" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="172" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E64" s="172">
         <v>2</v>
@@ -13635,13 +13635,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="172" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C65" s="172" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="172" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E65" s="172">
         <v>2</v>
@@ -13668,13 +13668,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="172" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C66" s="172" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="172" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E66" s="172">
         <v>2</v>
@@ -13701,13 +13701,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="172" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C67" s="172" t="s">
         <v>38</v>
       </c>
       <c r="D67" s="172" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E67" s="172">
         <v>2</v>
@@ -13734,13 +13734,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C68" s="162" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="162" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E68" s="162">
         <v>3</v>
@@ -13767,13 +13767,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C69" s="162" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="162" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E69" s="162">
         <v>3</v>
@@ -13800,13 +13800,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C70" s="162" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="162" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E70" s="162">
         <v>3</v>
@@ -13833,13 +13833,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C71" s="162" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="162" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E71" s="162">
         <v>3</v>
@@ -13866,13 +13866,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="164" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C72" s="164" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="164" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E72" s="164">
         <v>4</v>
@@ -13899,13 +13899,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="164" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C73" s="164" t="s">
         <v>38</v>
       </c>
       <c r="D73" s="164" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E73" s="164">
         <v>4</v>
@@ -13932,13 +13932,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="164" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C74" s="164" t="s">
         <v>38</v>
       </c>
       <c r="D74" s="164" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E74" s="164">
         <v>4</v>
@@ -13965,13 +13965,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="164" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C75" s="164" t="s">
         <v>38</v>
       </c>
       <c r="D75" s="164" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E75" s="164">
         <v>4</v>
@@ -13998,16 +13998,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="165" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" s="165" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="165" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E76" s="165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F76" s="165" t="str">
         <f t="shared" si="1"/>
@@ -14031,16 +14031,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="165" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C77" s="165" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="165" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E77" s="165" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F77" s="165" t="str">
         <f t="shared" si="1"/>
@@ -14064,16 +14064,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="167" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C78" s="167" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="167" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E78" s="167" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F78" s="167" t="str">
         <f t="shared" si="1"/>
@@ -14095,16 +14095,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="168" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C79" s="168" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="168" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E79" s="168" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F79" s="168" t="str">
         <f t="shared" si="1"/>
@@ -14126,13 +14126,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="169" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C80" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="169" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E80" s="169">
         <v>1</v>
@@ -14159,13 +14159,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="169" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C81" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="169" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E81" s="169">
         <v>1</v>
@@ -14192,13 +14192,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="169" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C82" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="169" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E82" s="169">
         <v>1</v>
@@ -14225,13 +14225,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="169" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C83" s="169" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="169" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E83" s="169">
         <v>1</v>
@@ -14258,13 +14258,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="170" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C84" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="170" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E84" s="170">
         <v>2</v>
@@ -14291,13 +14291,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="170" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C85" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="170" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E85" s="170">
         <v>2</v>
@@ -14324,13 +14324,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="170" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C86" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D86" s="170" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E86" s="170">
         <v>2</v>
@@ -14357,13 +14357,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="170" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C87" s="170" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="170" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E87" s="170">
         <v>2</v>
@@ -14390,13 +14390,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="171" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E88" s="171">
         <v>3</v>
@@ -14423,13 +14423,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C89" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D89" s="171" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E89" s="171">
         <v>3</v>
@@ -14456,13 +14456,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C90" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="171" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E90" s="171">
         <v>3</v>
@@ -14489,13 +14489,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C91" s="171" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="171" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E91" s="171">
         <v>3</v>
@@ -14522,13 +14522,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="174" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C92" s="174" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="174" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E92" s="174">
         <v>4</v>
@@ -14555,13 +14555,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="174" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C93" s="174" t="s">
         <v>39</v>
       </c>
       <c r="D93" s="174" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E93" s="174">
         <v>4</v>
@@ -14588,13 +14588,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="174" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C94" s="174" t="s">
         <v>39</v>
       </c>
       <c r="D94" s="174" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E94" s="174">
         <v>4</v>
@@ -14621,13 +14621,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="174" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C95" s="174" t="s">
         <v>39</v>
       </c>
       <c r="D95" s="174" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95" s="174">
         <v>4</v>
@@ -14654,16 +14654,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="139" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C96" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D96" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E96" s="139" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F96" s="139" t="str">
         <f t="shared" si="1"/>
@@ -14687,16 +14687,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="139" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C97" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D97" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E97" s="139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F97" s="139" t="str">
         <f t="shared" si="1"/>
@@ -14720,13 +14720,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C98" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D98" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E98" s="139">
         <v>1</v>
@@ -14753,13 +14753,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C99" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D99" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E99" s="139">
         <v>2</v>
@@ -14786,13 +14786,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C100" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D100" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E100" s="139">
         <v>3</v>
@@ -14819,13 +14819,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="139" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C101" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D101" s="139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E101" s="139">
         <v>4</v>
@@ -14857,7 +14857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
@@ -14901,7 +14901,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>87</v>
@@ -14922,7 +14922,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>87</v>
@@ -14943,7 +14943,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>87</v>
@@ -16318,7 +16318,7 @@
         <v>167</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D9" s="178"/>
       <c r="E9" s="178"/>
@@ -16437,7 +16437,7 @@
         <v>172</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D12" s="178"/>
       <c r="E12" s="178"/>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="18" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="175" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" s="58" t="s">
         <v>178</v>
@@ -16715,7 +16715,7 @@
         <v>166</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="178"/>
@@ -16792,13 +16792,13 @@
     </row>
     <row r="21" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D21" s="178"/>
       <c r="E21" s="178"/>
@@ -16911,13 +16911,13 @@
     </row>
     <row r="24" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>172</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D24" s="178"/>
       <c r="E24" s="178"/>
@@ -17030,7 +17030,7 @@
     </row>
     <row r="27" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27" s="66" t="s">
         <v>184</v>
@@ -17195,7 +17195,7 @@
         <v>166</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="178"/>
@@ -17278,7 +17278,7 @@
         <v>167</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D33" s="178"/>
       <c r="E33" s="178"/>
@@ -17397,7 +17397,7 @@
         <v>172</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D36" s="178"/>
       <c r="E36" s="178"/>
@@ -17629,7 +17629,7 @@
     </row>
     <row r="42" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" s="58" t="s">
         <v>178</v>
@@ -17675,7 +17675,7 @@
         <v>166</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="178"/>
@@ -17752,13 +17752,13 @@
     </row>
     <row r="45" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>167</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D45" s="178"/>
       <c r="E45" s="178"/>
@@ -17871,13 +17871,13 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>172</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D48" s="118"/>
       <c r="E48" s="118"/>
@@ -17926,7 +17926,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B51" s="66" t="s">
         <v>184</v>
@@ -17956,7 +17956,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B55" s="58" t="s">
         <v>178</v>
@@ -17970,7 +17970,7 @@
         <v>175</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C56" s="27"/>
     </row>

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF05DE5-0B5C-4E1A-943D-9B229C1B2C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7254ADC-EDFA-4994-A1D0-CF8EECEFD352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="343">
   <si>
     <t>study</t>
   </si>
@@ -1043,6 +1043,21 @@
   </si>
   <si>
     <t>(Die Lehrkraft verwendete ausschließlich Standardsprache im Unterricht.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person </t>
+  </si>
+  <si>
+    <t>personA</t>
+  </si>
+  <si>
+    <t>personB</t>
+  </si>
+  <si>
+    <t>personC</t>
+  </si>
+  <si>
+    <t>personD</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2034,6 +2049,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2437,32 +2455,32 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="12.81640625" customWidth="1"/>
-    <col min="25" max="25" width="11.1796875" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
     <col min="26" max="26" width="55" customWidth="1"/>
-    <col min="27" max="27" width="65.81640625" customWidth="1"/>
+    <col min="27" max="27" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2545,7 +2563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2633,7 +2651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2721,7 +2739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2809,7 +2827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2897,7 +2915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2985,7 +3003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3073,7 +3091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3161,7 +3179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3249,7 +3267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3337,7 +3355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3425,7 +3443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3513,7 +3531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3601,7 +3619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3630,7 +3648,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3659,7 +3677,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3747,7 +3765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3835,7 +3853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -3923,7 +3941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -4011,7 +4029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -4187,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -4275,7 +4293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -4363,7 +4381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>9</v>
       </c>
@@ -4451,7 +4469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -4539,7 +4557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -4627,7 +4645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -4715,7 +4733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -4803,7 +4821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>14</v>
       </c>
@@ -4891,7 +4909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -4979,7 +4997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>16</v>
       </c>
@@ -5067,7 +5085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -5155,7 +5173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>18</v>
       </c>
@@ -5243,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>19</v>
       </c>
@@ -5331,7 +5349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -5419,7 +5437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>21</v>
       </c>
@@ -5507,7 +5525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -5595,7 +5613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>23</v>
       </c>
@@ -5683,7 +5701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>24</v>
       </c>
@@ -5771,7 +5789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5800,7 +5818,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5829,7 +5847,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -5917,7 +5935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -6005,7 +6023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -6093,7 +6111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -6181,7 +6199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -6269,7 +6287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -6357,7 +6375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -6533,7 +6551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -6621,7 +6639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -6709,7 +6727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -6797,7 +6815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -6885,7 +6903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -6973,7 +6991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -7061,7 +7079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -7149,7 +7167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -7237,7 +7255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -7325,7 +7343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -7413,7 +7431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -7501,7 +7519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -7589,7 +7607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -7677,7 +7695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -7765,7 +7783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -7853,7 +7871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -7941,7 +7959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7970,7 +7988,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7999,7 +8017,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -8014,7 +8032,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -8029,7 +8047,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -8044,7 +8062,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
@@ -8059,7 +8077,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>25</v>
       </c>
@@ -8074,7 +8092,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -8089,7 +8107,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -8104,7 +8122,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -8119,7 +8137,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>29</v>
       </c>
@@ -8134,7 +8152,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -8159,29 +8177,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" customWidth="1"/>
-    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>83</v>
       </c>
@@ -8198,7 +8216,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -8209,30 +8227,30 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="82" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="82" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="82" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="82" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="83"/>
     </row>
-    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>2</v>
       </c>
@@ -8243,35 +8261,35 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="82" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="82" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="82" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="82" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="82" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="83"/>
     </row>
-    <row r="18" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>3</v>
       </c>
@@ -8282,30 +8300,30 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="82" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="82" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="82" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="82" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="83"/>
     </row>
-    <row r="24" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>4</v>
       </c>
@@ -8316,39 +8334,39 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="82" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="82" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="82" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="82" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="82" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="88" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:3" s="87" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" s="88" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" s="87" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
         <v>248</v>
       </c>
       <c r="C31" s="85"/>
     </row>
-    <row r="32" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>5</v>
       </c>
@@ -8359,40 +8377,40 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="82" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="82" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="82" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="82" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="82" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="82" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="83"/>
     </row>
-    <row r="40" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>6</v>
       </c>
@@ -8403,35 +8421,35 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="82" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="82" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="82" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="82" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="82" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="83"/>
     </row>
-    <row r="47" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>7</v>
       </c>
@@ -8443,28 +8461,28 @@
       </c>
       <c r="E47" s="84"/>
     </row>
-    <row r="48" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="82" t="s">
         <v>255</v>
       </c>
       <c r="E48" s="84"/>
     </row>
-    <row r="49" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="82" t="s">
         <v>256</v>
       </c>
       <c r="E49" s="84"/>
     </row>
-    <row r="50" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="82" t="s">
         <v>257</v>
       </c>
       <c r="E50" s="84"/>
     </row>
-    <row r="51" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E51" s="83"/>
     </row>
-    <row r="52" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="69">
         <v>8</v>
       </c>
@@ -8475,36 +8493,36 @@
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C53" s="82" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" s="82" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="85" t="s">
         <v>258</v>
       </c>
       <c r="B57" s="85"/>
       <c r="E57" s="84"/>
     </row>
-    <row r="58" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="84" t="s">
         <v>259</v>
       </c>
       <c r="B58" s="84"/>
     </row>
-    <row r="59" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="84" t="s">
         <v>237</v>
       </c>
       <c r="B59" s="84"/>
     </row>
-    <row r="60" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="84" t="s">
         <v>238</v>
       </c>
@@ -8513,7 +8531,7 @@
       </c>
       <c r="C60" s="84"/>
     </row>
-    <row r="61" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="84" t="s">
         <v>240</v>
       </c>
@@ -8534,28 +8552,28 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="72" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="19" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" style="113" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="93" customWidth="1"/>
-    <col min="11" max="11" width="40.81640625" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="113" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="93" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
     <col min="12" max="12" width="6" style="19" customWidth="1"/>
-    <col min="13" max="13" width="4.81640625" style="113" customWidth="1"/>
-    <col min="14" max="14" width="7.1796875" style="93" customWidth="1"/>
-    <col min="15" max="15" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1796875" style="93" customWidth="1"/>
-    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="113" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="93" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="93" customWidth="1"/>
+    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
@@ -8605,7 +8623,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93">
         <v>1</v>
       </c>
@@ -8724,7 +8742,7 @@
       <c r="CT2" s="69"/>
       <c r="CU2" s="69"/>
     </row>
-    <row r="3" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93">
         <v>2</v>
       </c>
@@ -8841,7 +8859,7 @@
       <c r="CT3" s="69"/>
       <c r="CU3" s="69"/>
     </row>
-    <row r="4" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93">
         <v>3</v>
       </c>
@@ -8958,7 +8976,7 @@
       <c r="CT4" s="69"/>
       <c r="CU4" s="69"/>
     </row>
-    <row r="5" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="93">
         <v>4</v>
       </c>
@@ -9075,7 +9093,7 @@
       <c r="CT5" s="69"/>
       <c r="CU5" s="69"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" s="93">
         <v>5</v>
       </c>
@@ -9108,7 +9126,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" s="93">
         <v>6</v>
       </c>
@@ -9141,7 +9159,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" s="93">
         <v>7</v>
       </c>
@@ -9174,7 +9192,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" s="93">
         <v>8</v>
       </c>
@@ -9207,7 +9225,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" s="93">
         <v>9</v>
       </c>
@@ -9240,7 +9258,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" s="93">
         <v>10</v>
       </c>
@@ -9273,7 +9291,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" s="93">
         <v>11</v>
       </c>
@@ -9306,7 +9324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:99" s="106" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:99" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F13" s="109"/>
       <c r="G13" s="107"/>
       <c r="H13" s="22"/>
@@ -9318,7 +9336,7 @@
       <c r="O13" s="108"/>
       <c r="Q13" s="108"/>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" s="93">
         <v>12</v>
       </c>
@@ -9352,7 +9370,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" s="93">
         <v>13</v>
       </c>
@@ -9383,7 +9401,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" s="93">
         <v>14</v>
       </c>
@@ -9414,7 +9432,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
         <v>15</v>
       </c>
@@ -9445,7 +9463,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="93">
         <v>16</v>
       </c>
@@ -9476,7 +9494,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="93">
         <v>17</v>
       </c>
@@ -9507,7 +9525,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="93">
         <v>18</v>
       </c>
@@ -9538,7 +9556,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="93">
         <v>19</v>
       </c>
@@ -9569,7 +9587,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="93">
         <v>20</v>
       </c>
@@ -9600,7 +9618,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="93">
         <v>21</v>
       </c>
@@ -9631,7 +9649,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="93">
         <v>22</v>
       </c>
@@ -9662,7 +9680,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G25" s="108"/>
       <c r="H25" s="115"/>
       <c r="I25" s="112"/>
@@ -9672,7 +9690,7 @@
       <c r="O25" s="108"/>
       <c r="Q25" s="108"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="93">
         <v>23</v>
       </c>
@@ -9705,7 +9723,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="93">
         <v>24</v>
       </c>
@@ -9736,7 +9754,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="93">
         <v>25</v>
       </c>
@@ -9767,7 +9785,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="93">
         <v>26</v>
       </c>
@@ -9798,7 +9816,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="93">
         <v>27</v>
       </c>
@@ -9829,7 +9847,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="93">
         <v>28</v>
       </c>
@@ -9860,7 +9878,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="93">
         <v>29</v>
       </c>
@@ -9891,7 +9909,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="93">
         <v>30</v>
       </c>
@@ -9922,7 +9940,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="93">
         <v>31</v>
       </c>
@@ -9953,7 +9971,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="93">
         <v>32</v>
       </c>
@@ -9984,7 +10002,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="93">
         <v>33</v>
       </c>
@@ -10015,7 +10033,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="106">
         <v>34</v>
       </c>
@@ -10024,7 +10042,7 @@
       <c r="L37" s="19"/>
       <c r="M37" s="113"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="93">
         <v>35</v>
       </c>
@@ -10057,7 +10075,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="93">
         <v>36</v>
       </c>
@@ -10088,7 +10106,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="93">
         <v>37</v>
       </c>
@@ -10119,7 +10137,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="93">
         <v>38</v>
       </c>
@@ -10150,7 +10168,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="93">
         <v>39</v>
       </c>
@@ -10181,7 +10199,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="93">
         <v>40</v>
       </c>
@@ -10212,7 +10230,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="93">
         <v>41</v>
       </c>
@@ -10243,7 +10261,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="93">
         <v>42</v>
       </c>
@@ -10274,7 +10292,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="93">
         <v>43</v>
       </c>
@@ -10305,7 +10323,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="93">
         <v>44</v>
       </c>
@@ -10336,7 +10354,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="93">
         <v>45</v>
       </c>
@@ -10367,7 +10385,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="106">
         <v>46</v>
       </c>
@@ -10377,37 +10395,37 @@
       <c r="M49" s="113"/>
       <c r="Q49" s="107"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="93">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="93">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="93">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="93">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="93">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="93">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="93">
         <v>53</v>
       </c>
@@ -10423,14 +10441,14 @@
       <c r="M56" s="112"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="93">
         <v>54</v>
       </c>
@@ -10446,14 +10464,14 @@
       <c r="M57" s="112"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G58" s="89" t="s">
         <v>186</v>
       </c>
@@ -10466,14 +10484,14 @@
       <c r="M58" s="112"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G59" s="89" t="s">
         <v>263</v>
       </c>
@@ -10486,14 +10504,14 @@
       <c r="M59" s="112"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="72" t="s">
         <v>189</v>
       </c>
@@ -10509,14 +10527,14 @@
       <c r="M60" s="112"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="70" t="s">
         <v>187</v>
       </c>
@@ -10541,14 +10559,14 @@
       <c r="M61" s="112"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>188</v>
       </c>
@@ -10573,14 +10591,14 @@
       <c r="M62" s="112"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>186</v>
       </c>
@@ -10603,14 +10621,14 @@
       <c r="M63" s="112"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
         <v>197</v>
       </c>
@@ -10633,14 +10651,14 @@
       <c r="M64" s="112"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B65" s="91"/>
       <c r="D65" s="92"/>
       <c r="G65" s="89" t="s">
@@ -10659,10 +10677,10 @@
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G66" s="89" t="s">
         <v>261</v>
       </c>
@@ -10675,14 +10693,14 @@
       <c r="M66" s="112"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>266</v>
       </c>
@@ -10693,7 +10711,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>267</v>
       </c>
@@ -10704,7 +10722,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>268</v>
       </c>
@@ -10715,7 +10733,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>2</v>
       </c>
@@ -10729,7 +10747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>2</v>
       </c>
@@ -10743,7 +10761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>2</v>
       </c>
@@ -10757,7 +10775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>2</v>
       </c>
@@ -10771,7 +10789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>3</v>
       </c>
@@ -10785,7 +10803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>3</v>
       </c>
@@ -10799,7 +10817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>3</v>
       </c>
@@ -10813,7 +10831,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>3</v>
       </c>
@@ -10827,7 +10845,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>4</v>
       </c>
@@ -10838,7 +10856,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>4</v>
       </c>
@@ -10849,7 +10867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>4</v>
       </c>
@@ -10860,7 +10878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>4</v>
       </c>
@@ -10871,7 +10889,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>5</v>
       </c>
@@ -10882,7 +10900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>5</v>
       </c>
@@ -10893,7 +10911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>5</v>
       </c>
@@ -10904,7 +10922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>5</v>
       </c>
@@ -10915,7 +10933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>6</v>
       </c>
@@ -10926,7 +10944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>6</v>
       </c>
@@ -10937,7 +10955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>6</v>
       </c>
@@ -10948,7 +10966,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>6</v>
       </c>
@@ -10973,15 +10991,15 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" style="11" customWidth="1"/>
-    <col min="10" max="13" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="11" customWidth="1"/>
+    <col min="10" max="13" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="129"/>
       <c r="B1" s="126" t="s">
         <v>292</v>
@@ -10997,7 +11015,7 @@
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="131" t="s">
         <v>198</v>
       </c>
@@ -11015,7 +11033,7 @@
       </c>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="131"/>
       <c r="B3" s="123" t="s">
         <v>290</v>
@@ -11031,7 +11049,7 @@
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="132"/>
       <c r="B4" s="135" t="s">
         <v>291</v>
@@ -11047,11 +11065,11 @@
       </c>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="130" t="s">
         <v>282</v>
       </c>
@@ -11062,7 +11080,7 @@
       <c r="F6" s="120"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="131"/>
       <c r="B7" s="123"/>
       <c r="C7" s="118"/>
@@ -11071,7 +11089,7 @@
       <c r="F7" s="26"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
         <v>283</v>
       </c>
@@ -11090,7 +11108,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="131"/>
       <c r="B9" s="128" t="s">
         <v>275</v>
@@ -11101,7 +11119,7 @@
       <c r="F9" s="117"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="131"/>
       <c r="B10" s="124" t="s">
         <v>276</v>
@@ -11120,7 +11138,7 @@
       </c>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="131"/>
       <c r="B11" s="124" t="s">
         <v>277</v>
@@ -11139,7 +11157,7 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="131"/>
       <c r="B12" s="127" t="s">
         <v>278</v>
@@ -11158,7 +11176,7 @@
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="131"/>
       <c r="B13" s="124"/>
       <c r="C13" s="118"/>
@@ -11167,7 +11185,7 @@
       <c r="F13" s="26"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="131"/>
       <c r="B14" s="124"/>
       <c r="C14" s="118"/>
@@ -11176,7 +11194,7 @@
       <c r="F14" s="26"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="130" t="s">
         <v>284</v>
       </c>
@@ -11195,7 +11213,7 @@
       </c>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="131"/>
       <c r="B16" s="128" t="s">
         <v>275</v>
@@ -11206,7 +11224,7 @@
       <c r="F16" s="117"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="131"/>
       <c r="B17" s="124" t="s">
         <v>276</v>
@@ -11225,7 +11243,7 @@
       </c>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="131"/>
       <c r="B18" s="124" t="s">
         <v>277</v>
@@ -11244,7 +11262,7 @@
       </c>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="131"/>
       <c r="B19" s="127" t="s">
         <v>278</v>
@@ -11263,7 +11281,7 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="131"/>
       <c r="B20" s="124"/>
       <c r="C20" s="118"/>
@@ -11272,7 +11290,7 @@
       <c r="F20" s="26"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="131"/>
       <c r="B21" s="124"/>
       <c r="C21" s="118"/>
@@ -11281,7 +11299,7 @@
       <c r="F21" s="26"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="130" t="s">
         <v>285</v>
       </c>
@@ -11300,7 +11318,7 @@
       </c>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="131"/>
       <c r="B23" s="128" t="s">
         <v>275</v>
@@ -11311,7 +11329,7 @@
       <c r="F23" s="117"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="131"/>
       <c r="B24" s="124" t="s">
         <v>276</v>
@@ -11330,7 +11348,7 @@
       </c>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="131"/>
       <c r="B25" s="124" t="s">
         <v>277</v>
@@ -11349,7 +11367,7 @@
       </c>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="132"/>
       <c r="B26" s="127" t="s">
         <v>278</v>
@@ -11368,7 +11386,7 @@
       </c>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="137"/>
       <c r="B27" s="138"/>
       <c r="C27" s="116"/>
@@ -11377,7 +11395,7 @@
       <c r="F27" s="117"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="91"/>
       <c r="B28" s="135"/>
       <c r="C28" s="119"/>
@@ -11386,7 +11404,7 @@
       <c r="F28" s="92"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="136" t="s">
         <v>286</v>
       </c>
@@ -11405,7 +11423,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="131"/>
       <c r="B30" s="124" t="s">
         <v>275</v>
@@ -11416,7 +11434,7 @@
       <c r="F30" s="26"/>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="131"/>
       <c r="B31" s="124" t="s">
         <v>276</v>
@@ -11435,7 +11453,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="131"/>
       <c r="B32" s="124" t="s">
         <v>277</v>
@@ -11454,7 +11472,7 @@
       </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="132"/>
       <c r="B33" s="127" t="s">
         <v>278</v>
@@ -11473,78 +11491,78 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>280</v>
       </c>
@@ -11564,12 +11582,12 @@
       <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="31.1796875" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="143" t="s">
         <v>305</v>
       </c>
@@ -11592,7 +11610,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="140">
         <v>1</v>
       </c>
@@ -11622,7 +11640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="140">
         <v>2</v>
       </c>
@@ -11652,7 +11670,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="140">
         <v>3</v>
       </c>
@@ -11682,7 +11700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="140">
         <v>4</v>
       </c>
@@ -11712,7 +11730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="140">
         <v>5</v>
       </c>
@@ -11742,7 +11760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="140">
         <v>6</v>
       </c>
@@ -11772,7 +11790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="140">
         <v>7</v>
       </c>
@@ -11802,7 +11820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="140">
         <v>8</v>
       </c>
@@ -11832,7 +11850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="140">
         <v>9</v>
       </c>
@@ -11862,7 +11880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="157">
         <v>10</v>
       </c>
@@ -11895,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="157">
         <v>11</v>
       </c>
@@ -11928,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="157">
         <v>12</v>
       </c>
@@ -11961,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="157">
         <v>13</v>
       </c>
@@ -11994,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="141">
         <v>14</v>
       </c>
@@ -12025,7 +12043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="144">
         <v>15</v>
       </c>
@@ -12058,7 +12076,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="144">
         <v>16</v>
       </c>
@@ -12091,7 +12109,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="145">
         <v>17</v>
       </c>
@@ -12122,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="147">
         <v>18</v>
       </c>
@@ -12153,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="146">
         <v>19</v>
       </c>
@@ -12186,7 +12204,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="146">
         <v>20</v>
       </c>
@@ -12219,7 +12237,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="146">
         <v>21</v>
       </c>
@@ -12252,7 +12270,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="146">
         <v>22</v>
       </c>
@@ -12285,7 +12303,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="148">
         <v>23</v>
       </c>
@@ -12318,7 +12336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="148">
         <v>24</v>
       </c>
@@ -12351,7 +12369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="148">
         <v>25</v>
       </c>
@@ -12384,7 +12402,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="148">
         <v>26</v>
       </c>
@@ -12417,7 +12435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="149">
         <v>27</v>
       </c>
@@ -12450,7 +12468,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="149">
         <v>28</v>
       </c>
@@ -12483,7 +12501,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="149">
         <v>29</v>
       </c>
@@ -12516,7 +12534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="149">
         <v>30</v>
       </c>
@@ -12549,7 +12567,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="150">
         <v>31</v>
       </c>
@@ -12582,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="150">
         <v>32</v>
       </c>
@@ -12615,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="150">
         <v>33</v>
       </c>
@@ -12648,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="150">
         <v>34</v>
       </c>
@@ -12681,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="151">
         <v>35</v>
       </c>
@@ -12714,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="151">
         <v>36</v>
       </c>
@@ -12747,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="152">
         <v>37</v>
       </c>
@@ -12778,7 +12796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="166">
         <v>38</v>
       </c>
@@ -12809,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="154">
         <v>39</v>
       </c>
@@ -12842,7 +12860,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="154">
         <v>40</v>
       </c>
@@ -12875,7 +12893,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="154">
         <v>41</v>
       </c>
@@ -12908,7 +12926,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="154">
         <v>42</v>
       </c>
@@ -12941,7 +12959,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="155">
         <v>43</v>
       </c>
@@ -12974,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="155">
         <v>44</v>
       </c>
@@ -13007,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="155">
         <v>45</v>
       </c>
@@ -13040,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="155">
         <v>46</v>
       </c>
@@ -13073,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="156">
         <v>47</v>
       </c>
@@ -13106,7 +13124,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="156">
         <v>48</v>
       </c>
@@ -13139,7 +13157,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="156">
         <v>49</v>
       </c>
@@ -13172,7 +13190,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="156">
         <v>50</v>
       </c>
@@ -13205,7 +13223,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="158">
         <v>51</v>
       </c>
@@ -13238,7 +13256,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="158">
         <v>52</v>
       </c>
@@ -13271,7 +13289,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="158">
         <v>53</v>
       </c>
@@ -13304,7 +13322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="158">
         <v>54</v>
       </c>
@@ -13337,7 +13355,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="173">
         <v>55</v>
       </c>
@@ -13370,7 +13388,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="173">
         <v>56</v>
       </c>
@@ -13403,7 +13421,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="159">
         <v>57</v>
       </c>
@@ -13434,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="160">
         <v>58</v>
       </c>
@@ -13465,7 +13483,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="161">
         <v>59</v>
       </c>
@@ -13498,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="161">
         <v>60</v>
       </c>
@@ -13531,7 +13549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="161">
         <v>61</v>
       </c>
@@ -13564,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="161">
         <v>62</v>
       </c>
@@ -13597,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="172">
         <v>63</v>
       </c>
@@ -13630,7 +13648,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="172">
         <v>64</v>
       </c>
@@ -13663,7 +13681,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="172">
         <v>65</v>
       </c>
@@ -13696,7 +13714,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="172">
         <v>66</v>
       </c>
@@ -13729,7 +13747,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="162">
         <v>67</v>
       </c>
@@ -13762,7 +13780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="162">
         <v>68</v>
       </c>
@@ -13795,7 +13813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="162">
         <v>69</v>
       </c>
@@ -13828,7 +13846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="162">
         <v>70</v>
       </c>
@@ -13861,7 +13879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="164">
         <v>71</v>
       </c>
@@ -13894,7 +13912,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="164">
         <v>72</v>
       </c>
@@ -13927,7 +13945,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="164">
         <v>73</v>
       </c>
@@ -13960,7 +13978,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="164">
         <v>74</v>
       </c>
@@ -13993,7 +14011,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="165">
         <v>75</v>
       </c>
@@ -14026,7 +14044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="165">
         <v>76</v>
       </c>
@@ -14059,7 +14077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="167">
         <v>77</v>
       </c>
@@ -14090,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="168">
         <v>78</v>
       </c>
@@ -14121,7 +14139,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="169">
         <v>79</v>
       </c>
@@ -14154,7 +14172,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="169">
         <v>80</v>
       </c>
@@ -14187,7 +14205,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="169">
         <v>81</v>
       </c>
@@ -14220,7 +14238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="169">
         <v>82</v>
       </c>
@@ -14253,7 +14271,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="170">
         <v>83</v>
       </c>
@@ -14286,7 +14304,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="170">
         <v>84</v>
       </c>
@@ -14319,7 +14337,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="170">
         <v>85</v>
       </c>
@@ -14352,7 +14370,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="170">
         <v>86</v>
       </c>
@@ -14385,7 +14403,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="171">
         <v>87</v>
       </c>
@@ -14418,7 +14436,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="171">
         <v>88</v>
       </c>
@@ -14451,7 +14469,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="171">
         <v>89</v>
       </c>
@@ -14484,7 +14502,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="171">
         <v>90</v>
       </c>
@@ -14517,7 +14535,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="174">
         <v>91</v>
       </c>
@@ -14550,7 +14568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="174">
         <v>92</v>
       </c>
@@ -14583,7 +14601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="174">
         <v>93</v>
       </c>
@@ -14616,7 +14634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="174">
         <v>94</v>
       </c>
@@ -14649,7 +14667,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="139">
         <v>95</v>
       </c>
@@ -14682,7 +14700,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="139">
         <v>96</v>
       </c>
@@ -14715,7 +14733,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="139">
         <v>97</v>
       </c>
@@ -14748,7 +14766,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="139">
         <v>98</v>
       </c>
@@ -14781,7 +14799,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="139">
         <v>99</v>
       </c>
@@ -14814,7 +14832,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="139">
         <v>100</v>
       </c>
@@ -14855,22 +14873,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -14884,13 +14903,16 @@
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -14903,15 +14925,19 @@
       <c r="D2" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="183">
+        <f>-E3</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="18" t="str">
-        <f t="shared" ref="F2:F4" si="0">CONCATENATE(B2,"_",C2,"_",D2,"_",E2)</f>
+      <c r="G2" s="18" t="str">
+        <f>CONCATENATE(B2,"_",C2,"_",D2,"_",F2)</f>
         <v xml:space="preserve">Study1_pilot_marker_test_front_cam1 </v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>0</v>
       </c>
@@ -14924,15 +14950,19 @@
       <c r="D3" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="183">
+        <f t="shared" ref="E3:E4" si="0">-E4</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G3" s="18" t="str">
+        <f>CONCATENATE(B3,"_",C3,"_",D3,"_",F3)</f>
         <v xml:space="preserve">Study1_pilot_marker_test_front_back_cam1 </v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>0</v>
       </c>
@@ -14945,16 +14975,20 @@
       <c r="D4" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G4" s="18" t="str">
+        <f>CONCATENATE(B4,"_",C4,"_",D4,"_",F4)</f>
         <v xml:space="preserve">Study1_pilot_marker_test_front_board_cam1 </v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="180" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -14967,15 +15001,18 @@
       <c r="D6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="14" t="str">
-        <f t="shared" ref="F6:F12" si="1">CONCATENATE(B6,"_",C6,"_",D6,"_",E6)</f>
-        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="14" t="str">
+        <f>CONCATENATE(B6,"_",C6,"_",D6,"_",E6,"_",F6)</f>
+        <v xml:space="preserve">Study1_pilot_expert_personA_glasses </v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -14988,15 +15025,18 @@
       <c r="D7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G7" s="14" t="str">
+        <f t="shared" ref="G7:G29" si="1">CONCATENATE(B7,"_",C7,"_",D7,"_",E7,"_",F7)</f>
+        <v xml:space="preserve">Study1_pilot_expert_personA_cam1 </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -15009,15 +15049,18 @@
       <c r="D8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="G8" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Study1_pilot_expert_cam2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>Study1_pilot_expert_personA_cam2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -15030,15 +15073,18 @@
       <c r="D9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="14" t="str">
+      <c r="G9" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Study1_pilot_expert_cam3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>Study1_pilot_expert_personA_cam3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -15051,15 +15097,18 @@
       <c r="D10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="G10" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>Study1_pilot_expert_cam4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>Study1_pilot_expert_personA_cam4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -15072,15 +15121,18 @@
       <c r="D11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="G11" s="14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">Study1_pilot_expert_personA_ambient </v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>2</v>
       </c>
@@ -15093,15 +15145,18 @@
       <c r="D12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="21" t="str">
+      <c r="G12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">Study1_pilot_expert_personB_glasses </v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>2</v>
       </c>
@@ -15114,15 +15169,18 @@
       <c r="D13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="21" t="str">
-        <f t="shared" ref="F13:F29" si="2">CONCATENATE(B13,"_",C13,"_",D13,"_",E13)</f>
-        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_personB_cam1 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>2</v>
       </c>
@@ -15135,15 +15193,18 @@
       <c r="D14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Study1_pilot_expert_cam2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G14" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_personB_cam2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>2</v>
       </c>
@@ -15156,15 +15217,18 @@
       <c r="D15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Study1_pilot_expert_cam3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G15" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_personB_cam3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>2</v>
       </c>
@@ -15177,15 +15241,18 @@
       <c r="D16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Study1_pilot_expert_cam4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G16" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_personB_cam4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>2</v>
       </c>
@@ -15198,15 +15265,18 @@
       <c r="D17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Study2_pilot_expert_ambient </v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study2_pilot_expert_personB_ambient </v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>3</v>
       </c>
@@ -15219,15 +15289,18 @@
       <c r="D18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_personC_glasses </v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>3</v>
       </c>
@@ -15240,15 +15313,18 @@
       <c r="D19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_personC_cam1 </v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>3</v>
       </c>
@@ -15261,15 +15337,18 @@
       <c r="D20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Study1_pilot_expert_cam2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_personC_cam2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>3</v>
       </c>
@@ -15282,15 +15361,18 @@
       <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Study1_pilot_expert_cam3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G21" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_personC_cam3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>3</v>
       </c>
@@ -15303,15 +15385,18 @@
       <c r="D22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>Study1_pilot_expert_cam4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G22" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_personC_cam4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>3</v>
       </c>
@@ -15324,15 +15409,18 @@
       <c r="D23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G23" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_personC_ambient </v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>4</v>
       </c>
@@ -15345,15 +15433,18 @@
       <c r="D24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_personD_glasses </v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>4</v>
       </c>
@@ -15366,15 +15457,18 @@
       <c r="D25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G25" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_personD_cam1 </v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>4</v>
       </c>
@@ -15387,15 +15481,18 @@
       <c r="D26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Study1_pilot_expert_cam2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_personD_cam2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>4</v>
       </c>
@@ -15408,15 +15505,18 @@
       <c r="D27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Study1_pilot_expert_cam3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G27" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_personD_cam3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>4</v>
       </c>
@@ -15429,15 +15529,18 @@
       <c r="D28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Study1_pilot_expert_cam4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G28" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_personD_cam4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>4</v>
       </c>
@@ -15450,20 +15553,24 @@
       <c r="D29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="180" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G29" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_personD_ambient </v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="180" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="181"/>
       <c r="C30" s="182"/>
       <c r="D30" s="182"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E30" s="182"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>1</v>
       </c>
@@ -15476,15 +15583,16 @@
       <c r="D31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="14" t="str">
-        <f t="shared" ref="F31:F37" si="3">CONCATENATE(B31,"_",C31,"_",D31,"_",E31)</f>
+      <c r="G31" s="14" t="str">
+        <f t="shared" ref="G31:G54" si="2">CONCATENATE(B31,"_",C31,"_",D31,"_",F31)</f>
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>1</v>
       </c>
@@ -15497,15 +15605,16 @@
       <c r="D32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G32" s="14" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>1</v>
       </c>
@@ -15518,15 +15627,16 @@
       <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G33" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>1</v>
       </c>
@@ -15539,15 +15649,16 @@
       <c r="D34" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G34" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>1</v>
       </c>
@@ -15560,15 +15671,16 @@
       <c r="D35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14"/>
+      <c r="F35" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G35" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>1</v>
       </c>
@@ -15581,15 +15693,16 @@
       <c r="D36" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="G36" s="14" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>2</v>
       </c>
@@ -15602,15 +15715,16 @@
       <c r="D37" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="21"/>
+      <c r="F37" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="21" t="str">
-        <f t="shared" si="3"/>
+      <c r="G37" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>2</v>
       </c>
@@ -15623,15 +15737,16 @@
       <c r="D38" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="21"/>
+      <c r="F38" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="21" t="str">
-        <f t="shared" ref="F38:F54" si="4">CONCATENATE(B38,"_",C38,"_",D38,"_",E38)</f>
+      <c r="G38" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>2</v>
       </c>
@@ -15644,15 +15759,16 @@
       <c r="D39" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="21" t="str">
-        <f t="shared" si="4"/>
+      <c r="G39" s="21" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>2</v>
       </c>
@@ -15665,15 +15781,16 @@
       <c r="D40" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="21"/>
+      <c r="F40" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="21" t="str">
-        <f t="shared" si="4"/>
+      <c r="G40" s="21" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>2</v>
       </c>
@@ -15686,15 +15803,16 @@
       <c r="D41" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="21" t="str">
-        <f t="shared" si="4"/>
+      <c r="G41" s="21" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>2</v>
       </c>
@@ -15707,15 +15825,16 @@
       <c r="D42" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="21" t="str">
-        <f t="shared" si="4"/>
+      <c r="G42" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study2_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>3</v>
       </c>
@@ -15728,15 +15847,16 @@
       <c r="D43" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="16" t="str">
-        <f t="shared" si="4"/>
+      <c r="G43" s="16" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>3</v>
       </c>
@@ -15749,15 +15869,16 @@
       <c r="D44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="16"/>
+      <c r="F44" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="16" t="str">
-        <f t="shared" si="4"/>
+      <c r="G44" s="16" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>3</v>
       </c>
@@ -15770,15 +15891,16 @@
       <c r="D45" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16"/>
+      <c r="F45" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="16" t="str">
-        <f t="shared" si="4"/>
+      <c r="G45" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>3</v>
       </c>
@@ -15791,15 +15913,16 @@
       <c r="D46" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="16"/>
+      <c r="F46" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="16" t="str">
-        <f t="shared" si="4"/>
+      <c r="G46" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>3</v>
       </c>
@@ -15812,15 +15935,16 @@
       <c r="D47" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16"/>
+      <c r="F47" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="16" t="str">
-        <f t="shared" si="4"/>
+      <c r="G47" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>3</v>
       </c>
@@ -15833,15 +15957,16 @@
       <c r="D48" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16"/>
+      <c r="F48" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="16" t="str">
-        <f t="shared" si="4"/>
+      <c r="G48" s="16" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>4</v>
       </c>
@@ -15854,15 +15979,16 @@
       <c r="D49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="G49" s="18" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>4</v>
       </c>
@@ -15875,15 +16001,16 @@
       <c r="D50" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="G50" s="18" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>4</v>
       </c>
@@ -15896,15 +16023,16 @@
       <c r="D51" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="18"/>
+      <c r="F51" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="G51" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>4</v>
       </c>
@@ -15917,15 +16045,16 @@
       <c r="D52" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="G52" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>4</v>
       </c>
@@ -15938,15 +16067,16 @@
       <c r="D53" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="18"/>
+      <c r="F53" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="G53" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>4</v>
       </c>
@@ -15959,15 +16089,16 @@
       <c r="D54" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="18"/>
+      <c r="F54" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F54" s="18" t="str">
-        <f t="shared" si="4"/>
+      <c r="G54" s="18" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="180" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15981,14 +16112,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="28" customWidth="1"/>
     <col min="3" max="3" width="16" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>161</v>
       </c>
@@ -16031,7 +16162,7 @@
       <c r="AH1" s="177"/>
       <c r="AI1" s="177"/>
     </row>
-    <row r="2" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
       <c r="C2" s="179"/>
@@ -16068,7 +16199,7 @@
       <c r="AH2" s="178"/>
       <c r="AI2" s="178"/>
     </row>
-    <row r="3" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>174</v>
       </c>
@@ -16111,7 +16242,7 @@
       <c r="AH3" s="178"/>
       <c r="AI3" s="178"/>
     </row>
-    <row r="4" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>175</v>
       </c>
@@ -16150,7 +16281,7 @@
       <c r="AH4" s="178"/>
       <c r="AI4" s="178"/>
     </row>
-    <row r="5" spans="1:35" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="62" t="s">
         <v>176</v>
@@ -16189,7 +16320,7 @@
       <c r="AH5" s="118"/>
       <c r="AI5" s="118"/>
     </row>
-    <row r="6" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>162</v>
       </c>
@@ -16232,7 +16363,7 @@
       <c r="AH6" s="178"/>
       <c r="AI6" s="178"/>
     </row>
-    <row r="7" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
         <v>166</v>
       </c>
@@ -16271,7 +16402,7 @@
       <c r="AH7" s="178"/>
       <c r="AI7" s="178"/>
     </row>
-    <row r="8" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="77" t="s">
         <v>204</v>
@@ -16310,7 +16441,7 @@
       <c r="AH8" s="178"/>
       <c r="AI8" s="178"/>
     </row>
-    <row r="9" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>168</v>
       </c>
@@ -16353,7 +16484,7 @@
       <c r="AH9" s="178"/>
       <c r="AI9" s="178"/>
     </row>
-    <row r="10" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>169</v>
       </c>
@@ -16392,7 +16523,7 @@
       <c r="AH10" s="178"/>
       <c r="AI10" s="178"/>
     </row>
-    <row r="11" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -16429,7 +16560,7 @@
       <c r="AH11" s="178"/>
       <c r="AI11" s="178"/>
     </row>
-    <row r="12" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>170</v>
       </c>
@@ -16472,7 +16603,7 @@
       <c r="AH12" s="178"/>
       <c r="AI12" s="178"/>
     </row>
-    <row r="13" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>171</v>
       </c>
@@ -16511,7 +16642,7 @@
       <c r="AH13" s="178"/>
       <c r="AI13" s="178"/>
     </row>
-    <row r="14" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
@@ -16548,7 +16679,7 @@
       <c r="AH14" s="178"/>
       <c r="AI14" s="178"/>
     </row>
-    <row r="15" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>177</v>
       </c>
@@ -16591,7 +16722,7 @@
       <c r="AH15" s="178"/>
       <c r="AI15" s="178"/>
     </row>
-    <row r="16" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
         <v>166</v>
       </c>
@@ -16630,7 +16761,7 @@
       <c r="AH16" s="178"/>
       <c r="AI16" s="178"/>
     </row>
-    <row r="17" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
@@ -16667,7 +16798,7 @@
       <c r="AH17" s="178"/>
       <c r="AI17" s="178"/>
     </row>
-    <row r="18" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="175" t="s">
         <v>323</v>
       </c>
@@ -16710,7 +16841,7 @@
       <c r="AH18" s="178"/>
       <c r="AI18" s="178"/>
     </row>
-    <row r="19" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>166</v>
       </c>
@@ -16751,7 +16882,7 @@
       <c r="AH19" s="178"/>
       <c r="AI19" s="178"/>
     </row>
-    <row r="20" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="77" t="s">
         <v>204</v>
@@ -16790,7 +16921,7 @@
       <c r="AH20" s="178"/>
       <c r="AI20" s="178"/>
     </row>
-    <row r="21" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>324</v>
       </c>
@@ -16833,7 +16964,7 @@
       <c r="AH21" s="178"/>
       <c r="AI21" s="178"/>
     </row>
-    <row r="22" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>169</v>
       </c>
@@ -16872,7 +17003,7 @@
       <c r="AH22" s="178"/>
       <c r="AI22" s="178"/>
     </row>
-    <row r="23" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -16909,7 +17040,7 @@
       <c r="AH23" s="178"/>
       <c r="AI23" s="178"/>
     </row>
-    <row r="24" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>325</v>
       </c>
@@ -16952,7 +17083,7 @@
       <c r="AH24" s="178"/>
       <c r="AI24" s="178"/>
     </row>
-    <row r="25" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>171</v>
       </c>
@@ -16991,7 +17122,7 @@
       <c r="AH25" s="178"/>
       <c r="AI25" s="178"/>
     </row>
-    <row r="26" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -17028,7 +17159,7 @@
       <c r="AH26" s="178"/>
       <c r="AI26" s="178"/>
     </row>
-    <row r="27" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
         <v>326</v>
       </c>
@@ -17071,7 +17202,7 @@
       <c r="AH27" s="178"/>
       <c r="AI27" s="178"/>
     </row>
-    <row r="28" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
         <v>166</v>
       </c>
@@ -17110,7 +17241,7 @@
       <c r="AH28" s="178"/>
       <c r="AI28" s="178"/>
     </row>
-    <row r="29" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
@@ -17147,7 +17278,7 @@
       <c r="AH29" s="178"/>
       <c r="AI29" s="178"/>
     </row>
-    <row r="30" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>179</v>
       </c>
@@ -17190,7 +17321,7 @@
       <c r="AH30" s="178"/>
       <c r="AI30" s="178"/>
     </row>
-    <row r="31" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>166</v>
       </c>
@@ -17231,7 +17362,7 @@
       <c r="AH31" s="178"/>
       <c r="AI31" s="178"/>
     </row>
-    <row r="32" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="77" t="s">
         <v>204</v>
@@ -17270,7 +17401,7 @@
       <c r="AH32" s="178"/>
       <c r="AI32" s="178"/>
     </row>
-    <row r="33" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>180</v>
       </c>
@@ -17313,7 +17444,7 @@
       <c r="AH33" s="178"/>
       <c r="AI33" s="178"/>
     </row>
-    <row r="34" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>169</v>
       </c>
@@ -17352,7 +17483,7 @@
       <c r="AH34" s="178"/>
       <c r="AI34" s="178"/>
     </row>
-    <row r="35" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -17389,7 +17520,7 @@
       <c r="AH35" s="178"/>
       <c r="AI35" s="178"/>
     </row>
-    <row r="36" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>181</v>
       </c>
@@ -17432,7 +17563,7 @@
       <c r="AH36" s="178"/>
       <c r="AI36" s="178"/>
     </row>
-    <row r="37" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
         <v>171</v>
       </c>
@@ -17471,7 +17602,7 @@
       <c r="AH37" s="178"/>
       <c r="AI37" s="178"/>
     </row>
-    <row r="38" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="65"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
@@ -17508,7 +17639,7 @@
       <c r="AH38" s="178"/>
       <c r="AI38" s="178"/>
     </row>
-    <row r="39" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
         <v>183</v>
       </c>
@@ -17551,7 +17682,7 @@
       <c r="AH39" s="178"/>
       <c r="AI39" s="178"/>
     </row>
-    <row r="40" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
         <v>166</v>
       </c>
@@ -17590,7 +17721,7 @@
       <c r="AH40" s="178"/>
       <c r="AI40" s="178"/>
     </row>
-    <row r="41" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
@@ -17627,7 +17758,7 @@
       <c r="AH41" s="178"/>
       <c r="AI41" s="178"/>
     </row>
-    <row r="42" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>327</v>
       </c>
@@ -17670,7 +17801,7 @@
       <c r="AH42" s="178"/>
       <c r="AI42" s="178"/>
     </row>
-    <row r="43" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>166</v>
       </c>
@@ -17711,7 +17842,7 @@
       <c r="AH43" s="178"/>
       <c r="AI43" s="178"/>
     </row>
-    <row r="44" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="77" t="s">
         <v>204</v>
@@ -17750,7 +17881,7 @@
       <c r="AH44" s="178"/>
       <c r="AI44" s="178"/>
     </row>
-    <row r="45" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>328</v>
       </c>
@@ -17793,7 +17924,7 @@
       <c r="AH45" s="178"/>
       <c r="AI45" s="178"/>
     </row>
-    <row r="46" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>169</v>
       </c>
@@ -17832,7 +17963,7 @@
       <c r="AH46" s="178"/>
       <c r="AI46" s="178"/>
     </row>
-    <row r="47" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -17869,7 +18000,7 @@
       <c r="AH47" s="178"/>
       <c r="AI47" s="178"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>329</v>
       </c>
@@ -17912,19 +18043,19 @@
       <c r="AH48" s="118"/>
       <c r="AI48" s="118"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>171</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="65"/>
       <c r="B50" s="66"/>
       <c r="C50" s="66"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="s">
         <v>330</v>
       </c>
@@ -17935,26 +18066,26 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="67" t="s">
         <v>166</v>
       </c>
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="59"/>
       <c r="B53" s="60" t="s">
         <v>182</v>
       </c>
       <c r="C53" s="60"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>331</v>
       </c>
@@ -17965,7 +18096,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>175</v>
       </c>

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7254ADC-EDFA-4994-A1D0-CF8EECEFD352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD840E-0A96-44B9-A8CB-BF879431868F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
@@ -2451,36 +2451,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" customWidth="1"/>
     <col min="26" max="26" width="55" customWidth="1"/>
-    <col min="27" max="27" width="65.85546875" customWidth="1"/>
+    <col min="27" max="27" width="65.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3648,7 +3648,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3677,7 +3677,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>9</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>14</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>16</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>18</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>19</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>21</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>23</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>24</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5818,7 +5818,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5847,7 +5847,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7988,7 +7988,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -8017,7 +8017,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -8032,7 +8032,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -8062,7 +8062,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
@@ -8077,7 +8077,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>25</v>
       </c>
@@ -8092,7 +8092,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -8107,7 +8107,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -8122,7 +8122,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -8137,7 +8137,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>29</v>
       </c>
@@ -8152,7 +8152,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -8181,25 +8181,25 @@
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
+    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="86" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="78" t="s">
         <v>83</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -8227,30 +8227,30 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="82" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C7" s="82" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C8" s="82" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="82" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="83"/>
     </row>
-    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>2</v>
       </c>
@@ -8261,35 +8261,35 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C12" s="82" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="82" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="82" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C15" s="82" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="82" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="83"/>
     </row>
-    <row r="18" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>3</v>
       </c>
@@ -8300,30 +8300,30 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="82" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="82" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="82" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="82" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="83"/>
     </row>
-    <row r="24" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>4</v>
       </c>
@@ -8334,39 +8334,39 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C25" s="82" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C26" s="82" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C27" s="82" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="82" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C29" s="82" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="88" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" s="87" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="88" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:3" s="87" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A31" s="85" t="s">
         <v>248</v>
       </c>
       <c r="C31" s="85"/>
     </row>
-    <row r="32" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24">
         <v>5</v>
       </c>
@@ -8377,40 +8377,40 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="82" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C34" s="82" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="82" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="82" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="82" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="82" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="83"/>
     </row>
-    <row r="40" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="24">
         <v>6</v>
       </c>
@@ -8421,35 +8421,35 @@
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="82" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="82" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="82" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C44" s="82" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="82" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="83"/>
     </row>
-    <row r="47" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24">
         <v>7</v>
       </c>
@@ -8461,28 +8461,28 @@
       </c>
       <c r="E47" s="84"/>
     </row>
-    <row r="48" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C48" s="82" t="s">
         <v>255</v>
       </c>
       <c r="E48" s="84"/>
     </row>
-    <row r="49" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C49" s="82" t="s">
         <v>256</v>
       </c>
       <c r="E49" s="84"/>
     </row>
-    <row r="50" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C50" s="82" t="s">
         <v>257</v>
       </c>
       <c r="E50" s="84"/>
     </row>
-    <row r="51" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E51" s="83"/>
     </row>
-    <row r="52" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="69">
         <v>8</v>
       </c>
@@ -8493,36 +8493,36 @@
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C53" s="82" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C54" s="82" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="85" t="s">
         <v>258</v>
       </c>
       <c r="B57" s="85"/>
       <c r="E57" s="84"/>
     </row>
-    <row r="58" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="84" t="s">
         <v>259</v>
       </c>
       <c r="B58" s="84"/>
     </row>
-    <row r="59" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="84" t="s">
         <v>237</v>
       </c>
       <c r="B59" s="84"/>
     </row>
-    <row r="60" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="84" t="s">
         <v>238</v>
       </c>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="C60" s="84"/>
     </row>
-    <row r="61" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="84" t="s">
         <v>240</v>
       </c>
@@ -8552,28 +8552,28 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="19" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="113" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="93" customWidth="1"/>
-    <col min="11" max="11" width="40.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" style="113" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="93" customWidth="1"/>
+    <col min="11" max="11" width="40.81640625" customWidth="1"/>
     <col min="12" max="12" width="6" style="19" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="113" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="93" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="93" customWidth="1"/>
-    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.81640625" style="113" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" style="93" customWidth="1"/>
+    <col min="15" max="15" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1796875" style="93" customWidth="1"/>
+    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="93">
         <v>1</v>
       </c>
@@ -8742,7 +8742,7 @@
       <c r="CT2" s="69"/>
       <c r="CU2" s="69"/>
     </row>
-    <row r="3" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="93">
         <v>2</v>
       </c>
@@ -8859,7 +8859,7 @@
       <c r="CT3" s="69"/>
       <c r="CU3" s="69"/>
     </row>
-    <row r="4" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="93">
         <v>3</v>
       </c>
@@ -8976,7 +8976,7 @@
       <c r="CT4" s="69"/>
       <c r="CU4" s="69"/>
     </row>
-    <row r="5" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="93">
         <v>4</v>
       </c>
@@ -9093,7 +9093,7 @@
       <c r="CT5" s="69"/>
       <c r="CU5" s="69"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A6" s="93">
         <v>5</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A7" s="93">
         <v>6</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A8" s="93">
         <v>7</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A9" s="93">
         <v>8</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A10" s="93">
         <v>9</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A11" s="93">
         <v>10</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A12" s="93">
         <v>11</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:99" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" s="106" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F13" s="109"/>
       <c r="G13" s="107"/>
       <c r="H13" s="22"/>
@@ -9336,7 +9336,7 @@
       <c r="O13" s="108"/>
       <c r="Q13" s="108"/>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A14" s="93">
         <v>12</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A15" s="93">
         <v>13</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A16" s="93">
         <v>14</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="93">
         <v>15</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="93">
         <v>16</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="93">
         <v>17</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="93">
         <v>18</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="93">
         <v>19</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="93">
         <v>20</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="93">
         <v>21</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="93">
         <v>22</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G25" s="108"/>
       <c r="H25" s="115"/>
       <c r="I25" s="112"/>
@@ -9690,7 +9690,7 @@
       <c r="O25" s="108"/>
       <c r="Q25" s="108"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="93">
         <v>23</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="93">
         <v>24</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="93">
         <v>25</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="93">
         <v>26</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="93">
         <v>27</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="93">
         <v>28</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="93">
         <v>29</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="93">
         <v>30</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="93">
         <v>31</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="93">
         <v>32</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="93">
         <v>33</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="106">
         <v>34</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="L37" s="19"/>
       <c r="M37" s="113"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="93">
         <v>35</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="93">
         <v>36</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="93">
         <v>37</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="93">
         <v>38</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="93">
         <v>39</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="93">
         <v>40</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="93">
         <v>41</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="93">
         <v>42</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="93">
         <v>43</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="93">
         <v>44</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="93">
         <v>45</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="106">
         <v>46</v>
       </c>
@@ -10395,37 +10395,37 @@
       <c r="M49" s="113"/>
       <c r="Q49" s="107"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="93">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="93">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="93">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="93">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="93">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="93">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="93">
         <v>53</v>
       </c>
@@ -10441,14 +10441,14 @@
       <c r="M56" s="112"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="93">
         <v>54</v>
       </c>
@@ -10464,14 +10464,14 @@
       <c r="M57" s="112"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G58" s="89" t="s">
         <v>186</v>
       </c>
@@ -10484,14 +10484,14 @@
       <c r="M58" s="112"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G59" s="89" t="s">
         <v>263</v>
       </c>
@@ -10504,14 +10504,14 @@
       <c r="M59" s="112"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="72" t="s">
         <v>189</v>
       </c>
@@ -10527,14 +10527,14 @@
       <c r="M60" s="112"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="70" t="s">
         <v>187</v>
       </c>
@@ -10559,14 +10559,14 @@
       <c r="M61" s="112"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="28" t="s">
         <v>188</v>
       </c>
@@ -10591,14 +10591,14 @@
       <c r="M62" s="112"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="28" t="s">
         <v>186</v>
       </c>
@@ -10621,14 +10621,14 @@
       <c r="M63" s="112"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="74" t="s">
         <v>197</v>
       </c>
@@ -10651,14 +10651,14 @@
       <c r="M64" s="112"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B65" s="91"/>
       <c r="D65" s="92"/>
       <c r="G65" s="89" t="s">
@@ -10673,14 +10673,14 @@
       <c r="M65" s="112"/>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G66" s="89" t="s">
         <v>261</v>
       </c>
@@ -10693,14 +10693,14 @@
       <c r="M66" s="112"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>266</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>267</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>268</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>2</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>2</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>2</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>2</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>3</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>3</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>3</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>3</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>4</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>4</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>4</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>4</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>5</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>5</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>5</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>5</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>6</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>6</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>6</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>6</v>
       </c>
@@ -10991,15 +10991,15 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="11" customWidth="1"/>
-    <col min="10" max="13" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="11" customWidth="1"/>
+    <col min="10" max="13" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="129"/>
       <c r="B1" s="126" t="s">
         <v>292</v>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="131" t="s">
         <v>198</v>
       </c>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="131"/>
       <c r="B3" s="123" t="s">
         <v>290</v>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="132"/>
       <c r="B4" s="135" t="s">
         <v>291</v>
@@ -11065,11 +11065,11 @@
       </c>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="130" t="s">
         <v>282</v>
       </c>
@@ -11080,7 +11080,7 @@
       <c r="F6" s="120"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="131"/>
       <c r="B7" s="123"/>
       <c r="C7" s="118"/>
@@ -11089,7 +11089,7 @@
       <c r="F7" s="26"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="130" t="s">
         <v>283</v>
       </c>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="131"/>
       <c r="B9" s="128" t="s">
         <v>275</v>
@@ -11119,7 +11119,7 @@
       <c r="F9" s="117"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="131"/>
       <c r="B10" s="124" t="s">
         <v>276</v>
@@ -11138,7 +11138,7 @@
       </c>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="131"/>
       <c r="B11" s="124" t="s">
         <v>277</v>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="131"/>
       <c r="B12" s="127" t="s">
         <v>278</v>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="131"/>
       <c r="B13" s="124"/>
       <c r="C13" s="118"/>
@@ -11185,7 +11185,7 @@
       <c r="F13" s="26"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="131"/>
       <c r="B14" s="124"/>
       <c r="C14" s="118"/>
@@ -11194,7 +11194,7 @@
       <c r="F14" s="26"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="130" t="s">
         <v>284</v>
       </c>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="131"/>
       <c r="B16" s="128" t="s">
         <v>275</v>
@@ -11224,7 +11224,7 @@
       <c r="F16" s="117"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="131"/>
       <c r="B17" s="124" t="s">
         <v>276</v>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="131"/>
       <c r="B18" s="124" t="s">
         <v>277</v>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="131"/>
       <c r="B19" s="127" t="s">
         <v>278</v>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="131"/>
       <c r="B20" s="124"/>
       <c r="C20" s="118"/>
@@ -11290,7 +11290,7 @@
       <c r="F20" s="26"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="131"/>
       <c r="B21" s="124"/>
       <c r="C21" s="118"/>
@@ -11299,7 +11299,7 @@
       <c r="F21" s="26"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="130" t="s">
         <v>285</v>
       </c>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="131"/>
       <c r="B23" s="128" t="s">
         <v>275</v>
@@ -11329,7 +11329,7 @@
       <c r="F23" s="117"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="131"/>
       <c r="B24" s="124" t="s">
         <v>276</v>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="131"/>
       <c r="B25" s="124" t="s">
         <v>277</v>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="132"/>
       <c r="B26" s="127" t="s">
         <v>278</v>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="137"/>
       <c r="B27" s="138"/>
       <c r="C27" s="116"/>
@@ -11395,7 +11395,7 @@
       <c r="F27" s="117"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="91"/>
       <c r="B28" s="135"/>
       <c r="C28" s="119"/>
@@ -11404,7 +11404,7 @@
       <c r="F28" s="92"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="136" t="s">
         <v>286</v>
       </c>
@@ -11423,7 +11423,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="131"/>
       <c r="B30" s="124" t="s">
         <v>275</v>
@@ -11434,7 +11434,7 @@
       <c r="F30" s="26"/>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="131"/>
       <c r="B31" s="124" t="s">
         <v>276</v>
@@ -11453,7 +11453,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="131"/>
       <c r="B32" s="124" t="s">
         <v>277</v>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="132"/>
       <c r="B33" s="127" t="s">
         <v>278</v>
@@ -11491,78 +11491,78 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B34" s="11"/>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B35" s="11"/>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" s="11"/>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" s="11"/>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B38" s="11"/>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B40" s="11"/>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" s="11"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" s="11"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B43" s="11"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B44" s="11"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" s="11"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B46" s="11"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>280</v>
       </c>
@@ -11582,12 +11582,12 @@
       <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="143" t="s">
         <v>305</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="140">
         <v>1</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="140">
         <v>2</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="140">
         <v>3</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="140">
         <v>4</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="140">
         <v>5</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="140">
         <v>6</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="140">
         <v>7</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="140">
         <v>8</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="140">
         <v>9</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="157">
         <v>10</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="157">
         <v>11</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="157">
         <v>12</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="157">
         <v>13</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="141">
         <v>14</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="144">
         <v>15</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="144">
         <v>16</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="145">
         <v>17</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="147">
         <v>18</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="146">
         <v>19</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="146">
         <v>20</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="146">
         <v>21</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="146">
         <v>22</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="148">
         <v>23</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="148">
         <v>24</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="148">
         <v>25</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="148">
         <v>26</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="149">
         <v>27</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="149">
         <v>28</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="149">
         <v>29</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="149">
         <v>30</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="150">
         <v>31</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="150">
         <v>32</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="150">
         <v>33</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="150">
         <v>34</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="151">
         <v>35</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="151">
         <v>36</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="152">
         <v>37</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="166">
         <v>38</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="154">
         <v>39</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="154">
         <v>40</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="154">
         <v>41</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="154">
         <v>42</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="155">
         <v>43</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="155">
         <v>44</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="155">
         <v>45</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="155">
         <v>46</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="156">
         <v>47</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="156">
         <v>48</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="156">
         <v>49</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="156">
         <v>50</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="158">
         <v>51</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="158">
         <v>52</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="158">
         <v>53</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="158">
         <v>54</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="173">
         <v>55</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="173">
         <v>56</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="159">
         <v>57</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="160">
         <v>58</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="161">
         <v>59</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="161">
         <v>60</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="161">
         <v>61</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="161">
         <v>62</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="172">
         <v>63</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="172">
         <v>64</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="172">
         <v>65</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="172">
         <v>66</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="162">
         <v>67</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="162">
         <v>68</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="162">
         <v>69</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="162">
         <v>70</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="164">
         <v>71</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="164">
         <v>72</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="164">
         <v>73</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="164">
         <v>74</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="165">
         <v>75</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="165">
         <v>76</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="167">
         <v>77</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="168">
         <v>78</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="169">
         <v>79</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="169">
         <v>80</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="169">
         <v>81</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="169">
         <v>82</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="170">
         <v>83</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="170">
         <v>84</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="170">
         <v>85</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="170">
         <v>86</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="171">
         <v>87</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="171">
         <v>88</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="171">
         <v>89</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="171">
         <v>90</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="174">
         <v>91</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="174">
         <v>92</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="174">
         <v>93</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="174">
         <v>94</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="139">
         <v>95</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="139">
         <v>96</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="139">
         <v>97</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="139">
         <v>98</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="139">
         <v>99</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="139">
         <v>100</v>
       </c>
@@ -14875,21 +14875,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v xml:space="preserve">Study1_pilot_marker_test_front_cam1 </v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>0</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v xml:space="preserve">Study1_pilot_marker_test_front_back_cam1 </v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>0</v>
       </c>
@@ -14987,8 +14987,8 @@
         <v xml:space="preserve">Study1_pilot_marker_test_front_board_cam1 </v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personA_glasses </v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personA_cam1 </v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>Study1_pilot_expert_personA_cam2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>Study1_pilot_expert_personA_cam3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>Study1_pilot_expert_personA_cam4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personA_ambient </v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>2</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>340</v>
@@ -15153,10 +15153,10 @@
       </c>
       <c r="G12" s="21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_expert_personB_glasses </v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Study1_pilot_novice_personB_glasses </v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>2</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>340</v>
@@ -15177,10 +15177,10 @@
       </c>
       <c r="G13" s="21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_expert_personB_cam1 </v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Study1_pilot_novice_personB_cam1 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>2</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>340</v>
@@ -15201,10 +15201,10 @@
       </c>
       <c r="G14" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Study1_pilot_expert_personB_cam2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>Study1_pilot_novice_personB_cam2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>2</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>340</v>
@@ -15225,10 +15225,10 @@
       </c>
       <c r="G15" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Study1_pilot_expert_personB_cam3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>Study1_pilot_novice_personB_cam3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>2</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>340</v>
@@ -15249,10 +15249,10 @@
       </c>
       <c r="G16" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>Study1_pilot_expert_personB_cam4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>Study1_pilot_novice_personB_cam4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
         <v>2</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>47</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>340</v>
@@ -15273,10 +15273,10 @@
       </c>
       <c r="G17" s="21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Study2_pilot_expert_personB_ambient </v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Study2_pilot_novice_personB_ambient </v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>3</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>341</v>
@@ -15297,10 +15297,10 @@
       </c>
       <c r="G18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_expert_personC_glasses </v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Study1_pilot_novice_personC_glasses </v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>3</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>341</v>
@@ -15321,10 +15321,10 @@
       </c>
       <c r="G19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_expert_personC_cam1 </v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Study1_pilot_novice_personC_cam1 </v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>3</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>341</v>
@@ -15345,10 +15345,10 @@
       </c>
       <c r="G20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Study1_pilot_expert_personC_cam2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>Study1_pilot_novice_personC_cam2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>3</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>341</v>
@@ -15369,10 +15369,10 @@
       </c>
       <c r="G21" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Study1_pilot_expert_personC_cam3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>Study1_pilot_novice_personC_cam3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>3</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>341</v>
@@ -15393,10 +15393,10 @@
       </c>
       <c r="G22" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Study1_pilot_expert_personC_cam4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>Study1_pilot_novice_personC_cam4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>3</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>341</v>
@@ -15417,10 +15417,10 @@
       </c>
       <c r="G23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_expert_personC_ambient </v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Study1_pilot_novice_personC_ambient </v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>4</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personD_glasses </v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>4</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personD_cam1 </v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>4</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>Study1_pilot_expert_personD_cam2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>4</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>Study1_pilot_expert_personD_cam3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>4</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>Study1_pilot_expert_personD_cam4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>4</v>
       </c>
@@ -15564,13 +15564,13 @@
         <v xml:space="preserve">Study1_pilot_expert_personD_ambient </v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="180" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="180" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="181"/>
       <c r="C30" s="182"/>
       <c r="D30" s="182"/>
       <c r="E30" s="182"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>1</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>1</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>1</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>1</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>1</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>1</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="21">
         <v>2</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21">
         <v>2</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="21">
         <v>2</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="21">
         <v>2</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="21">
         <v>2</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="21">
         <v>2</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v xml:space="preserve">Study2_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>3</v>
       </c>
@@ -15856,7 +15856,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
         <v>3</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
         <v>3</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
         <v>3</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
         <v>3</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16">
         <v>3</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="22">
         <v>4</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v xml:space="preserve">Study1_pilot_novice_glasses </v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="22">
         <v>4</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="22">
         <v>4</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>Study1_pilot_novice_cam2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="22">
         <v>4</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>Study1_pilot_novice_cam3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="22">
         <v>4</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>Study1_pilot_novice_cam4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="22">
         <v>4</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v xml:space="preserve">Study1_pilot_novice_ambient </v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16112,14 +16112,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" style="28" customWidth="1"/>
     <col min="3" max="3" width="16" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>161</v>
       </c>
@@ -16162,7 +16162,7 @@
       <c r="AH1" s="177"/>
       <c r="AI1" s="177"/>
     </row>
-    <row r="2" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
       <c r="C2" s="179"/>
@@ -16199,7 +16199,7 @@
       <c r="AH2" s="178"/>
       <c r="AI2" s="178"/>
     </row>
-    <row r="3" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>174</v>
       </c>
@@ -16242,7 +16242,7 @@
       <c r="AH3" s="178"/>
       <c r="AI3" s="178"/>
     </row>
-    <row r="4" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>175</v>
       </c>
@@ -16281,7 +16281,7 @@
       <c r="AH4" s="178"/>
       <c r="AI4" s="178"/>
     </row>
-    <row r="5" spans="1:35" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="61"/>
       <c r="B5" s="62" t="s">
         <v>176</v>
@@ -16320,7 +16320,7 @@
       <c r="AH5" s="118"/>
       <c r="AI5" s="118"/>
     </row>
-    <row r="6" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="53" t="s">
         <v>162</v>
       </c>
@@ -16363,7 +16363,7 @@
       <c r="AH6" s="178"/>
       <c r="AI6" s="178"/>
     </row>
-    <row r="7" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
         <v>166</v>
       </c>
@@ -16402,7 +16402,7 @@
       <c r="AH7" s="178"/>
       <c r="AI7" s="178"/>
     </row>
-    <row r="8" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39"/>
       <c r="B8" s="77" t="s">
         <v>204</v>
@@ -16441,7 +16441,7 @@
       <c r="AH8" s="178"/>
       <c r="AI8" s="178"/>
     </row>
-    <row r="9" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>168</v>
       </c>
@@ -16484,7 +16484,7 @@
       <c r="AH9" s="178"/>
       <c r="AI9" s="178"/>
     </row>
-    <row r="10" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>169</v>
       </c>
@@ -16523,7 +16523,7 @@
       <c r="AH10" s="178"/>
       <c r="AI10" s="178"/>
     </row>
-    <row r="11" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -16560,7 +16560,7 @@
       <c r="AH11" s="178"/>
       <c r="AI11" s="178"/>
     </row>
-    <row r="12" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>170</v>
       </c>
@@ -16603,7 +16603,7 @@
       <c r="AH12" s="178"/>
       <c r="AI12" s="178"/>
     </row>
-    <row r="13" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>171</v>
       </c>
@@ -16642,7 +16642,7 @@
       <c r="AH13" s="178"/>
       <c r="AI13" s="178"/>
     </row>
-    <row r="14" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="65"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
@@ -16679,7 +16679,7 @@
       <c r="AH14" s="178"/>
       <c r="AI14" s="178"/>
     </row>
-    <row r="15" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
         <v>177</v>
       </c>
@@ -16722,7 +16722,7 @@
       <c r="AH15" s="178"/>
       <c r="AI15" s="178"/>
     </row>
-    <row r="16" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="67" t="s">
         <v>166</v>
       </c>
@@ -16761,7 +16761,7 @@
       <c r="AH16" s="178"/>
       <c r="AI16" s="178"/>
     </row>
-    <row r="17" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
@@ -16798,7 +16798,7 @@
       <c r="AH17" s="178"/>
       <c r="AI17" s="178"/>
     </row>
-    <row r="18" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="175" t="s">
         <v>323</v>
       </c>
@@ -16841,7 +16841,7 @@
       <c r="AH18" s="178"/>
       <c r="AI18" s="178"/>
     </row>
-    <row r="19" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>166</v>
       </c>
@@ -16882,7 +16882,7 @@
       <c r="AH19" s="178"/>
       <c r="AI19" s="178"/>
     </row>
-    <row r="20" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43"/>
       <c r="B20" s="77" t="s">
         <v>204</v>
@@ -16921,7 +16921,7 @@
       <c r="AH20" s="178"/>
       <c r="AI20" s="178"/>
     </row>
-    <row r="21" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
         <v>324</v>
       </c>
@@ -16964,7 +16964,7 @@
       <c r="AH21" s="178"/>
       <c r="AI21" s="178"/>
     </row>
-    <row r="22" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
         <v>169</v>
       </c>
@@ -17003,7 +17003,7 @@
       <c r="AH22" s="178"/>
       <c r="AI22" s="178"/>
     </row>
-    <row r="23" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -17040,7 +17040,7 @@
       <c r="AH23" s="178"/>
       <c r="AI23" s="178"/>
     </row>
-    <row r="24" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
         <v>325</v>
       </c>
@@ -17083,7 +17083,7 @@
       <c r="AH24" s="178"/>
       <c r="AI24" s="178"/>
     </row>
-    <row r="25" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
         <v>171</v>
       </c>
@@ -17122,7 +17122,7 @@
       <c r="AH25" s="178"/>
       <c r="AI25" s="178"/>
     </row>
-    <row r="26" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -17159,7 +17159,7 @@
       <c r="AH26" s="178"/>
       <c r="AI26" s="178"/>
     </row>
-    <row r="27" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
         <v>326</v>
       </c>
@@ -17202,7 +17202,7 @@
       <c r="AH27" s="178"/>
       <c r="AI27" s="178"/>
     </row>
-    <row r="28" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="67" t="s">
         <v>166</v>
       </c>
@@ -17241,7 +17241,7 @@
       <c r="AH28" s="178"/>
       <c r="AI28" s="178"/>
     </row>
-    <row r="29" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="57"/>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
@@ -17278,7 +17278,7 @@
       <c r="AH29" s="178"/>
       <c r="AI29" s="178"/>
     </row>
-    <row r="30" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57" t="s">
         <v>179</v>
       </c>
@@ -17321,7 +17321,7 @@
       <c r="AH30" s="178"/>
       <c r="AI30" s="178"/>
     </row>
-    <row r="31" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>166</v>
       </c>
@@ -17362,7 +17362,7 @@
       <c r="AH31" s="178"/>
       <c r="AI31" s="178"/>
     </row>
-    <row r="32" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48"/>
       <c r="B32" s="77" t="s">
         <v>204</v>
@@ -17401,7 +17401,7 @@
       <c r="AH32" s="178"/>
       <c r="AI32" s="178"/>
     </row>
-    <row r="33" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="52" t="s">
         <v>180</v>
       </c>
@@ -17444,7 +17444,7 @@
       <c r="AH33" s="178"/>
       <c r="AI33" s="178"/>
     </row>
-    <row r="34" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>169</v>
       </c>
@@ -17483,7 +17483,7 @@
       <c r="AH34" s="178"/>
       <c r="AI34" s="178"/>
     </row>
-    <row r="35" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -17520,7 +17520,7 @@
       <c r="AH35" s="178"/>
       <c r="AI35" s="178"/>
     </row>
-    <row r="36" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="48" t="s">
         <v>181</v>
       </c>
@@ -17563,7 +17563,7 @@
       <c r="AH36" s="178"/>
       <c r="AI36" s="178"/>
     </row>
-    <row r="37" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="50" t="s">
         <v>171</v>
       </c>
@@ -17602,7 +17602,7 @@
       <c r="AH37" s="178"/>
       <c r="AI37" s="178"/>
     </row>
-    <row r="38" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="65"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
@@ -17639,7 +17639,7 @@
       <c r="AH38" s="178"/>
       <c r="AI38" s="178"/>
     </row>
-    <row r="39" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="65" t="s">
         <v>183</v>
       </c>
@@ -17682,7 +17682,7 @@
       <c r="AH39" s="178"/>
       <c r="AI39" s="178"/>
     </row>
-    <row r="40" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="67" t="s">
         <v>166</v>
       </c>
@@ -17721,7 +17721,7 @@
       <c r="AH40" s="178"/>
       <c r="AI40" s="178"/>
     </row>
-    <row r="41" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="57"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
@@ -17758,7 +17758,7 @@
       <c r="AH41" s="178"/>
       <c r="AI41" s="178"/>
     </row>
-    <row r="42" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="57" t="s">
         <v>327</v>
       </c>
@@ -17801,7 +17801,7 @@
       <c r="AH42" s="178"/>
       <c r="AI42" s="178"/>
     </row>
-    <row r="43" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="25" t="s">
         <v>166</v>
       </c>
@@ -17842,7 +17842,7 @@
       <c r="AH43" s="178"/>
       <c r="AI43" s="178"/>
     </row>
-    <row r="44" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="30"/>
       <c r="B44" s="77" t="s">
         <v>204</v>
@@ -17881,7 +17881,7 @@
       <c r="AH44" s="178"/>
       <c r="AI44" s="178"/>
     </row>
-    <row r="45" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>328</v>
       </c>
@@ -17924,7 +17924,7 @@
       <c r="AH45" s="178"/>
       <c r="AI45" s="178"/>
     </row>
-    <row r="46" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33" t="s">
         <v>169</v>
       </c>
@@ -17963,7 +17963,7 @@
       <c r="AH46" s="178"/>
       <c r="AI46" s="178"/>
     </row>
-    <row r="47" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -18000,7 +18000,7 @@
       <c r="AH47" s="178"/>
       <c r="AI47" s="178"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
         <v>329</v>
       </c>
@@ -18043,19 +18043,19 @@
       <c r="AH48" s="118"/>
       <c r="AI48" s="118"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="33" t="s">
         <v>171</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="65"/>
       <c r="B50" s="66"/>
       <c r="C50" s="66"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="65" t="s">
         <v>330</v>
       </c>
@@ -18066,26 +18066,26 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="67" t="s">
         <v>166</v>
       </c>
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="59"/>
       <c r="B53" s="60" t="s">
         <v>182</v>
       </c>
       <c r="C53" s="60"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="57"/>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="57" t="s">
         <v>331</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
         <v>175</v>
       </c>

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD840E-0A96-44B9-A8CB-BF879431868F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0331444A-46F5-40B8-972E-06656DD00CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="352">
   <si>
     <t>study</t>
   </si>
@@ -1058,6 +1058,33 @@
   </si>
   <si>
     <t>personD</t>
+  </si>
+  <si>
+    <t>social studies</t>
+  </si>
+  <si>
+    <t>no cam 1</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>educational studies</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>lack_staring</t>
+  </si>
+  <si>
+    <t>(agit_walk)</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1381,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1507,6 +1534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,7 +1724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2054,6 +2087,20 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -2451,8 +2498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2462,8 +2509,10 @@
     <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
     <col min="10" max="10" width="14.7265625" customWidth="1"/>
     <col min="11" max="11" width="10.81640625" customWidth="1"/>
     <col min="12" max="12" width="14.54296875" customWidth="1"/>
@@ -2564,354 +2613,354 @@
       </c>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="184">
+        <v>1</v>
+      </c>
+      <c r="B2" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="184" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="184" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="3">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="184">
+        <v>25</v>
+      </c>
+      <c r="J2" s="184" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="M2" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="184">
         <v>21</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="184">
         <v>2</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="184">
         <v>1969</v>
       </c>
-      <c r="Q2" s="3" t="str">
+      <c r="Q2" s="184" t="str">
         <f t="shared" ref="Q2" si="0">N2&amp;"/"&amp;O2&amp;"/"&amp;P2</f>
         <v>21/2/1969</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="184">
         <v>29</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="184">
         <v>7</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="184">
         <v>2020</v>
       </c>
-      <c r="U2" s="3" t="str">
+      <c r="U2" s="184" t="str">
         <f>R2&amp;"/"&amp;S2&amp;"/"&amp;T2</f>
         <v>29/7/2020</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="184">
         <f t="shared" ref="V2" si="1">DATEDIF(Q2, U2, "m")</f>
         <v>617</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="184">
         <f t="shared" ref="W2" si="2">DATEDIF(Q2, U2, "d")</f>
         <v>18786</v>
       </c>
-      <c r="X2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3" t="str">
+      <c r="X2" s="184">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="184">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="184" t="str">
         <f>CONCATENATE(B2,"_",C2,D2,"_",E2)</f>
         <v>Study1_pilot01_expert</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>13</v>
+      <c r="AA2" s="184" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="184">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="184" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="3">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="184" t="s">
+        <v>343</v>
+      </c>
+      <c r="I3" s="184">
+        <v>15</v>
+      </c>
+      <c r="J3" s="184" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="M3" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="184">
         <v>20</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="184">
         <v>12</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="184">
         <v>1975</v>
       </c>
-      <c r="Q3" s="3" t="str">
+      <c r="Q3" s="184" t="str">
         <f t="shared" ref="Q3:Q6" si="3">N3&amp;"/"&amp;O3&amp;"/"&amp;P3</f>
         <v>20/12/1975</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="184">
         <v>29</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="184">
         <v>7</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="184">
         <v>2020</v>
       </c>
-      <c r="U3" s="3" t="str">
+      <c r="U3" s="184" t="str">
         <f t="shared" ref="U3:U6" si="4">R3&amp;"/"&amp;S3&amp;"/"&amp;T3</f>
         <v>29/7/2020</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="184">
         <f t="shared" ref="V3:V13" si="5">DATEDIF(Q3, U3, "m")</f>
         <v>535</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="184">
         <f t="shared" ref="W3:W13" si="6">DATEDIF(Q3, U3, "d")</f>
         <v>16293</v>
       </c>
-      <c r="X3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3" t="str">
+      <c r="X3" s="184">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="184">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="184" t="str">
         <f t="shared" ref="Z3:Z13" si="7">CONCATENATE(B3,"_",C3,D3,"_",E3)</f>
         <v>Study1_pilot01_expert</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="184" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="184">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="184" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="3">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="184" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I4" s="184">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="184" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="M4" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="184">
         <v>15</v>
       </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="O4" s="184">
+        <v>1</v>
+      </c>
+      <c r="P4" s="184">
         <v>1991</v>
       </c>
-      <c r="Q4" s="3" t="str">
+      <c r="Q4" s="184" t="str">
         <f t="shared" si="3"/>
         <v>15/1/1991</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="184">
         <v>29</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="184">
         <v>7</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="184">
         <v>2020</v>
       </c>
-      <c r="U4" s="3" t="str">
+      <c r="U4" s="184" t="str">
         <f t="shared" si="4"/>
         <v>29/7/2020</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="184">
         <f t="shared" si="5"/>
         <v>354</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="184">
         <f t="shared" si="6"/>
         <v>10788</v>
       </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="str">
+      <c r="X4" s="184">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="184">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="184" t="str">
         <f t="shared" si="7"/>
-        <v>Study1_pilot01_expert</v>
-      </c>
-      <c r="AA4" s="3" t="s">
+        <v>Study1_pilot01_novice</v>
+      </c>
+      <c r="AA4" s="184" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="184">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="184" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="3">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="184" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="184" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5" s="184">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="184" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="M5" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="184">
         <v>23</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="184">
         <v>3</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="184">
         <v>1993</v>
       </c>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" s="184" t="str">
         <f t="shared" si="3"/>
         <v>23/3/1993</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="184">
         <v>29</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="184">
         <v>7</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="184">
         <v>2020</v>
       </c>
-      <c r="U5" s="3" t="str">
+      <c r="U5" s="184" t="str">
         <f t="shared" si="4"/>
         <v>29/7/2020</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="184">
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="184">
         <f t="shared" si="6"/>
         <v>9990</v>
       </c>
-      <c r="X5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3" t="str">
+      <c r="X5" s="184">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="184">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="184" t="str">
         <f t="shared" si="7"/>
-        <v>Study1_pilot01_expert</v>
-      </c>
-      <c r="AA5" s="3" t="s">
+        <v>Study1_pilot01_novice</v>
+      </c>
+      <c r="AA5" s="184" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2931,8 +2980,8 @@
       <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
+      <c r="F6" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>62</v>
@@ -3019,8 +3068,8 @@
       <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
+      <c r="F7" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>62</v>
@@ -3107,8 +3156,8 @@
       <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
+      <c r="F8" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>62</v>
@@ -3195,8 +3244,8 @@
       <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
+      <c r="F9" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>62</v>
@@ -3283,8 +3332,8 @@
       <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
+      <c r="F10" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>63</v>
@@ -3371,8 +3420,8 @@
       <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="7">
-        <v>1</v>
+      <c r="F11" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>61</v>
@@ -3459,8 +3508,8 @@
       <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
+      <c r="F12" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>61</v>
@@ -3547,8 +3596,8 @@
       <c r="E13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
+      <c r="F13" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>61</v>
@@ -10441,11 +10490,11 @@
       <c r="M56" s="112"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -10468,7 +10517,7 @@
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
@@ -10484,11 +10533,11 @@
       <c r="M58" s="112"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
@@ -10504,7 +10553,7 @@
       <c r="M59" s="112"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
@@ -10527,11 +10576,11 @@
       <c r="M60" s="112"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -10559,11 +10608,11 @@
       <c r="M61" s="112"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
@@ -10591,11 +10640,11 @@
       <c r="M62" s="112"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -10621,11 +10670,11 @@
       <c r="M63" s="112"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -10651,11 +10700,11 @@
       <c r="M64" s="112"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
@@ -10677,7 +10726,7 @@
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -10693,11 +10742,11 @@
       <c r="M66" s="112"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
@@ -10987,8 +11036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E918F0-9C6B-4528-8541-240528FAF3FE}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11044,8 +11093,8 @@
       <c r="D3" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>273</v>
+      <c r="E3" s="188" t="s">
+        <v>351</v>
       </c>
       <c r="I3"/>
     </row>
@@ -11057,7 +11106,7 @@
       <c r="C4" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="118" t="s">
         <v>271</v>
       </c>
       <c r="E4" s="92" t="s">
@@ -11067,436 +11116,431 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
+      <c r="D5" s="191" t="s">
+        <v>350</v>
+      </c>
       <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="130" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="120"/>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="131"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="26"/>
-      <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="130" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="134" t="s">
-        <v>39</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="120"/>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="131"/>
-      <c r="B9" s="128" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="26"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="131"/>
-      <c r="B10" s="124" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="D10" s="118" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="118" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>271</v>
+      <c r="A10" s="130" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="126"/>
+      <c r="C10" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>39</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="131"/>
-      <c r="B11" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="118" t="s">
-        <v>269</v>
-      </c>
-      <c r="E11" s="118" t="s">
-        <v>273</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>268</v>
-      </c>
+      <c r="B11" s="128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="131"/>
-      <c r="B12" s="127" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="122" t="s">
+      <c r="B12" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="119" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="119" t="s">
-        <v>270</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>274</v>
+      <c r="D12" s="118" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="118" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="131"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="187" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>268</v>
+      </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="131"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="26"/>
+      <c r="B14" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="119" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>274</v>
+      </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="130" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="134" t="s">
-        <v>39</v>
-      </c>
+      <c r="A15" s="131"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="26"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="131"/>
-      <c r="B16" s="128" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="117"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="26"/>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="131"/>
-      <c r="B17" s="124" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="118" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="118" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>267</v>
+      <c r="A17" s="130" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="126"/>
+      <c r="C17" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="134" t="s">
+        <v>39</v>
       </c>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="131"/>
-      <c r="B18" s="124" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="118" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="118" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>270</v>
-      </c>
+      <c r="B18" s="128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="117"/>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="131"/>
-      <c r="B19" s="127" t="s">
-        <v>278</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="122" t="s">
+      <c r="B19" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" s="118" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="119" t="s">
-        <v>266</v>
-      </c>
-      <c r="F19" s="92" t="s">
-        <v>273</v>
+      <c r="E19" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>267</v>
       </c>
       <c r="I19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="131"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="124" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="118" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="118" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>270</v>
+      </c>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="131"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="26"/>
+      <c r="B21" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="189" t="s">
+        <v>350</v>
+      </c>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="130" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="134" t="s">
-        <v>39</v>
-      </c>
+      <c r="A22" s="131"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="26"/>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="131"/>
-      <c r="B23" s="128" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="26"/>
       <c r="I23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="131"/>
-      <c r="B24" s="124" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24" s="118" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="118" t="s">
-        <v>274</v>
-      </c>
-      <c r="E24" s="121" t="s">
-        <v>279</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>269</v>
+      <c r="A24" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" s="126"/>
+      <c r="C24" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="134" t="s">
+        <v>39</v>
       </c>
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="131"/>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="117"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="131"/>
+      <c r="B26" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="118" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="131"/>
+      <c r="B27" s="124" t="s">
         <v>277</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C27" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D27" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="E25" s="121" t="s">
+      <c r="E27" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F27" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="132"/>
-      <c r="B26" s="127" t="s">
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="132"/>
+      <c r="B28" s="127" t="s">
         <v>278</v>
       </c>
-      <c r="C26" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="D26" s="119" t="s">
+      <c r="C28" s="190" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="119" t="s">
         <v>271</v>
       </c>
-      <c r="E26" s="122" t="s">
+      <c r="E28" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F28" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="137"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="117"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="91"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="92"/>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="137"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="91"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="92"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="133" t="s">
+      <c r="B31" s="126"/>
+      <c r="C31" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="133" t="s">
+      <c r="D31" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="133" t="s">
+      <c r="E31" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="134" t="s">
+      <c r="F31" s="134" t="s">
         <v>39</v>
-      </c>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="131"/>
-      <c r="B30" s="124" t="s">
-        <v>275</v>
-      </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="26"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="131"/>
-      <c r="B31" s="124" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31" s="118" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="118" t="s">
-        <v>273</v>
-      </c>
-      <c r="E31" s="118" t="s">
-        <v>271</v>
-      </c>
-      <c r="F31" s="121" t="s">
-        <v>279</v>
       </c>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="131"/>
       <c r="B32" s="124" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="26"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="131"/>
+      <c r="B33" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="187" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="131"/>
+      <c r="B34" s="124" t="s">
         <v>277</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C34" s="118" t="s">
         <v>269</v>
       </c>
-      <c r="D32" s="118" t="s">
+      <c r="D34" s="118" t="s">
         <v>267</v>
       </c>
-      <c r="E32" s="118" t="s">
+      <c r="E34" s="118" t="s">
         <v>274</v>
       </c>
-      <c r="F32" s="121" t="s">
+      <c r="F34" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="132"/>
-      <c r="B33" s="127" t="s">
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="132"/>
+      <c r="B35" s="127" t="s">
         <v>278</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C35" s="119" t="s">
         <v>272</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D35" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E35" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="F33" s="122" t="s">
+      <c r="F35" s="122" t="s">
         <v>279</v>
       </c>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="11"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="11"/>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA94216C-3AA5-4FD9-BC71-D114C2E49C09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01815B43-011B-4016-8408-8BC79E0281E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
@@ -2557,38 +2557,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" customWidth="1"/>
     <col min="26" max="26" width="55" customWidth="1"/>
-    <col min="27" max="27" width="65.85546875" customWidth="1"/>
+    <col min="27" max="27" width="65.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="184">
         <v>1</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="184">
         <v>2</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="184">
         <v>3</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="199" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="199" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="194">
         <v>4</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="192">
         <v>5</v>
       </c>
@@ -3070,11 +3070,11 @@
         <v>4</v>
       </c>
       <c r="P6" s="192">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="Q6" s="192" t="str">
         <f t="shared" si="3"/>
-        <v>3/4/1995</v>
+        <v>3/4/1997</v>
       </c>
       <c r="R6" s="192">
         <v>5</v>
@@ -3091,11 +3091,11 @@
       </c>
       <c r="V6" s="192">
         <f t="shared" si="5"/>
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="W6" s="192">
         <f t="shared" si="6"/>
-        <v>9256</v>
+        <v>8525</v>
       </c>
       <c r="X6" s="192">
         <v>1</v>
@@ -3111,7 +3111,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="192">
         <v>6</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="192">
         <v>7</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="199" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="199" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="200">
         <v>8</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="211" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="211" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="206">
         <v>9</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="199" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="199" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="204">
         <v>12</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3756,7 +3756,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>9</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>14</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>16</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>18</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>19</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>21</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>23</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>24</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5897,7 +5897,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5926,7 +5926,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -8067,7 +8067,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -8096,7 +8096,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -8126,7 +8126,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -8141,7 +8141,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>25</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -8216,7 +8216,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>29</v>
       </c>
@@ -8231,7 +8231,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -8256,29 +8256,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
+    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="86" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="78" t="s">
         <v>83</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -8306,30 +8306,30 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="82" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C7" s="82" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C8" s="82" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="82" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="83"/>
     </row>
-    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>2</v>
       </c>
@@ -8340,35 +8340,35 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C12" s="82" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="82" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="82" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C15" s="82" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="82" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="83"/>
     </row>
-    <row r="18" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>3</v>
       </c>
@@ -8379,30 +8379,30 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="82" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="82" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21" s="82" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="82" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="83"/>
     </row>
-    <row r="24" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>4</v>
       </c>
@@ -8413,39 +8413,39 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C25" s="82" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C26" s="82" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C27" s="82" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="82" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C29" s="82" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="88" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" s="87" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="88" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:3" s="87" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A31" s="85" t="s">
         <v>244</v>
       </c>
       <c r="C31" s="85"/>
     </row>
-    <row r="32" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24">
         <v>5</v>
       </c>
@@ -8456,40 +8456,40 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="82" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C34" s="82" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C35" s="82" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C36" s="82" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="82" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="82" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="83"/>
     </row>
-    <row r="40" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="24">
         <v>6</v>
       </c>
@@ -8500,35 +8500,35 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="82" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="82" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="82" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C44" s="82" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="82" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="83"/>
     </row>
-    <row r="47" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24">
         <v>7</v>
       </c>
@@ -8540,28 +8540,28 @@
       </c>
       <c r="E47" s="84"/>
     </row>
-    <row r="48" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C48" s="82" t="s">
         <v>251</v>
       </c>
       <c r="E48" s="84"/>
     </row>
-    <row r="49" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C49" s="82" t="s">
         <v>252</v>
       </c>
       <c r="E49" s="84"/>
     </row>
-    <row r="50" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C50" s="82" t="s">
         <v>253</v>
       </c>
       <c r="E50" s="84"/>
     </row>
-    <row r="51" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E51" s="83"/>
     </row>
-    <row r="52" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="69">
         <v>8</v>
       </c>
@@ -8572,36 +8572,36 @@
         <v>316</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C53" s="82" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C54" s="82" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="85" t="s">
         <v>254</v>
       </c>
       <c r="B57" s="85"/>
       <c r="E57" s="84"/>
     </row>
-    <row r="58" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="84" t="s">
         <v>255</v>
       </c>
       <c r="B58" s="84"/>
     </row>
-    <row r="59" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="84" t="s">
         <v>233</v>
       </c>
       <c r="B59" s="84"/>
     </row>
-    <row r="60" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="84" t="s">
         <v>234</v>
       </c>
@@ -8610,7 +8610,7 @@
       </c>
       <c r="C60" s="84"/>
     </row>
-    <row r="61" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="84" t="s">
         <v>236</v>
       </c>
@@ -8631,28 +8631,28 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="19" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" style="113" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="93" customWidth="1"/>
-    <col min="11" max="11" width="40.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" style="113" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="93" customWidth="1"/>
+    <col min="11" max="11" width="40.81640625" customWidth="1"/>
     <col min="12" max="12" width="6" style="19" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="113" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="93" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="93" customWidth="1"/>
-    <col min="17" max="17" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.81640625" style="113" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" style="93" customWidth="1"/>
+    <col min="15" max="15" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1796875" style="93" customWidth="1"/>
+    <col min="17" max="17" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="93">
         <v>1</v>
       </c>
@@ -8821,7 +8821,7 @@
       <c r="CT2" s="69"/>
       <c r="CU2" s="69"/>
     </row>
-    <row r="3" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="93">
         <v>2</v>
       </c>
@@ -8938,7 +8938,7 @@
       <c r="CT3" s="69"/>
       <c r="CU3" s="69"/>
     </row>
-    <row r="4" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="93">
         <v>3</v>
       </c>
@@ -9055,7 +9055,7 @@
       <c r="CT4" s="69"/>
       <c r="CU4" s="69"/>
     </row>
-    <row r="5" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="93">
         <v>4</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="CT5" s="69"/>
       <c r="CU5" s="69"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A6" s="93">
         <v>5</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A7" s="93">
         <v>6</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A8" s="93">
         <v>7</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A9" s="93">
         <v>8</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A10" s="93">
         <v>9</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A11" s="93">
         <v>10</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A12" s="93">
         <v>11</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:99" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" s="106" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F13" s="109"/>
       <c r="G13" s="107"/>
       <c r="H13" s="22"/>
@@ -9415,7 +9415,7 @@
       <c r="O13" s="108"/>
       <c r="Q13" s="108"/>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A14" s="93">
         <v>12</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A15" s="93">
         <v>13</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A16" s="93">
         <v>14</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="93">
         <v>15</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="93">
         <v>16</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="93">
         <v>17</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="93">
         <v>18</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="93">
         <v>19</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="93">
         <v>20</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="93">
         <v>21</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="93">
         <v>22</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G25" s="108"/>
       <c r="H25" s="115"/>
       <c r="I25" s="112"/>
@@ -9769,7 +9769,7 @@
       <c r="O25" s="108"/>
       <c r="Q25" s="108"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="93">
         <v>23</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="93">
         <v>24</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="93">
         <v>25</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="93">
         <v>26</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="93">
         <v>27</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="93">
         <v>28</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="93">
         <v>29</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="93">
         <v>30</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="93">
         <v>31</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="93">
         <v>32</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="93">
         <v>33</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="106">
         <v>34</v>
       </c>
@@ -10121,7 +10121,7 @@
       <c r="L37" s="19"/>
       <c r="M37" s="113"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="93">
         <v>35</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="93">
         <v>36</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="93">
         <v>37</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="93">
         <v>38</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="93">
         <v>39</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="93">
         <v>40</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="93">
         <v>41</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="93">
         <v>42</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="93">
         <v>43</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="93">
         <v>44</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="93">
         <v>45</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="106" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="106">
         <v>46</v>
       </c>
@@ -10474,37 +10474,37 @@
       <c r="M49" s="113"/>
       <c r="Q49" s="107"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="93">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="93">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="93">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="93">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="93">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="93">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="93">
         <v>53</v>
       </c>
@@ -10520,14 +10520,14 @@
       <c r="M56" s="112"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="93">
         <v>54</v>
       </c>
@@ -10543,14 +10543,14 @@
       <c r="M57" s="112"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G58" s="89" t="s">
         <v>182</v>
       </c>
@@ -10563,14 +10563,14 @@
       <c r="M58" s="112"/>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G59" s="89" t="s">
         <v>259</v>
       </c>
@@ -10583,14 +10583,14 @@
       <c r="M59" s="112"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="72" t="s">
         <v>185</v>
       </c>
@@ -10606,14 +10606,14 @@
       <c r="M60" s="112"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="70" t="s">
         <v>183</v>
       </c>
@@ -10638,14 +10638,14 @@
       <c r="M61" s="112"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="28" t="s">
         <v>184</v>
       </c>
@@ -10670,14 +10670,14 @@
       <c r="M62" s="112"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="28" t="s">
         <v>182</v>
       </c>
@@ -10700,14 +10700,14 @@
       <c r="M63" s="112"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="74" t="s">
         <v>193</v>
       </c>
@@ -10730,14 +10730,14 @@
       <c r="M64" s="112"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B65" s="91"/>
       <c r="D65" s="92"/>
       <c r="G65" s="89" t="s">
@@ -10752,14 +10752,14 @@
       <c r="M65" s="112"/>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G66" s="89" t="s">
         <v>257</v>
       </c>
@@ -10772,14 +10772,14 @@
       <c r="M66" s="112"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>262</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>263</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>264</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>2</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>2</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>2</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>2</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>3</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>3</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>3</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>3</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>4</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>4</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>4</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>4</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>5</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>5</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>5</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>5</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>6</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>6</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>6</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>6</v>
       </c>
@@ -11070,15 +11070,15 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="11" customWidth="1"/>
-    <col min="10" max="13" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="11" customWidth="1"/>
+    <col min="10" max="13" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="129"/>
       <c r="B1" s="126" t="s">
         <v>288</v>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="131" t="s">
         <v>194</v>
       </c>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="131"/>
       <c r="B3" s="123" t="s">
         <v>286</v>
@@ -11128,7 +11128,7 @@
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="132"/>
       <c r="B4" s="135" t="s">
         <v>287</v>
@@ -11144,14 +11144,14 @@
       </c>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="D5" s="191" t="s">
         <v>345</v>
       </c>
       <c r="I5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="130" t="s">
         <v>278</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="F8" s="120"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="131"/>
       <c r="B9" s="123"/>
       <c r="C9" s="118"/>
@@ -11171,7 +11171,7 @@
       <c r="F9" s="26"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="130" t="s">
         <v>279</v>
       </c>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="131"/>
       <c r="B11" s="128" t="s">
         <v>271</v>
@@ -11201,7 +11201,7 @@
       <c r="F11" s="117"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="131"/>
       <c r="B12" s="124" t="s">
         <v>272</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="131"/>
       <c r="B13" s="124" t="s">
         <v>273</v>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="131"/>
       <c r="B14" s="127" t="s">
         <v>274</v>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="131"/>
       <c r="B15" s="124"/>
       <c r="C15" s="118"/>
@@ -11267,7 +11267,7 @@
       <c r="F15" s="26"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="131"/>
       <c r="B16" s="124"/>
       <c r="C16" s="118"/>
@@ -11276,7 +11276,7 @@
       <c r="F16" s="26"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="130" t="s">
         <v>280</v>
       </c>
@@ -11295,7 +11295,7 @@
       </c>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="131"/>
       <c r="B18" s="128" t="s">
         <v>271</v>
@@ -11306,7 +11306,7 @@
       <c r="F18" s="117"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="131"/>
       <c r="B19" s="124" t="s">
         <v>272</v>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="131"/>
       <c r="B20" s="124" t="s">
         <v>273</v>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="131"/>
       <c r="B21" s="127" t="s">
         <v>274</v>
@@ -11363,7 +11363,7 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="131"/>
       <c r="B22" s="124"/>
       <c r="C22" s="118"/>
@@ -11372,7 +11372,7 @@
       <c r="F22" s="26"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="131"/>
       <c r="B23" s="124"/>
       <c r="C23" s="118"/>
@@ -11381,7 +11381,7 @@
       <c r="F23" s="26"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="130" t="s">
         <v>281</v>
       </c>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="131"/>
       <c r="B25" s="128" t="s">
         <v>271</v>
@@ -11411,7 +11411,7 @@
       <c r="F25" s="117"/>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="131"/>
       <c r="B26" s="124" t="s">
         <v>272</v>
@@ -11430,7 +11430,7 @@
       </c>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="131"/>
       <c r="B27" s="124" t="s">
         <v>273</v>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="132"/>
       <c r="B28" s="127" t="s">
         <v>274</v>
@@ -11468,7 +11468,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="137"/>
       <c r="B29" s="138"/>
       <c r="C29" s="118"/>
@@ -11477,7 +11477,7 @@
       <c r="F29" s="117"/>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="91"/>
       <c r="B30" s="135"/>
       <c r="C30" s="119"/>
@@ -11486,7 +11486,7 @@
       <c r="F30" s="92"/>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="136" t="s">
         <v>282</v>
       </c>
@@ -11505,7 +11505,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="131"/>
       <c r="B32" s="124" t="s">
         <v>271</v>
@@ -11516,7 +11516,7 @@
       <c r="F32" s="26"/>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="131"/>
       <c r="B33" s="124" t="s">
         <v>272</v>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="131"/>
       <c r="B34" s="124" t="s">
         <v>273</v>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="132"/>
       <c r="B35" s="127" t="s">
         <v>274</v>
@@ -11573,70 +11573,70 @@
       </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" s="11"/>
       <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" s="11"/>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B38" s="11"/>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B39" s="11"/>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B40" s="11"/>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" s="11"/>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" s="11"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B43" s="11"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B44" s="11"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" s="11"/>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B46" s="11"/>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B47" s="11"/>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>276</v>
       </c>
@@ -11656,12 +11656,12 @@
       <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="143" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="143" t="s">
         <v>301</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="140">
         <v>1</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="140">
         <v>2</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="140">
         <v>3</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="140">
         <v>4</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="140">
         <v>5</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="140">
         <v>6</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="140">
         <v>7</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="140">
         <v>8</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="140" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="140">
         <v>9</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="157">
         <v>10</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="157">
         <v>11</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="157">
         <v>12</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="157">
         <v>13</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="141">
         <v>14</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="144">
         <v>15</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="144">
         <v>16</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="145">
         <v>17</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="147">
         <v>18</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="146">
         <v>19</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="146">
         <v>20</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="146">
         <v>21</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="146">
         <v>22</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="148">
         <v>23</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="148">
         <v>24</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="148">
         <v>25</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="148">
         <v>26</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="149">
         <v>27</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="149">
         <v>28</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="149">
         <v>29</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="149">
         <v>30</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="150">
         <v>31</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="150">
         <v>32</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="150">
         <v>33</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="150">
         <v>34</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="151">
         <v>35</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="151">
         <v>36</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="152">
         <v>37</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="166">
         <v>38</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="154">
         <v>39</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="154">
         <v>40</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="154">
         <v>41</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="154">
         <v>42</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="155">
         <v>43</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="155">
         <v>44</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="155">
         <v>45</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="155">
         <v>46</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="156">
         <v>47</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="156">
         <v>48</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="156">
         <v>49</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="156">
         <v>50</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="158">
         <v>51</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="158">
         <v>52</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="158">
         <v>53</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="158">
         <v>54</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="173">
         <v>55</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="173">
         <v>56</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="159">
         <v>57</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="160">
         <v>58</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="161">
         <v>59</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="161">
         <v>60</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="161">
         <v>61</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="161">
         <v>62</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="172">
         <v>63</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="172">
         <v>64</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="172">
         <v>65</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="172">
         <v>66</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="162">
         <v>67</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="162">
         <v>68</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="162">
         <v>69</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="162">
         <v>70</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="164">
         <v>71</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="164">
         <v>72</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="164">
         <v>73</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="164">
         <v>74</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="165">
         <v>75</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="165">
         <v>76</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="167">
         <v>77</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="168">
         <v>78</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="169">
         <v>79</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="169">
         <v>80</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="169">
         <v>81</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="169">
         <v>82</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="170">
         <v>83</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="170">
         <v>84</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="170">
         <v>85</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="170">
         <v>86</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="171">
         <v>87</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="171">
         <v>88</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="171">
         <v>89</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="171">
         <v>90</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="174">
         <v>91</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="174">
         <v>92</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="174">
         <v>93</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="174">
         <v>94</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="139">
         <v>95</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="139">
         <v>96</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="139">
         <v>97</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="139">
         <v>98</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="139">
         <v>99</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="139">
         <v>100</v>
       </c>
@@ -14949,21 +14949,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v xml:space="preserve">Study1_pilot_marker_test_front_cam1 </v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>0</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v xml:space="preserve">Study1_pilot_marker_test_front_back_cam1 </v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="24" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>0</v>
       </c>
@@ -15061,8 +15061,8 @@
         <v xml:space="preserve">Study1_pilot_marker_test_front_board_cam1 </v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personA_glasses </v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personA_cam1 </v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>Study1_pilot_expert_personA_cam2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>Study1_pilot_expert_personA_cam3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>Study1_pilot_expert_personA_cam4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personA_ambient </v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>2</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personB_glasses </v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>2</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personB_cam1 </v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>2</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>Study1_pilot_novice_personB_cam2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>2</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>Study1_pilot_novice_personB_cam3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>2</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>Study1_pilot_novice_personB_cam4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
         <v>2</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v xml:space="preserve">Study2_pilot_novice_personB_ambient </v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>3</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personC_glasses </v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>3</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personC_cam1 </v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>3</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>Study1_pilot_novice_personC_cam2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>3</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>Study1_pilot_novice_personC_cam3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>3</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>Study1_pilot_novice_personC_cam4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="16">
         <v>3</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personC_ambient </v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>4</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personD_glasses </v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>4</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v xml:space="preserve">Study1_pilot_expert_personD_cam1 </v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>4</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>Study1_pilot_expert_personD_cam2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>4</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>Study1_pilot_expert_personD_cam3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>4</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>Study1_pilot_expert_personD_cam4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>4</v>
       </c>
@@ -15638,13 +15638,13 @@
         <v xml:space="preserve">Study1_pilot_expert_personD_ambient </v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="180" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="180" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="181"/>
       <c r="C30" s="182"/>
       <c r="D30" s="182"/>
       <c r="E30" s="182"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>1</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personA_glasses </v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>1</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personA_cam1 </v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>1</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>Study1_pilot_novice_personA_cam2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>1</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>Study1_pilot_novice_personA_cam3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>1</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>Study1_pilot_novice_personA_cam4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>1</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personA_ambient </v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="21">
         <v>2</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personB_glasses </v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21">
         <v>2</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personB_cam1 </v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="21">
         <v>2</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>Study1_pilot_novice_personB_cam2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="21">
         <v>2</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>Study1_pilot_novice_personB_cam3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="21">
         <v>2</v>
       </c>
@@ -15908,7 +15908,7 @@
         <v>Study1_pilot_novice_personB_cam4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="21">
         <v>2</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v xml:space="preserve">Study2_pilot_novice_personB_ambient </v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>3</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personC_glasses </v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
         <v>3</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personC_cam1 </v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
         <v>3</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>Study1_pilot_novice_personC_cam2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
         <v>3</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>Study1_pilot_novice_personC_cam3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="16">
         <v>3</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>Study1_pilot_novice_personC_cam4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16">
         <v>3</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personC_ambient </v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="22">
         <v>4</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personD_glasses </v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="22">
         <v>4</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personD_cam1 </v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="22">
         <v>4</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>Study1_pilot_novice_personD_cam2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="22">
         <v>4</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>Study1_pilot_novice_personD_cam3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="22">
         <v>4</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>Study1_pilot_novice_personD_cam4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="22">
         <v>4</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v xml:space="preserve">Study1_pilot_novice_personD_ambient </v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:7" s="180" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16234,14 +16234,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" style="28" customWidth="1"/>
     <col min="3" max="3" width="16" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>157</v>
       </c>
@@ -16284,7 +16284,7 @@
       <c r="AH1" s="177"/>
       <c r="AI1" s="177"/>
     </row>
-    <row r="2" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
       <c r="C2" s="179"/>
@@ -16321,7 +16321,7 @@
       <c r="AH2" s="178"/>
       <c r="AI2" s="178"/>
     </row>
-    <row r="3" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>170</v>
       </c>
@@ -16364,7 +16364,7 @@
       <c r="AH3" s="178"/>
       <c r="AI3" s="178"/>
     </row>
-    <row r="4" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>171</v>
       </c>
@@ -16403,7 +16403,7 @@
       <c r="AH4" s="178"/>
       <c r="AI4" s="178"/>
     </row>
-    <row r="5" spans="1:35" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="61"/>
       <c r="B5" s="62" t="s">
         <v>172</v>
@@ -16442,7 +16442,7 @@
       <c r="AH5" s="118"/>
       <c r="AI5" s="118"/>
     </row>
-    <row r="6" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="53" t="s">
         <v>158</v>
       </c>
@@ -16485,7 +16485,7 @@
       <c r="AH6" s="178"/>
       <c r="AI6" s="178"/>
     </row>
-    <row r="7" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
         <v>162</v>
       </c>
@@ -16524,7 +16524,7 @@
       <c r="AH7" s="178"/>
       <c r="AI7" s="178"/>
     </row>
-    <row r="8" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39"/>
       <c r="B8" s="77" t="s">
         <v>200</v>
@@ -16563,7 +16563,7 @@
       <c r="AH8" s="178"/>
       <c r="AI8" s="178"/>
     </row>
-    <row r="9" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>164</v>
       </c>
@@ -16606,7 +16606,7 @@
       <c r="AH9" s="178"/>
       <c r="AI9" s="178"/>
     </row>
-    <row r="10" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>165</v>
       </c>
@@ -16645,7 +16645,7 @@
       <c r="AH10" s="178"/>
       <c r="AI10" s="178"/>
     </row>
-    <row r="11" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -16682,7 +16682,7 @@
       <c r="AH11" s="178"/>
       <c r="AI11" s="178"/>
     </row>
-    <row r="12" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>166</v>
       </c>
@@ -16725,7 +16725,7 @@
       <c r="AH12" s="178"/>
       <c r="AI12" s="178"/>
     </row>
-    <row r="13" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>167</v>
       </c>
@@ -16764,7 +16764,7 @@
       <c r="AH13" s="178"/>
       <c r="AI13" s="178"/>
     </row>
-    <row r="14" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="65"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
@@ -16801,7 +16801,7 @@
       <c r="AH14" s="178"/>
       <c r="AI14" s="178"/>
     </row>
-    <row r="15" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
         <v>173</v>
       </c>
@@ -16844,7 +16844,7 @@
       <c r="AH15" s="178"/>
       <c r="AI15" s="178"/>
     </row>
-    <row r="16" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="67" t="s">
         <v>162</v>
       </c>
@@ -16883,7 +16883,7 @@
       <c r="AH16" s="178"/>
       <c r="AI16" s="178"/>
     </row>
-    <row r="17" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
@@ -16920,7 +16920,7 @@
       <c r="AH17" s="178"/>
       <c r="AI17" s="178"/>
     </row>
-    <row r="18" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="175" t="s">
         <v>319</v>
       </c>
@@ -16963,7 +16963,7 @@
       <c r="AH18" s="178"/>
       <c r="AI18" s="178"/>
     </row>
-    <row r="19" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>162</v>
       </c>
@@ -17004,7 +17004,7 @@
       <c r="AH19" s="178"/>
       <c r="AI19" s="178"/>
     </row>
-    <row r="20" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43"/>
       <c r="B20" s="77" t="s">
         <v>200</v>
@@ -17043,7 +17043,7 @@
       <c r="AH20" s="178"/>
       <c r="AI20" s="178"/>
     </row>
-    <row r="21" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
         <v>320</v>
       </c>
@@ -17086,7 +17086,7 @@
       <c r="AH21" s="178"/>
       <c r="AI21" s="178"/>
     </row>
-    <row r="22" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
         <v>165</v>
       </c>
@@ -17125,7 +17125,7 @@
       <c r="AH22" s="178"/>
       <c r="AI22" s="178"/>
     </row>
-    <row r="23" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="43"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -17162,7 +17162,7 @@
       <c r="AH23" s="178"/>
       <c r="AI23" s="178"/>
     </row>
-    <row r="24" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="43" t="s">
         <v>321</v>
       </c>
@@ -17205,7 +17205,7 @@
       <c r="AH24" s="178"/>
       <c r="AI24" s="178"/>
     </row>
-    <row r="25" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
         <v>167</v>
       </c>
@@ -17244,7 +17244,7 @@
       <c r="AH25" s="178"/>
       <c r="AI25" s="178"/>
     </row>
-    <row r="26" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
@@ -17281,7 +17281,7 @@
       <c r="AH26" s="178"/>
       <c r="AI26" s="178"/>
     </row>
-    <row r="27" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
         <v>322</v>
       </c>
@@ -17324,7 +17324,7 @@
       <c r="AH27" s="178"/>
       <c r="AI27" s="178"/>
     </row>
-    <row r="28" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="67" t="s">
         <v>162</v>
       </c>
@@ -17363,7 +17363,7 @@
       <c r="AH28" s="178"/>
       <c r="AI28" s="178"/>
     </row>
-    <row r="29" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="57"/>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
@@ -17400,7 +17400,7 @@
       <c r="AH29" s="178"/>
       <c r="AI29" s="178"/>
     </row>
-    <row r="30" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57" t="s">
         <v>175</v>
       </c>
@@ -17443,7 +17443,7 @@
       <c r="AH30" s="178"/>
       <c r="AI30" s="178"/>
     </row>
-    <row r="31" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>162</v>
       </c>
@@ -17484,7 +17484,7 @@
       <c r="AH31" s="178"/>
       <c r="AI31" s="178"/>
     </row>
-    <row r="32" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48"/>
       <c r="B32" s="77" t="s">
         <v>200</v>
@@ -17523,7 +17523,7 @@
       <c r="AH32" s="178"/>
       <c r="AI32" s="178"/>
     </row>
-    <row r="33" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="52" t="s">
         <v>176</v>
       </c>
@@ -17566,7 +17566,7 @@
       <c r="AH33" s="178"/>
       <c r="AI33" s="178"/>
     </row>
-    <row r="34" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>165</v>
       </c>
@@ -17605,7 +17605,7 @@
       <c r="AH34" s="178"/>
       <c r="AI34" s="178"/>
     </row>
-    <row r="35" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -17642,7 +17642,7 @@
       <c r="AH35" s="178"/>
       <c r="AI35" s="178"/>
     </row>
-    <row r="36" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="48" t="s">
         <v>177</v>
       </c>
@@ -17685,7 +17685,7 @@
       <c r="AH36" s="178"/>
       <c r="AI36" s="178"/>
     </row>
-    <row r="37" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="50" t="s">
         <v>167</v>
       </c>
@@ -17724,7 +17724,7 @@
       <c r="AH37" s="178"/>
       <c r="AI37" s="178"/>
     </row>
-    <row r="38" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="65"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
@@ -17761,7 +17761,7 @@
       <c r="AH38" s="178"/>
       <c r="AI38" s="178"/>
     </row>
-    <row r="39" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="65" t="s">
         <v>179</v>
       </c>
@@ -17804,7 +17804,7 @@
       <c r="AH39" s="178"/>
       <c r="AI39" s="178"/>
     </row>
-    <row r="40" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="67" t="s">
         <v>162</v>
       </c>
@@ -17843,7 +17843,7 @@
       <c r="AH40" s="178"/>
       <c r="AI40" s="178"/>
     </row>
-    <row r="41" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="57"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
@@ -17880,7 +17880,7 @@
       <c r="AH41" s="178"/>
       <c r="AI41" s="178"/>
     </row>
-    <row r="42" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="57" t="s">
         <v>323</v>
       </c>
@@ -17923,7 +17923,7 @@
       <c r="AH42" s="178"/>
       <c r="AI42" s="178"/>
     </row>
-    <row r="43" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="25" t="s">
         <v>162</v>
       </c>
@@ -17964,7 +17964,7 @@
       <c r="AH43" s="178"/>
       <c r="AI43" s="178"/>
     </row>
-    <row r="44" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="30"/>
       <c r="B44" s="77" t="s">
         <v>200</v>
@@ -18003,7 +18003,7 @@
       <c r="AH44" s="178"/>
       <c r="AI44" s="178"/>
     </row>
-    <row r="45" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>324</v>
       </c>
@@ -18046,7 +18046,7 @@
       <c r="AH45" s="178"/>
       <c r="AI45" s="178"/>
     </row>
-    <row r="46" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33" t="s">
         <v>165</v>
       </c>
@@ -18085,7 +18085,7 @@
       <c r="AH46" s="178"/>
       <c r="AI46" s="178"/>
     </row>
-    <row r="47" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -18122,7 +18122,7 @@
       <c r="AH47" s="178"/>
       <c r="AI47" s="178"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
         <v>325</v>
       </c>
@@ -18165,19 +18165,19 @@
       <c r="AH48" s="118"/>
       <c r="AI48" s="118"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="65"/>
       <c r="B50" s="66"/>
       <c r="C50" s="66"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="65" t="s">
         <v>326</v>
       </c>
@@ -18188,26 +18188,26 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="67" t="s">
         <v>162</v>
       </c>
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="59"/>
       <c r="B53" s="60" t="s">
         <v>178</v>
       </c>
       <c r="C53" s="60"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="57"/>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="57" t="s">
         <v>327</v>
       </c>
@@ -18218,7 +18218,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
         <v>171</v>
       </c>

--- a/studies/labor study_A/study1_mocklist.xlsx
+++ b/studies/labor study_A/study1_mocklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01815B43-011B-4016-8408-8BC79E0281E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6D2EA7-E771-4AD8-89DB-E880DE814B44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2557,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10520,11 +10520,11 @@
       <c r="M56" s="112"/>
       <c r="O56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q56">
         <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -10543,11 +10543,11 @@
       <c r="M57" s="112"/>
       <c r="O57">
         <f t="shared" ref="O57:O66" ca="1" si="0">RANDBETWEEN(1,11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q66" ca="1" si="1">RANDBETWEEN(1,11)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="Q58">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
@@ -10583,11 +10583,11 @@
       <c r="M59" s="112"/>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q59">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
@@ -10606,11 +10606,11 @@
       <c r="M60" s="112"/>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q60">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -10638,11 +10638,11 @@
       <c r="M61" s="112"/>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q61">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
@@ -10670,11 +10670,11 @@
       <c r="M62" s="112"/>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -10700,7 +10700,7 @@
       <c r="M63" s="112"/>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q63">
         <f t="shared" ca="1" si="1"/>
@@ -10730,11 +10730,11 @@
       <c r="M64" s="112"/>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q64">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
@@ -10752,11 +10752,11 @@
       <c r="M65" s="112"/>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q65">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -10772,11 +10772,11 @@
       <c r="M66" s="112"/>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q66">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
